--- a/project/xlsx/words.xlsx
+++ b/project/xlsx/words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\mycode\wordlist\project\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mygit\wordlist\project\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E45E51-005D-4DCC-9512-783AC767C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD91EBC2-053A-4564-9B88-1646AEF6ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="458">
   <si>
     <t>单词</t>
   </si>
@@ -86,6 +87,18 @@
     <t xml:space="preserve"> There wasn't even a convenient place for students to assemble between classes. </t>
   </si>
   <si>
+    <t>brow</t>
+  </si>
+  <si>
+    <t>[braʊ]</t>
+  </si>
+  <si>
+    <t>n. &lt;文&gt;额；眉毛；坡顶；（从船到岸上的）跳板</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He wiped his brow with the back of his hand. </t>
+  </si>
+  <si>
     <t>accordance</t>
   </si>
   <si>
@@ -879,6 +892,513 @@
   </si>
   <si>
     <t xml:space="preserve"> Workers in big firms receive a substantial part of their pay in the form of bonuses and overtime. </t>
+  </si>
+  <si>
+    <t>booth</t>
+  </si>
+  <si>
+    <t>[buːð]</t>
+  </si>
+  <si>
+    <t>n. 电话亭，投票间；售货棚，摊位；岗亭；（隔开的）小间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I called her from a public phone booth near the entrance to the bar. </t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>[baʊns]</t>
+  </si>
+  <si>
+    <t>v. 弹起，反弹；跳动，蹦；（使）上下晃动；（用膝盖）颠动（孩子）；蹦蹦跳跳地去；拒付，退回（支票等）；退回（电子邮件）；驱逐，解雇；（向某人）透露主意（以试探其反应）；反复跳槽，来回往返某地；（光线或声音）反射；撞击，碰撞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My father would burst into the kitchen bouncing a tennis ball. </t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>[baʊnd]</t>
+  </si>
+  <si>
+    <t>adj. 必然的，肯定的；受约束的，有义务的；被……所限制的，被……所束缚的；要到……去的，驶往……的；装订好的，有封面的；（与……）紧密相连的，关系密切；准备就绪的；（语法要素）黏附的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are bound to be price increases next year. </t>
+  </si>
+  <si>
+    <t>bowel</t>
+  </si>
+  <si>
+    <t>[ˈbaʊəl]</t>
+  </si>
+  <si>
+    <t>n. 肠，肠道；内部，深处</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Symptoms such as stomach pains and irritable bowels can be signs of bowel cancer. </t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>[bəʊl]</t>
+  </si>
+  <si>
+    <t>n. 碗，盆；一碗之量；碗状物；&lt;英&gt;草地滚球；（草地滚球中的）木球，圆球 ；&lt;美&gt;椭圆形运动场，环形剧场 ；美式足球季后赛；盆地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Put all the ingredients into a large bowl. </t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>[ˈbrækɪt]</t>
+  </si>
+  <si>
+    <t>n. （固定在墙上的）托架，支架；（收入、年龄等的）等级段，组级；括号；夹叉射击</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...a 33% top tax rate on everyone in these high-income brackets. </t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>[ˈkɑːpɪt]</t>
+  </si>
+  <si>
+    <t>n. 地毯；覆盖地面的一层厚东西；&lt;美，非正式&gt;人工球场；地毯衣蛾</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They put down wooden boards, and laid new carpets on top. </t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>[ˈblæŋkɪt]</t>
+  </si>
+  <si>
+    <t>n. 毯子，毛毯；厚层，覆盖层；气氛，氛围；障碍，障碍物；（平版印刷的）橡皮布；（平版印刷的）橡皮</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The mud disappeared under a blanket of snow. </t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>[ˈbɑːskɪt]</t>
+  </si>
+  <si>
+    <t>n. 篮子；一篮的量；（篮球运动的）篮；投篮得分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...big wicker picnic baskets filled with sandwiches. </t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>[ˈbʌkɪt]</t>
+  </si>
+  <si>
+    <t>n. 桶；一桶之量；（机器的）挖斗，铲斗；大量；投篮得分；存储桶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We drew water in a bucket from the well outside the door. </t>
+  </si>
+  <si>
+    <t>brag</t>
+  </si>
+  <si>
+    <t>[bræɡ]</t>
+  </si>
+  <si>
+    <t>v. 吹牛，自夸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He's always bragging that he's a great martial artist. </t>
+  </si>
+  <si>
+    <t>boast</t>
+  </si>
+  <si>
+    <t>brake</t>
+  </si>
+  <si>
+    <t>[breɪk]</t>
+  </si>
+  <si>
+    <t>n. 刹车，车闸；阻碍，抑制；&lt;史&gt;敞篷四轮马车；（亚麻纤维等的）捣碎机；&lt;古&gt;灌木丛；欧洲蕨，凤尾蕨</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A seagull swooped down in front of her car, causing her to slam on the brakes. </t>
+  </si>
+  <si>
+    <t>brandy</t>
+  </si>
+  <si>
+    <t>[ˈbrændi]</t>
+  </si>
+  <si>
+    <t>n. 白兰地（酒）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After a couple of brandies Michael started telling me his life story. </t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>[brest]</t>
+  </si>
+  <si>
+    <t>n. 乳房；胸部，胸脯；心情，内心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She wears a low-cut dress which reveals her breasts. </t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>[brɑː]</t>
+  </si>
+  <si>
+    <t>n. 胸罩；左矢；（Bra）（科特）布拉（人名）</t>
+  </si>
+  <si>
+    <t>bribe</t>
+  </si>
+  <si>
+    <t>[braɪb]</t>
+  </si>
+  <si>
+    <t>n. 贿赂；（尤指用来哄小孩做事的）好处</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He was being investigated for receiving bribes. </t>
+  </si>
+  <si>
+    <t>bride</t>
+  </si>
+  <si>
+    <t>[braɪd]</t>
+  </si>
+  <si>
+    <t>n. 新娘，即将（或刚）结婚的女子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guests toasted the bride and groom with champagne. </t>
+  </si>
+  <si>
+    <t>briefcase</t>
+  </si>
+  <si>
+    <t>[ˈbriːfkeɪs]</t>
+  </si>
+  <si>
+    <t>n. 公文包，公事包</t>
+  </si>
+  <si>
+    <t>brochure</t>
+  </si>
+  <si>
+    <t>[ˈbrəʊʃə(r)]</t>
+  </si>
+  <si>
+    <t>n. 小册子，资料（或广告）手册</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...travel brochures. </t>
+  </si>
+  <si>
+    <t>butcher</t>
+  </si>
+  <si>
+    <t>[ˈbʊtʃə(r)]</t>
+  </si>
+  <si>
+    <t>n. 屠夫；肉店；刽子手；笨蛋，莽夫；（火车或剧院的）小贩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He worked in a butcher's. </t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>[ˈbrəʊkə(r)]</t>
+  </si>
+  <si>
+    <t>n. 经纪人，中间人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The United Nations brokered a peace in Mogadishu at the end of March. </t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>[bruːm]</t>
+  </si>
+  <si>
+    <t>n. 扫帚；金雀花</t>
+  </si>
+  <si>
+    <t>brutal</t>
+  </si>
+  <si>
+    <t>[ˈbruːt(ə)l]</t>
+  </si>
+  <si>
+    <t>adj. 野蛮的，凶残的；毫不掩饰的，直截了当的；令人不快的，糟糕的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He was the victim of a very brutal murder. </t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>[bʌk]</t>
+  </si>
+  <si>
+    <t>n. &lt;非正式&gt;（美）元；雄性动物；&lt;非正式&gt;小伙子；&lt;古&gt;纨绔子弟，花花公子；责任，过失</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That would probably cost you about fifty bucks. </t>
+  </si>
+  <si>
+    <t>buckle</t>
+  </si>
+  <si>
+    <t>[ˈbʌk(ə)l]</t>
+  </si>
+  <si>
+    <t>v. 发软；屈服，让步；（人）精神崩溃；（使）弯曲，（使）变形；扣住，扣紧</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He wore a belt with a large brass buckle. </t>
+  </si>
+  <si>
+    <t>bud</t>
+  </si>
+  <si>
+    <t>[bʌd]</t>
+  </si>
+  <si>
+    <t>n. 芽，花蕾；&lt;美，非正式&gt;伙计，老兄；芽体</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rosanna's favourite time is early summer, just before the buds open. </t>
+  </si>
+  <si>
+    <t>bulb</t>
+  </si>
+  <si>
+    <t>[bʌlb]</t>
+  </si>
+  <si>
+    <t>n. 电灯泡；（植物的）鳞茎，球茎；球状物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The stairwell was lit by a single bulb. </t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>[bʌlk]</t>
+  </si>
+  <si>
+    <t>n. 主体，大部分；庞大的身躯，肥硕的体形；（巨大的）容积，体积</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The truck pulled out of the lot, its bulk unnerving against the dawn. </t>
+  </si>
+  <si>
+    <t>in bulk</t>
+  </si>
+  <si>
+    <t>bulletin</t>
+  </si>
+  <si>
+    <t>[ˈbʊlətɪn]</t>
+  </si>
+  <si>
+    <t>n. （广播或电视中的）新闻简报；公告，布告；（机构或社团的）通讯，刊物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...the early morning news bulletin. </t>
+  </si>
+  <si>
+    <t>bump</t>
+  </si>
+  <si>
+    <t>[bʌmp]</t>
+  </si>
+  <si>
+    <t>v. （使身体部位等）碰上，撞上；（无意地）碰，撞；颠簸行进；拖拽；挤出，挤掉；改变（广播或电视节目的时间）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They stopped walking and he almost bumped into them. </t>
+  </si>
+  <si>
+    <t>bumper</t>
+  </si>
+  <si>
+    <t>[ˈbʌmpə(r)]</t>
+  </si>
+  <si>
+    <t>n. （车辆）保险杠；&lt;古&gt;大满杯敬酒；（为跳栏或障碍赛作准备的）新马平地赛；&lt;旧&gt;（板球）反弹球；广告时段；&lt;非正式&gt;烟头</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What stickers do you have on the bumper or the back windshield? </t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>[bʌntʃ]</t>
+  </si>
+  <si>
+    <t>n. 束，串，扎；一伙，一群；大量；&lt;英&gt;发辫（bunches）；突起</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My neighbours are a bunch of busybodies. </t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>[brɑːntʃ]</t>
+  </si>
+  <si>
+    <t>n. 树枝，分枝；分支机构，分店；（政府或机构的）部门；分科，分支；（家族的）支系；支流，岔路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...the upper branches of a row of pines. </t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>[ˈbʌnd(ə)l]</t>
+  </si>
+  <si>
+    <t>n. 束，捆，包；非常；一套，一系列；大量；婴儿；一大笔钱；软件包</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lance pulled a bundle of papers out of a folder. </t>
+  </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>[ˈbjʊərəʊ]</t>
+  </si>
+  <si>
+    <t>n. 局，处，科；办事处，办公室；五斗橱，衣柜；书桌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...the Federal Bureau of Investigation. </t>
+  </si>
+  <si>
+    <t>bypass</t>
+  </si>
+  <si>
+    <t>[ˈbaɪpɑːs]</t>
+  </si>
+  <si>
+    <t>v. 绕过，避开；对（动脉等）作分流术，为……作搭桥术；不顾（规章制度），不请示</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A growing number of employers are trying to bypass the unions altogether. </t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>[ˈkæbɪdʒ]</t>
+  </si>
+  <si>
+    <t>n. 卷心菜，洋白菜；（作蔬菜食用的）卷心菜叶子，洋白菜叶子；&lt;英，非正式&gt;（冒犯）（因受伤或疾病而）身心残损的人；&lt;英，非正式&gt;生活极乏味的人</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>[ˈɡɑːbɪdʒ]</t>
+  </si>
+  <si>
+    <t>n. &lt;美&gt;垃圾，废物；&lt;美&gt;垃圾箱；&lt;非正式&gt;废话，无聊的东西；无用信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This morning a bomb in a garbage bag exploded and injured 15 people. </t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>[ˈkæbɪn]</t>
+  </si>
+  <si>
+    <t>n. 小木屋；船舱；机舱，客舱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...a log cabin. </t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>[ˈkæbɪnət]</t>
+  </si>
+  <si>
+    <t>n. 内阁；储藏柜，陈列柜；&lt;古&gt;私人小房间，密室；机箱，机壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She looked in the medicine cabinet and found some aspirin. </t>
+  </si>
+  <si>
+    <t>calf</t>
+  </si>
+  <si>
+    <t>[kɑːf]</t>
+  </si>
+  <si>
+    <t>n. 小牛，牛犊；腓肠，小腿肚；（象、鲸等的）崽，幼兽；浮冰，幼冰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...a calf injury. </t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>[ˈkæm(ə)l]</t>
+  </si>
+  <si>
+    <t>n. 骆驼；驼绒织品；驼色，浅黄褐色；打捞浮筒</t>
+  </si>
+  <si>
+    <t>cane</t>
+  </si>
+  <si>
+    <t>[keɪn]</t>
+  </si>
+  <si>
+    <t>n. 茎；藤条；（旧时用于惩罚学生的）笞杖，笞条；拐杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...cane furniture. </t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1793,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1374,6 +1894,34 @@
         <v>11</v>
       </c>
       <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,16 +1974,16 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -1445,16 +1993,16 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -1464,16 +2012,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -1483,16 +2031,16 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -1502,16 +2050,16 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1521,16 +2069,16 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -1540,16 +2088,16 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -1625,16 +2173,16 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -1644,16 +2192,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -1663,16 +2211,16 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -1682,16 +2230,16 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1701,16 +2249,16 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -1720,16 +2268,16 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -1739,16 +2287,16 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -1758,16 +2306,16 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -1777,16 +2325,16 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -1796,16 +2344,16 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -1815,16 +2363,16 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1834,16 +2382,16 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1873,8 +2421,8 @@
     <col min="4" max="4" width="47.06640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.53125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="9.06640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="3"/>
+    <col min="7" max="19" width="9.06640625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1921,16 +2469,16 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -1940,16 +2488,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -1959,16 +2507,16 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -1978,16 +2526,16 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1997,16 +2545,16 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -2016,16 +2564,16 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -2035,16 +2583,16 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -2054,16 +2602,16 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -2073,16 +2621,16 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -2092,16 +2640,16 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -2111,37 +2659,37 @@
     </row>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -2151,16 +2699,16 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -2170,16 +2718,16 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -2189,16 +2737,16 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -2208,16 +2756,16 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -2227,16 +2775,16 @@
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -2246,16 +2794,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -2265,16 +2813,16 @@
     </row>
     <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -2292,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2305,8 +2853,8 @@
     <col min="5" max="5" width="13.53125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="3"/>
+    <col min="8" max="12" width="9.06640625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2334,16 +2882,16 @@
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -2353,16 +2901,16 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -2372,16 +2920,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -2391,37 +2939,37 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -2431,16 +2979,16 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -2450,16 +2998,16 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -2467,18 +3015,18 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -2486,18 +3034,18 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -2505,18 +3053,18 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -2524,7 +3072,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2543,18 +3091,18 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -2562,18 +3110,18 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -2581,18 +3129,18 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -2600,18 +3148,18 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -2619,18 +3167,18 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -2638,18 +3186,18 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -2657,18 +3205,18 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -2676,18 +3224,18 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="195" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -2695,18 +3243,18 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -2714,18 +3262,18 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -2733,18 +3281,18 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -2752,18 +3300,18 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -2771,39 +3319,39 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -2811,18 +3359,18 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -2830,18 +3378,18 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -2849,18 +3397,18 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -2868,18 +3416,18 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -2887,18 +3435,18 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -2906,24 +3454,952 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="25.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/project/xlsx/words.xlsx
+++ b/project/xlsx/words.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -41,6 +42,19 @@
       <family val="2"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="4"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -72,6 +86,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,20 +450,20 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="C1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
   <cols>
     <col width="27.9296875" customWidth="1" min="1" max="1"/>
     <col width="32.53125" customWidth="1" min="2" max="2"/>
-    <col width="32.06640625" customWidth="1" min="3" max="3"/>
+    <col width="32.06640625" customWidth="1" style="4" min="3" max="3"/>
     <col width="31.9296875" customWidth="1" min="4" max="4"/>
     <col width="23.33203125" customWidth="1" min="5" max="5"/>
     <col width="25.06640625" customWidth="1" min="6" max="6"/>
-    <col width="9.06640625" customWidth="1" style="3" min="7" max="8"/>
-    <col width="9.06640625" customWidth="1" style="3" min="9" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="3" min="7" max="10"/>
+    <col width="9.06640625" customWidth="1" style="3" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -472,7 +504,7 @@
       </c>
       <c r="H1" s="1" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="97.5" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>commission</t>
@@ -483,9 +515,9 @@
           <t>[kəˈmɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>n. 考察团，委员会；佣金，回扣；犯罪；委托，命令；（军队中的）官职，军衔；（尤指艺术品）委托制作；&lt;古&gt;所授之权，代办权</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>n. 考察团，委员会；佣金，回扣；犯罪；*委托，命令；（军队中的）官职，军衔；（尤指艺术品）委托制作；&lt;古&gt;所授之权，代办权</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -502,7 +534,7 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="47.65" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>notion</t>
@@ -513,9 +545,9 @@
           <t>[ˈnəʊʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>n. 概念，想法；缝纫用品；一时的念头，突发的奇想</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>n. 概念，想法；缝纫用品；一时的念头，突发的奇想 观念</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -532,8 +564,8 @@
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4" ht="32.65" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>subordinate</t>
         </is>
@@ -543,7 +575,7 @@
           <t>[səˈbɔːdɪnət]</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>adj. 从属的，下级的；次要的</t>
         </is>
@@ -562,7 +594,7 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="105" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>suppress</t>
@@ -573,7 +605,7 @@
           <t>[səˈpres]</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>v. （尤指用武力）镇压，压制；阻止（进程或活动）；封锁，隐瞒（消息）；抑制（生理过程）；克制（感情或反应），忍住；部分（或完全）消除（电干扰）；（心理分析）自觉抑制（不愉快的想法，记忆）</t>
         </is>
@@ -596,7 +628,7 @@
       </c>
       <c r="H5" s="1" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="47.65" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>deficit</t>
@@ -607,7 +639,7 @@
           <t>[ˈdefɪsɪt]</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>n. 亏损，赤字，不足额；（体育用语）失分数；缺乏，缺陷</t>
         </is>
@@ -626,7 +658,7 @@
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" ht="39" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>collide</t>
@@ -637,7 +669,7 @@
           <t>[kəˈlaɪd]</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>v. 冲突，抵触；（迥异的事物）碰在一起；碰撞，相撞</t>
         </is>
@@ -656,7 +688,7 @@
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>revenge</t>
@@ -667,7 +699,7 @@
           <t>[rɪˈvendʒ]</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>n. 报复，报仇；报复欲望，复仇心；雪耻（指在比赛中战胜曾击败自己的对手）</t>
         </is>
@@ -686,7 +718,7 @@
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="45" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>avenge</t>
@@ -697,7 +729,7 @@
           <t>[əˈvendʒ]</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>v. 报复，替……报仇</t>
         </is>
@@ -716,7 +748,7 @@
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="n"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="58.5" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>adhere</t>
@@ -727,7 +759,7 @@
           <t>[ədˈhɪə(r)]</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>v. 黏附，附着；遵守，遵循（规定或协议）；拥护，持有（观点或信仰）</t>
         </is>
@@ -746,8 +778,8 @@
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11" ht="39" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>conspicuous</t>
         </is>
@@ -757,7 +789,7 @@
           <t>[kənˈspɪkjuəs]</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>adj. 出色的，引人注目的；显眼的，明显的</t>
         </is>
@@ -776,8 +808,8 @@
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12" ht="75" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>vulnerable</t>
         </is>
@@ -787,7 +819,7 @@
           <t>[ˈvʌlnərəbl]</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>adj. （身体或精神）脆弱的，易受伤的；（事物、人或地方）易受攻击的，易受伤害的；易患病的；（桥牌）有局方的，有身价的</t>
         </is>
@@ -817,7 +849,7 @@
           <t>[ɡeɪz]</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>v. 凝视，注视</t>
         </is>
@@ -836,7 +868,7 @@
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" ht="45" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>publication</t>
@@ -847,7 +879,7 @@
           <t>[ˌpʌblɪˈkeɪʃn]</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>n. 出版，发行；出版物，发行物；（信息的） 刊登，公布</t>
         </is>
@@ -866,8 +898,8 @@
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15" ht="58.5" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>bald</t>
         </is>
@@ -877,7 +909,7 @@
           <t>[bɔːld]</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>adj. 秃头的；光秃的，磨光的，掉光的；不加修饰的，直截了当的</t>
         </is>
@@ -896,7 +928,7 @@
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" ht="30" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>cherish</t>
@@ -907,7 +939,7 @@
           <t>[ˈtʃerɪʃ]</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>v. 珍视，珍爱；怀念（过去），抱有（希望）</t>
         </is>
@@ -930,8 +962,8 @@
       </c>
       <c r="H16" s="1" t="n"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17" ht="39" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>compound</t>
         </is>
@@ -941,7 +973,7 @@
           <t>[ˈkɒmpaʊnd]</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>n. 混合物，化合物；复合词；大院，有围墙的场地</t>
         </is>
@@ -960,8 +992,8 @@
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18" ht="78" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>fatigue</t>
         </is>
@@ -971,7 +1003,7 @@
           <t>[fəˈtiːɡ]</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>n. 疲乏，厌倦；（金属部件的）疲劳；（士兵穿的）工作服；士兵杂役（尤指作为惩罚,如做打扫、帮厨）</t>
         </is>
@@ -991,7 +1023,7 @@
       <c r="H18" s="1" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>exhaustion</t>
         </is>
@@ -1001,12 +1033,12 @@
           <t>[ɪɡˈzɔːstʃən]</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>n. 筋疲力尽；耗尽，枯竭</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> He is suffering from exhaustion. </t>
         </is>
@@ -1020,8 +1052,8 @@
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20" ht="39" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>gloomy</t>
         </is>
@@ -1031,7 +1063,7 @@
           <t>[ˈɡluːmi]</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>adj. 阴暗的，幽暗的；沮丧的，悲伤的；前景黯淡的，悲观的</t>
         </is>
@@ -1050,8 +1082,8 @@
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21" ht="45" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>gullible</t>
         </is>
@@ -1061,12 +1093,12 @@
           <t>[ˈɡʌləb(ə)l]</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>adj. 易受骗的；轻信的</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> What point is there in admitting that the stories fed to the gullible public were false? </t>
         </is>
@@ -1084,7 +1116,7 @@
       </c>
       <c r="H21" s="1" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" ht="45" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>navigation</t>
@@ -1095,7 +1127,7 @@
           <t>[ˌnævɪˈɡeɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>n. 导航；航行，航海；航运，水上运输；浏览，访问；领航术，航海术；内河水道（尤指运河）</t>
         </is>
@@ -1118,7 +1150,7 @@
       </c>
       <c r="H22" s="1" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" ht="45" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>sue</t>
@@ -1129,7 +1161,7 @@
           <t>[suː]</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>1. 起诉，控告：向法庭提起诉讼，要求对方赔偿损失或承担法律责任。</t>
         </is>
@@ -1152,8 +1184,8 @@
       </c>
       <c r="H23" s="1" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>suburb</t>
         </is>
@@ -1163,7 +1195,7 @@
           <t>[ˈsʌbɜːb]</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>n. 城郊，近郊</t>
         </is>
@@ -1182,7 +1214,7 @@
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" ht="60" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>critical</t>
@@ -1193,7 +1225,7 @@
           <t>[ˈkrɪtɪk(ə)l]</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>adj. 批判的，爱挑剔的；极其重要的，关键的；严重的，危急的；病重的，重伤的；评论性的，评论家的；临界的</t>
         </is>
@@ -1212,7 +1244,7 @@
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" ht="78" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>transaction</t>
@@ -1223,7 +1255,7 @@
           <t>[trænˈzækʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>n. 交易，买卖，业务；（学术团体会议的）议事录，公报；（人与人之间的）交流，相互影响；事务（元），事项</t>
         </is>
@@ -1242,8 +1274,8 @@
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27" ht="32.65" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>incentive</t>
         </is>
@@ -1253,12 +1285,12 @@
           <t>[ɪnˈsentɪv]</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>n. 激励，刺激</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> There is little or no incentive to adopt such measures. </t>
         </is>
@@ -1272,18 +1304,18 @@
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" ht="30" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>confront</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>[kənˈfrʌnt]</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>v. 面对，面临；正视，处理；对峙，对抗；对质，当面对证</t>
         </is>
@@ -1306,8 +1338,8 @@
       </c>
       <c r="H28" s="1" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>virtually</t>
         </is>
@@ -1317,12 +1349,12 @@
           <t>[ˈvɜːtʃuəli]</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>adv. 事实上，几乎；虚拟地，模拟地</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Virtually all cooking was done over coal-fired ranges. </t>
         </is>
@@ -1336,7 +1368,7 @@
       <c r="G29" s="1" t="n"/>
       <c r="H29" s="1" t="n"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" ht="47.65" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>perceive</t>
@@ -1347,12 +1379,12 @@
           <t>[pəˈsiːv]</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>vt. 认为，理解；察觉，注意到；意识到</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Students must perceive for themselves the relationship between success and effort. </t>
         </is>
@@ -1370,8 +1402,8 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31" ht="58.5" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>practitioner</t>
         </is>
@@ -1381,7 +1413,7 @@
           <t>[prækˈtɪʃənə(r)]</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>n. （医学界或法律界的）从业人员，执业者；&lt;正式&gt;从事者，实践者</t>
         </is>
@@ -1404,7 +1436,7 @@
       </c>
       <c r="H31" s="1" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" ht="78" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>obscure</t>
@@ -1415,7 +1447,7 @@
           <t>[əbˈskjʊə(r)]</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>adj. 难以说清楚的，模糊的；鲜为人知的，默默无闻的；未被查实的，不确定的；费解的，晦涩的</t>
         </is>
@@ -1434,8 +1466,8 @@
       <c r="G32" s="1" t="n"/>
       <c r="H32" s="1" t="n"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>hemisphere</t>
         </is>
@@ -1445,7 +1477,7 @@
           <t>[ˈhemɪsfɪə(r)]</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>n. （地球的）半球；脑半球；（球体的）一半</t>
         </is>
@@ -1464,8 +1496,8 @@
       <c r="G33" s="1" t="n"/>
       <c r="H33" s="1" t="n"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34" ht="45" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>deprive</t>
         </is>
@@ -1475,7 +1507,7 @@
           <t>[dɪˈpraɪv]</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>v. 剥夺，使丧失；免去……的职务（尤指圣职）</t>
         </is>
@@ -1494,8 +1526,8 @@
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35" ht="78" customHeight="1">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>trivial</t>
         </is>
@@ -1505,7 +1537,7 @@
           <t>[ˈtrɪviəl]</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>adj. 琐碎的，不重要的；容易解决的，不费吹灰之力的；（人）务小的，浅薄的；（数学）平凡的</t>
         </is>
@@ -1539,12 +1571,12 @@
           <t>[ˈɪmɪɡrənt]</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>n. （外来）移民，侨民</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...illegal immigrants. </t>
         </is>
@@ -1558,7 +1590,7 @@
       <c r="G36" s="1" t="n"/>
       <c r="H36" s="1" t="n"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" ht="97.5" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>religious</t>
@@ -1569,7 +1601,7 @@
           <t>[rɪˈlɪdʒəs]</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>adj. 宗教的，与宗教相关的；笃信宗教的，虔诚的；极其严谨的，十分认真的；&lt;非正式&gt;小心的，谨慎的 ；&lt;非正式&gt;对……很感兴趣的，热衷……的</t>
         </is>
@@ -1592,8 +1624,8 @@
       </c>
       <c r="H37" s="1" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38" ht="58.5" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>immigration</t>
         </is>
@@ -1603,7 +1635,7 @@
           <t>[ˌɪmɪˈɡreɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>n. 移民（入境）；移民人数；移民局入境检查，移民局入境检查处</t>
         </is>
@@ -1705,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A29" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
@@ -1718,8 +1750,8 @@
     <col width="10.73046875" customWidth="1" style="3" min="5" max="5"/>
     <col width="16" customWidth="1" style="3" min="6" max="6"/>
     <col width="16.53125" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.06640625" customWidth="1" style="3" min="8" max="9"/>
-    <col width="9.06640625" customWidth="1" style="3" min="10" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="3" min="8" max="11"/>
+    <col width="9.06640625" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1760,8 +1792,8 @@
       </c>
       <c r="H1" s="1" t="n"/>
     </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>superiority</t>
         </is>
@@ -1790,8 +1822,8 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="3" ht="32.65" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>prevalent</t>
         </is>
@@ -1801,7 +1833,7 @@
           <t>[ˈprevələnt]</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>adj. 盛行的，普遍的</t>
         </is>
@@ -1820,7 +1852,7 @@
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
     </row>
-    <row r="4" ht="45" customHeight="1">
+    <row r="4" ht="47.65" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>comply</t>
@@ -1831,7 +1863,7 @@
           <t>[kəmˈplaɪ]</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>v. 遵从，服从；（商品）符合特定标准</t>
         </is>
@@ -1854,8 +1886,8 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5" ht="39" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>masculine</t>
         </is>
@@ -1865,7 +1897,7 @@
           <t>[ˈmæskjəlɪn]</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>adj. 男性的，男子的；阳刚的，男子气概的；（某些语言中）阳性的</t>
         </is>
@@ -1885,7 +1917,7 @@
       <c r="H5" s="1" t="n"/>
     </row>
     <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>muscle</t>
         </is>
@@ -1918,7 +1950,7 @@
       </c>
       <c r="H6" s="1" t="n"/>
     </row>
-    <row r="7" ht="60" customHeight="1">
+    <row r="7" ht="45" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>probability</t>
@@ -1948,8 +1980,8 @@
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8" ht="39" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>premise</t>
         </is>
@@ -1959,7 +1991,7 @@
           <t>[ˈpremɪs]</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>n. 前提，假设；（企业或机构使用的）房屋及土地（premises）；上述各项</t>
         </is>
@@ -1982,8 +2014,8 @@
       </c>
       <c r="H8" s="1" t="n"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9" ht="62.65" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>generalize</t>
         </is>
@@ -1993,7 +2025,7 @@
           <t>[ˈdʒenrəlaɪz]</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>v. 概括，归纳；推广，普及；笼统地表达</t>
         </is>
@@ -2042,7 +2074,7 @@
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
     </row>
-    <row r="11" ht="105" customHeight="1">
+    <row r="11" ht="78" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>vague</t>
@@ -2053,12 +2085,12 @@
           <t>[veɪɡ]</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>adj. 不明确的，不清楚的；（形状）模糊的；（感情、记忆等）不完整的，不清晰的；含糊其词的，闪烁其词的；茫然的，心不在焉的</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> A lot of the talk was apparently vague and general. </t>
         </is>
@@ -2072,7 +2104,7 @@
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="58.5" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>obscure</t>
@@ -2083,7 +2115,7 @@
           <t>[əbˈskjʊə(r)]</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>adj. 难以说清楚的，模糊的；鲜为人知的，默默无闻的；未被查实的，不确定的；费解的，晦涩的</t>
         </is>
@@ -2106,8 +2138,8 @@
       </c>
       <c r="H12" s="1" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13" ht="39" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>ingenious</t>
         </is>
@@ -2117,12 +2149,12 @@
           <t>[ɪnˈdʒiːniəs]</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>adj. 灵巧的，有独创性的；精巧的，巧妙的</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...a truly ingenious invention. </t>
         </is>
@@ -2140,8 +2172,8 @@
       </c>
       <c r="H13" s="1" t="n"/>
     </row>
-    <row r="14" ht="150" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14" ht="75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>genius</t>
         </is>
@@ -2170,8 +2202,8 @@
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15" ht="47.65" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>ascribe</t>
         </is>
@@ -2181,7 +2213,7 @@
           <t>[əˈskraɪb]</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>v. 把……归因于；认为……是……所说（或所为）；认为……具有</t>
         </is>
@@ -2201,7 +2233,7 @@
       <c r="H15" s="1" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>literacy</t>
         </is>
@@ -2230,8 +2262,8 @@
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
     </row>
-    <row r="17" ht="75" customHeight="1">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17" ht="58.5" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>rectify</t>
         </is>
@@ -2241,12 +2273,12 @@
           <t>[ˈrektɪfaɪ]</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>v. &lt;正式&gt;纠正，矫正；整流，把（交流电）转变成直流电；蒸馏；求曲线的直线等长</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Only an act of Congress could rectify the situation. </t>
         </is>
@@ -2260,7 +2292,7 @@
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
     </row>
-    <row r="18" ht="105" customHeight="1">
+    <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>overwhelm</t>
@@ -2290,8 +2322,8 @@
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
     </row>
-    <row r="19" ht="105" customHeight="1">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>manipulate</t>
         </is>
@@ -2321,7 +2353,7 @@
       <c r="H19" s="1" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
@@ -2354,8 +2386,8 @@
       </c>
       <c r="H20" s="1" t="n"/>
     </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21" ht="32.65" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>fluctuate</t>
         </is>
@@ -2365,7 +2397,7 @@
           <t>[ˈflʌktʃueɪt]</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>v. 波动，起伏不定；使波动，使动摇</t>
         </is>
@@ -2384,7 +2416,7 @@
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
     </row>
-    <row r="22" ht="120" customHeight="1">
+    <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>revolution</t>
@@ -2414,7 +2446,7 @@
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
     </row>
-    <row r="23" ht="240" customHeight="1">
+    <row r="23" ht="175.5" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>resolution</t>
@@ -2425,7 +2457,7 @@
           <t>[ˌrezəˈluːʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>n. 决议，正式决定；（冲突、问题等的）解决，解决办法；决心，决定；坚决，果断；（电视、照相机、显微镜等的）清晰度，分辨率；（故事中主要矛盾的）冲突解开；（乐）解决（指和声中不协和音向协和音的进行）；（医）（炎症或其他症状的）消散，消退；（化）分解；（物理）（力或其他矢量的）分解</t>
         </is>
@@ -2460,7 +2492,7 @@
           <t>adv. 在别处，去别处</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Almost 80 percent of the state's residents were born elsewhere. </t>
         </is>
@@ -2474,8 +2506,8 @@
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
     </row>
-    <row r="25" ht="45" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>implication</t>
         </is>
@@ -2490,9 +2522,9 @@
           <t>n. 可能的影响（或作用、结果）；含意，暗指；牵连，涉及</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>He resigned after his implication in a sex scandal</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -2508,8 +2540,8 @@
       </c>
       <c r="H25" s="1" t="n"/>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26" ht="58.5" customHeight="1">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>confine</t>
         </is>
@@ -2519,7 +2551,7 @@
           <t>[kənˈfaɪn]</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>v. 限制，局限；防止……扩散；关押，监禁；使离不开（或受困于床、轮椅等）</t>
         </is>
@@ -2538,8 +2570,8 @@
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
     </row>
-    <row r="27" ht="75" customHeight="1">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27" ht="58.5" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>impose</t>
         </is>
@@ -2549,12 +2581,12 @@
           <t>[ɪmˈpəʊz]</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>v. 强制推行，强制实行；把（自己的观点、信仰等）强加于；打扰，麻烦；把（活字页）拼版；欺骗</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fines are imposed on retailers who sell tobacco to minors. </t>
         </is>
@@ -2568,8 +2600,8 @@
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
     </row>
-    <row r="28" ht="135" customHeight="1">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28" ht="39" customHeight="1">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>faculty</t>
         </is>
@@ -2579,12 +2611,12 @@
           <t>[ˈfæk(ə)lti]</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>n. 机能；天赋，才能；（高等院校的）系，院；&lt;美&gt; 全体教员；&lt;旧&gt;（某行业，尤指医学行业的）全体从业人员；（尤指来自教会当权者的）特许证，许可证</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>n. 机能；天赋，才能；（高等院校的）系，院；&lt;美&gt; 全体教员；</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> He was drunk and not in control of his faculties. </t>
         </is>
@@ -2598,8 +2630,8 @@
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>factual</t>
         </is>
@@ -2632,7 +2664,7 @@
       </c>
       <c r="H29" s="1" t="n"/>
     </row>
-    <row r="30" ht="120" customHeight="1">
+    <row r="30" ht="75" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>affair</t>
@@ -2662,8 +2694,8 @@
       <c r="G30" s="1" t="n"/>
       <c r="H30" s="1" t="n"/>
     </row>
-    <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31" ht="32.65" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>covert</t>
         </is>
@@ -2673,12 +2705,12 @@
           <t>[ˈkʌvət]</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>adj. 隐蔽的，秘密的；在丈夫保护下的</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> They have been supplying covert military aid to the rebels. </t>
         </is>
@@ -2693,7 +2725,7 @@
       <c r="H31" s="1" t="n"/>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>deficiency</t>
         </is>
@@ -2708,9 +2740,9 @@
           <t>n. 缺乏，不足；缺陷，瑕疵；赤字</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Vitamin deficiency in the diet can cause illness</t>
         </is>
       </c>
       <c r="E32" s="1" t="n"/>
@@ -2726,8 +2758,8 @@
       </c>
       <c r="H32" s="1" t="n"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33" ht="45" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>deteriorate</t>
         </is>
@@ -2760,8 +2792,8 @@
       </c>
       <c r="H33" s="1" t="n"/>
     </row>
-    <row r="34" ht="105" customHeight="1">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>fertile</t>
         </is>
@@ -2880,7 +2912,7 @@
       <c r="G37" s="1" t="n"/>
       <c r="H37" s="1" t="n"/>
     </row>
-    <row r="38" ht="75" customHeight="1">
+    <row r="38" ht="45" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>linger</t>
@@ -2910,7 +2942,7 @@
       <c r="G38" s="1" t="n"/>
       <c r="H38" s="1" t="n"/>
     </row>
-    <row r="39" ht="45" customHeight="1">
+    <row r="39" ht="30" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>persist</t>
@@ -2944,7 +2976,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="75" customHeight="1">
+    <row r="40" ht="45" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>revive</t>
@@ -2974,7 +3006,7 @@
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
     </row>
-    <row r="41" ht="45" customHeight="1">
+    <row r="41" ht="30" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>skeptical</t>
@@ -3008,7 +3040,7 @@
       </c>
       <c r="H41" s="1" t="n"/>
     </row>
-    <row r="42" ht="120" customHeight="1">
+    <row r="42" ht="60" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>skeleton</t>
@@ -3067,6 +3099,508 @@
       </c>
       <c r="G43" s="1" t="n"/>
       <c r="H43" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
+  <cols>
+    <col width="11.46484375" customWidth="1" min="1" max="1"/>
+    <col width="16.06640625" customWidth="1" min="2" max="2"/>
+    <col width="30.59765625" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="4" max="4"/>
+    <col width="14.33203125" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>音标</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>中文释义</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>例句</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>生词度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>处理状态</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>错误历史</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>commitment</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>[kəˈmɪtmənt]</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>n. 忠诚，献身；承诺，保证；奉献，投入；热情，决心；义务，责任；花费，使用（资金、时间、人力）；需要定期支付的款项</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...commitment to the ideals of democracy. </t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>commission</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>[kəˈmɪʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>n. 考察团，委员会；佣金，回扣；犯罪；委托，命令；（军队中的）官职，军衔；（尤指艺术品）委托制作；&lt;古&gt;所授之权，代办权</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Department of Agriculture commissioned a study into organic farming. </t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>scheme</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>[skiːm]</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>n. &lt;英&gt;（政府或其他组织的）计划，方案；（用于组织或整理信息的）系统，体系；组合，布局；阴谋，诡计；&lt;苏格兰，非正式&gt;社会住宅区</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a quick money-making scheme to get us through the summer. </t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>reasonable</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>[ˈriːznəbl]</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>adj. 有道理的，合情理的；（人）通情达理的，讲道理的；适度的，合适的；（价格）公道的；还算好的，尚可的；相当大的，（数量）不少的</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He's a reasonable sort of person. </t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>convince</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>[kənˈvɪns]</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>v. 使确信，使信服；说服，劝服</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That weekend in Plattsburgh, he convinced her to go ahead and marry Bud. </t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>[dɪˈstɪŋkt]</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>adj. 不同的，有区别的；清楚的，明显的；确切的</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engineering and technology are disciplines distinct from one another and from science. </t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>[ˈkɒnstənt]</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>adj. 持续不断的，经常发生的；恒定的，不变的；忠诚的，忠实的</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> She suggests that women are under constant pressure to be abnormally thin. </t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>[kənˈsɪstənt]</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>adj. 始终如一的，一贯的；持续的，连续的；固守的，坚持的；一致的，吻合的</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Becker was never the most consistent of players anyway. </t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>prominent</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>[ˈprɒmɪnənt]</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>adj. 重要的，著名的；显眼的，突出的；突起的，高耸的</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...the children of very prominent or successful parents. </t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>delicate</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>[ˈdelɪkət]</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>adj. 柔和的，清淡的；虚弱的，纤弱的；脆弱的，易碎的；小巧玲珑的，纤细的；微妙的，棘手的；精致的，精巧的；灵巧的，熟练的；（仪器）灵敏的</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He had delicate hands. </t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>reflection</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>[rɪˈflekʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>n. （光、热或声音的）反射；反射光，反射热，回声；（反射出来的）影像，倒影；深思，反省；（尤指见诸语言的）想法，意见；表现，反映；坏的印象；（数）镜射，反射</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Meg stared at her reflection in the bedroom mirror. </t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>permanent</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>[ˈpɜːmənənt]</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>adj. 永久的，永恒的；（尤指问题或困难）不断出现的，一直存在的；（员工）终生的，长期的；（家庭住址）固定的</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heavy drinking can cause permanent damage to the brain. </t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>speculate</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>[ˈspekjuleɪt]</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>v. 猜测，推测；投机</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Critics of the project speculate about how many hospitals could be built instead. </t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>suspect</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>[səˈspekt]</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>v. 猜想，认为（某事有可能）；怀疑……有罪，认为……有嫌疑；不信任，怀疑……的真实性</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I suspect they were right. </t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>skeptical</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>[ˈskeptɪk(ə)l]</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>adj. 不相信的，持怀疑态度的；（哲）怀疑论的，不可知论的</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>skeptical</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/xlsx/words.xlsx
+++ b/project/xlsx/words.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="day8" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -49,9 +50,39 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="等线"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="4"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="4"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -103,6 +134,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
@@ -462,8 +505,8 @@
     <col width="31.9296875" customWidth="1" min="4" max="4"/>
     <col width="23.33203125" customWidth="1" min="5" max="5"/>
     <col width="25.06640625" customWidth="1" min="6" max="6"/>
-    <col width="9.06640625" customWidth="1" style="3" min="7" max="10"/>
-    <col width="9.06640625" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="3" min="7" max="12"/>
+    <col width="9.06640625" customWidth="1" style="3" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1737,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A25" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
@@ -1750,8 +1793,8 @@
     <col width="10.73046875" customWidth="1" style="3" min="5" max="5"/>
     <col width="16" customWidth="1" style="3" min="6" max="6"/>
     <col width="16.53125" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.06640625" customWidth="1" style="3" min="8" max="11"/>
-    <col width="9.06640625" customWidth="1" style="3" min="12" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="3" min="8" max="13"/>
+    <col width="9.06640625" customWidth="1" style="3" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1853,7 +1896,7 @@
       <c r="H3" s="1" t="n"/>
     </row>
     <row r="4" ht="47.65" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>comply</t>
         </is>
@@ -1981,7 +2024,7 @@
       <c r="H7" s="1" t="n"/>
     </row>
     <row r="8" ht="39" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>premise</t>
         </is>
@@ -2769,7 +2812,7 @@
           <t>[dɪˈtɪəriəreɪt]</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>v. 恶化，变坏</t>
         </is>
@@ -3113,8 +3156,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
@@ -3163,444 +3206,2742 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+    <row r="2" ht="75" customHeight="1">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>commitment</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>[kəˈmɪtmənt]</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>n. 忠诚，献身；承诺，保证；奉献，投入；热情，决心；义务，责任；花费，使用（资金、时间、人力）；需要定期支付的款项</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...commitment to the ideals of democracy. </t>
         </is>
       </c>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G2" s="12" t="n"/>
+    </row>
+    <row r="3" ht="75" customHeight="1">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>commission</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>[kəˈmɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>n. 考察团，委员会；佣金，回扣；犯罪；委托，命令；（军队中的）官职，军衔；（尤指艺术品）委托制作；&lt;古&gt;所授之权，代办权</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> The Department of Agriculture commissioned a study into organic farming. </t>
         </is>
       </c>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="75" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>scheme</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>[skiːm]</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>n. &lt;英&gt;（政府或其他组织的）计划，方案；（用于组织或整理信息的）系统，体系；组合，布局；阴谋，诡计；&lt;苏格兰，非正式&gt;社会住宅区</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...a quick money-making scheme to get us through the summer. </t>
         </is>
       </c>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="E4" s="12" t="n"/>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="n"/>
+    </row>
+    <row r="5" ht="75" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>reasonable</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>[ˈriːznəbl]</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>adj. 有道理的，合情理的；（人）通情达理的，讲道理的；适度的，合适的；（价格）公道的；还算好的，尚可的；相当大的，（数量）不少的</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> He's a reasonable sort of person. </t>
         </is>
       </c>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>convince</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>[kənˈvɪns]</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>v. 使确信，使信服；说服，劝服</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> That weekend in Plattsburgh, he convinced her to go ahead and marry Bud. </t>
         </is>
       </c>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>distinct</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>[dɪˈstɪŋkt]</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>adj. 不同的，有区别的；清楚的，明显的；确切的</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Engineering and technology are disciplines distinct from one another and from science. </t>
         </is>
       </c>
-      <c r="E7" s="9" t="n"/>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="E7" s="12" t="n"/>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="n"/>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>constant</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>[ˈkɒnstənt]</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>adj. 持续不断的，经常发生的；恒定的，不变的；忠诚的，忠实的</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> She suggests that women are under constant pressure to be abnormally thin. </t>
         </is>
       </c>
-      <c r="E8" s="9" t="n"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n"/>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>consistent</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>[kənˈsɪstənt]</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>adj. 始终如一的，一贯的；持续的，连续的；固守的，坚持的；一致的，吻合的</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Becker was never the most consistent of players anyway. </t>
         </is>
       </c>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="E9" s="12" t="n"/>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n"/>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="13" t="inlineStr">
         <is>
           <t>prominent</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>[ˈprɒmɪnənt]</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>adj. 重要的，著名的；显眼的，突出的；突起的，高耸的</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...the children of very prominent or successful parents. </t>
         </is>
       </c>
-      <c r="E10" s="9" t="n"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="75" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>delicate</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>[ˈdelɪkət]</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>adj. 柔和的，清淡的；虚弱的，纤弱的；脆弱的，易碎的；小巧玲珑的，纤细的；微妙的，棘手的；精致的，精巧的；灵巧的，熟练的；（仪器）灵敏的</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> He had delicate hands. </t>
         </is>
       </c>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="E11" s="12" t="n"/>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="90" customHeight="1">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>reflection</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>[rɪˈflekʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>n. （光、热或声音的）反射；反射光，反射热，回声；（反射出来的）影像，倒影；深思，反省；（尤指见诸语言的）想法，意见；表现，反映；坏的印象；（数）镜射，反射</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Meg stared at her reflection in the bedroom mirror. </t>
         </is>
       </c>
-      <c r="E12" s="9" t="n"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G12" s="12" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>permanent</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>[ˈpɜːmənənt]</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>adj. 永久的，永恒的；（尤指问题或困难）不断出现的，一直存在的；（员工）终生的，长期的；（家庭住址）固定的</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Heavy drinking can cause permanent damage to the brain. </t>
         </is>
       </c>
-      <c r="E13" s="9" t="n"/>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="E13" s="12" t="n"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="n"/>
+    </row>
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="13" t="inlineStr">
         <is>
           <t>speculate</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>[ˈspekjuleɪt]</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>v. 猜测，推测；投机</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Critics of the project speculate about how many hospitals could be built instead. </t>
         </is>
       </c>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="n"/>
+    </row>
+    <row r="15" ht="45" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>suspect</t>
         </is>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>[səˈspekt]</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>v. 猜想，认为（某事有可能）；怀疑……有罪，认为……有嫌疑；不信任，怀疑……的真实性</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> I suspect they were right. </t>
         </is>
       </c>
-      <c r="E15" s="9" t="n"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="E15" s="12" t="n"/>
+      <c r="F15" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>skeptical</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>[ˈskeptɪk(ə)l]</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>adj. 不相信的，持怀疑态度的；（哲）怀疑论的，不可知论的</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>skeptical</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
+  <cols>
+    <col width="23.53125" customWidth="1" min="1" max="1"/>
+    <col width="14.73046875" customWidth="1" min="2" max="2"/>
+    <col width="30.19921875" customWidth="1" min="3" max="3"/>
+    <col width="41.53125" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>音标</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>中文释义</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>例句</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>生词度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>处理状态</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>错误历史</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="105" customHeight="1">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>[ˈpraɪməri]</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>adj. 主要的，首要的；&lt;英&gt;小学教育的，初级教育的；初级的，原发性的；最基本的，最根本的；第一手的，直接的；（有机化合物）连上一个碳原子的；（多指胺）（氨基酸顺序）一级的</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That's the primary reason the company's share price has held up so well. </t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G2" s="12" t="n"/>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>device</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>[dɪˈvaɪs]</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>n. 装置，设备；手段，方法；花招，诡计；炸弹，爆炸装置；图画，设计；&lt;古&gt;（某物的）样式，外表</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...the electronic device that tells the starter when an athlete has moved from his blocks prematurely. </t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>remedy</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>[ˈremədi]</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>n. 解决方法，纠正方法；法定补偿（办法）；治疗（法），药品；（硬币的）公差</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The remedy lies in the hands of the government. </t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="n"/>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="n"/>
+    </row>
+    <row r="5" ht="45" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>preserve</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>[prɪˈzɜːv]</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>v. 保护，维护；保持，维持；腌制，保存（食物）；禁止他人捕猎</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We will do everything to preserve peace. </t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>conserve</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>[kənˈsɜːv]</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>v. 保护，保存；节省，节约；使（量，如能量、质量）守恒；将……制成蜜饯</t>
+        </is>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The factories have closed for the weekend to conserve energy. </t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>summon</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>[ˈsʌmən]</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>v. 召唤；召集（会议）；传唤，传讯（出庭）；迫切地要求（帮助）；鼓起（勇气），振作（精神）</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Howe summoned a doctor and hurried over. </t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="n"/>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="n"/>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>humanity</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>[hjuːˈmænəti]</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>n. 人类（总称）；人性，人的属性；人道，仁慈；（历史、哲学、文学等）人文学科</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They face charges of committing crimes against humanity. </t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>tempt</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>[tempt]</t>
+        </is>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>v. 引诱，诱惑；怂恿，利诱；冒……的风险</t>
+        </is>
+      </c>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cars like that may tempt drivers to speed. </t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="n"/>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n"/>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>distort</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="inlineStr">
+        <is>
+          <t>[dɪˈstɔːt]</t>
+        </is>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>v. 扭曲，使失真；歪曲，曲解</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The media distorts reality; it categorizes people as all good or all bad. </t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>feeble</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>[ˈfiːb(ə)l]</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>adj. 衰弱的，虚弱的；（光线或声音）微弱的；软弱的；无效的，不佳的</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He told them he was old and feeble and was not able to walk so far. </t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="n"/>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>invariably</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>[ɪnˈveəriəbli]</t>
+        </is>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>adv. 始终如一地，一贯地</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They almost invariably get it wrong. </t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G12" s="12" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>accessory</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
+        <is>
+          <t>[əkˈsesəri]</t>
+        </is>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>n. 附件，配件；装饰品，配饰；同谋，从犯</t>
+        </is>
+      </c>
+      <c r="D13" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...an exclusive range of hand-made bedroom and bathroom accessories. </t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="n"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>expire</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>[ɪkˈspaɪə(r)]</t>
+        </is>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>v. 到期，失效；死亡；呼气，吐气；（任期）届满</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He had lived illegally in the United States for five years after his visitor's visa expired. </t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="n"/>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>versatile</t>
+        </is>
+      </c>
+      <c r="B15" s="12" t="inlineStr">
+        <is>
+          <t>[ˈvɜːsətaɪl]</t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>adj. 多才多艺的，有多种技能的；多用途的，多功能的</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He had been one of the game's most versatile athletes. </t>
+        </is>
+      </c>
+      <c r="E15" s="12" t="n"/>
+      <c r="F15" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>prevalent</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>[ˈprevələnt]</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>adj. 盛行的，普遍的</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This condition is more prevalent in women than in men. </t>
+        </is>
+      </c>
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>predominant</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>[prɪˈdɒmɪnənt]</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>adj. 明显的；占主导地位的，占支配地位的</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mandy's predominant emotion was confusion. </t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="n"/>
+      <c r="F17" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G17" s="12" t="n"/>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>patent</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="inlineStr">
+        <is>
+          <t>[ˈpeɪt(ə)nt; ˈpæt(ə)nt]</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>n. 专利（权），专利证书；专利发明</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> P&amp;G applied for a patent on its cookies. </t>
+        </is>
+      </c>
+      <c r="E18" s="12" t="n"/>
+      <c r="F18" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G18" s="12" t="n"/>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>bewilder</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="inlineStr">
+        <is>
+          <t>[bɪˈwɪldə(r)]</t>
+        </is>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>v. 使迷惑，使糊涂</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The silence from Alex had hurt and bewildered her. </t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="n"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G19" s="12" t="n"/>
+    </row>
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="inlineStr">
+        <is>
+          <t>[ˈkjuːmjələtɪv]</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>adj. 积累的，渐增的；累计的，累积的</t>
+        </is>
+      </c>
+      <c r="D20" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It is simple pleasures, such as a walk on a sunny day, which have a cumulative effect on our mood. </t>
+        </is>
+      </c>
+      <c r="E20" s="12" t="n"/>
+      <c r="F20" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G20" s="12" t="n"/>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>refrain</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="inlineStr">
+        <is>
+          <t>[rɪˈfreɪn]</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>v. 克制，避免</t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mrs. Hardie refrained from making any comment. </t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="n"/>
+      <c r="F21" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G21" s="12" t="n"/>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="12" t="inlineStr">
+        <is>
+          <t>absurd</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>[əbˈsɜːd]</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>adj. 愚蠢的，荒谬的；滑稽可笑的；荒诞派的</t>
+        </is>
+      </c>
+      <c r="D22" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That's absurd. </t>
+        </is>
+      </c>
+      <c r="E22" s="12" t="n"/>
+      <c r="F22" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="n"/>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="12" t="inlineStr">
+        <is>
+          <t>intuition</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>[ˌɪntjuˈɪʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>n. 直觉力；直觉感知，直觉知识</t>
+        </is>
+      </c>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Her intuition was telling her that something was wrong. </t>
+        </is>
+      </c>
+      <c r="E23" s="12" t="n"/>
+      <c r="F23" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G23" s="12" t="n"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="12" t="inlineStr">
+        <is>
+          <t>assert</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
+        <is>
+          <t>[əˈsɜːt]</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>v. 坚称，断言；维护，坚持（权利或权威）；坚持自己的主张，表现坚定；生效，起作用</t>
+        </is>
+      </c>
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mr. Helm plans to assert that the bill violates the First Amendment. </t>
+        </is>
+      </c>
+      <c r="E24" s="12" t="n"/>
+      <c r="F24" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G24" s="12" t="n"/>
+    </row>
+    <row r="25" ht="45" customHeight="1">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>alert</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>[əˈlɜːt]</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>adj. 警惕的，警觉的；机敏的，敏捷的；意识到，注意到（alert to）</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We all have to stay alert. </t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="n"/>
+      <c r="F25" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G25" s="12" t="n"/>
+    </row>
+    <row r="26" ht="45" customHeight="1">
+      <c r="A26" s="12" t="inlineStr">
+        <is>
+          <t>surpass</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>[səˈpɑːs]</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>v. 超过，胜过，优于；比（预期的或希望的）更好；超越自我；超出（理解范围）</t>
+        </is>
+      </c>
+      <c r="D26" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He was determined to surpass the achievements of his older brothers. </t>
+        </is>
+      </c>
+      <c r="E26" s="12" t="n"/>
+      <c r="F26" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G26" s="12" t="n"/>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>evaporate</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>[ɪˈvæpəreɪt]</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>v. （使）蒸发，挥发；消失，消散</t>
+        </is>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moisture is drawn to the surface of the fabric so that it evaporates. </t>
+        </is>
+      </c>
+      <c r="E27" s="12" t="n"/>
+      <c r="F27" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G27" s="12" t="n"/>
+    </row>
+    <row r="28" ht="45" customHeight="1">
+      <c r="A28" s="12" t="inlineStr">
+        <is>
+          <t>ascend</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>[əˈsend]</t>
+        </is>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>v. 攀登，登上；上升，升高，通往高处；升职，晋升；追溯，溯源</t>
+        </is>
+      </c>
+      <c r="D28" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mrs. Clayton had to hold Lizzie's hand as they ascended the steps. </t>
+        </is>
+      </c>
+      <c r="E28" s="12" t="n"/>
+      <c r="F28" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G28" s="12" t="n"/>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="12" t="inlineStr">
+        <is>
+          <t>contend</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="inlineStr">
+        <is>
+          <t>[kənˈtend]</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>v. 声称，主张；竞争，争夺；处理，对付</t>
+        </is>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It is time, once again, to contend with racism. </t>
+        </is>
+      </c>
+      <c r="E29" s="12" t="n"/>
+      <c r="F29" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G29" s="12" t="n"/>
+    </row>
+    <row r="30" ht="45" customHeight="1">
+      <c r="A30" s="12" t="inlineStr">
+        <is>
+          <t>induce</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="inlineStr">
+        <is>
+          <t>[ɪnˈdjuːs]</t>
+        </is>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>v. 引诱，诱使；引起，导致；给（孕妇）引产，（用药物）催生；归纳出</t>
+        </is>
+      </c>
+      <c r="D30" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Doctors said surgery could induce a heart attack. </t>
+        </is>
+      </c>
+      <c r="E30" s="12" t="n"/>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G30" s="12" t="n"/>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>authorize</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>[ˈɔːθəraɪz]</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>v. 批准，许可；授权</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It would certainly be within his power to authorize a police raid like that. </t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="n"/>
+      <c r="F31" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G31" s="12" t="n"/>
+    </row>
+    <row r="32" ht="45" customHeight="1">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>ponder</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="inlineStr">
+        <is>
+          <t>[ˈpɒndə(r)]</t>
+        </is>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>v. 仔细考虑，琢磨，沉思</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I found myself constantly pondering the question: "How could anyone do these things?" </t>
+        </is>
+      </c>
+      <c r="E32" s="12" t="n"/>
+      <c r="F32" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="n"/>
+    </row>
+    <row r="33" ht="120" customHeight="1">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>invoke</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>[ɪnˈvəʊk]</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>v. 行使，实施（法权）；援用，援引（法律）；提及，援引（某人、某理论、实例等作为支持）；提及（某著名人物）；唤起，引起（感情或想象）；（尤指向神灵）祈祷，祈求；用法术召唤（魔鬼）；（计算机）调用，激活</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The judge invoked an international law that protects refugees. </t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="n"/>
+      <c r="F33" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G33" s="12" t="n"/>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>evoke</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>[ɪˈvəʊk]</t>
+        </is>
+      </c>
+      <c r="C34" s="12" t="inlineStr">
+        <is>
+          <t>v. 引起，唤起（感情、记忆或形象）；召（魂），唤（神）</t>
+        </is>
+      </c>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...the scene evoking memories of those old movies. </t>
+        </is>
+      </c>
+      <c r="E34" s="12" t="n"/>
+      <c r="F34" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G34" s="12" t="n"/>
+    </row>
+    <row r="35" ht="45" customHeight="1">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>authentic</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>[ɔːˈθentɪk]</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>adj. 原作的，真迹的；传统的，正宗的；逼真的，仿真的；真实的，可靠的</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...authentic Italian food. </t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="n"/>
+      <c r="F35" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G35" s="12" t="n"/>
+    </row>
+    <row r="36" ht="45" customHeight="1">
+      <c r="A36" s="12" t="inlineStr">
+        <is>
+          <t>blunder</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="inlineStr">
+        <is>
+          <t>[ˈblʌndə(r)]</t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>v. 跌跌撞撞地走，摸索；犯愚蠢的错误，出漏子；误入，不小心陷入（困境）</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think he made a tactical blunder by announcing it so far ahead of time. </t>
+        </is>
+      </c>
+      <c r="E36" s="12" t="n"/>
+      <c r="F36" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G36" s="12" t="n"/>
+    </row>
+    <row r="37" ht="45" customHeight="1">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>liability</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>[ˌlaɪəˈbɪləti]</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>n. （法律上应承担的）责任，义务；惹麻烦的人（或事）；负债，债务；倾向；可能性</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As the president's prestige continues to fall, they're clearly beginning to consider him a liability. </t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="n"/>
+      <c r="F37" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G37" s="12" t="n"/>
+    </row>
+    <row r="38" ht="45" customHeight="1">
+      <c r="A38" s="12" t="inlineStr">
+        <is>
+          <t>feminine</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="inlineStr">
+        <is>
+          <t>[ˈfemənɪn]</t>
+        </is>
+      </c>
+      <c r="C38" s="12" t="inlineStr">
+        <is>
+          <t>adj. 女性特有的，女子气的；女性的，妇女的；（语法）阴性的</t>
+        </is>
+      </c>
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...male leaders worrying about their women abandoning traditional feminine roles. </t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="n"/>
+      <c r="F38" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G38" s="12" t="n"/>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>[ˈɪmpʌls]</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>n. 冲动；脉冲；推动力</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unable to resist the impulse, he glanced at the sea again. </t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="n"/>
+      <c r="F39" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G39" s="12" t="n"/>
+    </row>
+    <row r="40" ht="45" customHeight="1">
+      <c r="A40" s="12" t="inlineStr">
+        <is>
+          <t>stimulus</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="inlineStr">
+        <is>
+          <t>[ˈstɪmjələs]</t>
+        </is>
+      </c>
+      <c r="C40" s="12" t="inlineStr">
+        <is>
+          <t>n. 刺激（物）, 促进因素；（使生物产生反应的）刺激，刺激物；刺激性，趣味性</t>
+        </is>
+      </c>
+      <c r="D40" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Interest rates could fall soon and be a stimulus to the U.S. economy. </t>
+        </is>
+      </c>
+      <c r="E40" s="12" t="n"/>
+      <c r="F40" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G40" s="12" t="n"/>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>incentive</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>[ɪnˈsentɪv]</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>n. 激励，刺激</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> There is little or no incentive to adopt such measures. </t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="n"/>
+      <c r="F41" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G41" s="12" t="n"/>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>hamper</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="inlineStr">
+        <is>
+          <t>[ˈhæmpə(r)]</t>
+        </is>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>v. 阻碍，妨碍</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The bad weather hampered rescue operations. </t>
+        </is>
+      </c>
+      <c r="E42" s="12" t="n"/>
+      <c r="F42" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G42" s="12" t="n"/>
+    </row>
+    <row r="43" ht="45" customHeight="1">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>confine</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>[kənˈfaɪn]</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>v. 限制，局限；防止……扩散；关押，监禁；使离不开（或受困于床、轮椅等）</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Health officials have successfully confined the epidemic to the Tabatinga area. </t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="n"/>
+      <c r="F43" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G43" s="12" t="n"/>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>intrinsic</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>[ɪnˈtrɪnzɪk]</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>adj. 内在的，固有的</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diamonds have little intrinsic value and their price depends almost entirely on their scarcity. </t>
+        </is>
+      </c>
+      <c r="E44" s="12" t="n"/>
+      <c r="F44" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>instrinsic</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="75" customHeight="1">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>junction</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>[ˈdʒʌŋkʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>n. （公路或铁路的）交叉口，岔道口；汇合处，交叉点；（电子）接口；连接，结合；（高速公路的）出入口；（铁路的）枢纽站，联轨站</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="n"/>
+      <c r="F45" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G45" s="12" t="inlineStr">
+        <is>
+          <t>junction</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>joint</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>[dʒɔɪnt]</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="inlineStr">
+        <is>
+          <t>adj. 联合的，共同的，共有的；连带的</t>
+        </is>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> She and Frank had never got around to opening a joint account. </t>
+        </is>
+      </c>
+      <c r="E46" s="12" t="n"/>
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="n"/>
+    </row>
+    <row r="47" ht="90" customHeight="1">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>profound</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>[prəˈfaʊnd]</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>adj. （影响）深刻的，极大的；（感情）强烈的，深切的；（思想）深邃的，（见解）深刻的；&lt;文&gt;深的，深处的；完全的；艰深的，玄奥的；（疾病，残疾）严重的</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...discoveries which had a profound effect on many areas of medicine. </t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="n"/>
+      <c r="F47" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G47" s="12" t="n"/>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>accomplish</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>[əˈkʌmplɪʃ]</t>
+        </is>
+      </c>
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>v. 完成，实现</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If we'd all work together, I think we could accomplish our goal. </t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="n"/>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G48" s="12" t="n"/>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>bacterium</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>[bækˈtɪəriəm]</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>n. 细菌</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="n"/>
+      <c r="F49" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G49" s="12" t="inlineStr">
+        <is>
+          <t>bacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>bias</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>[ˈbaɪəs]</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>n. 偏见，成见；偏好，天赋；倾向，趋势；斜纹；（统计）偏差，偏倚；偏重心球形；偏压，偏统</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...his desire to avoid the appearance of bias in favour of one candidate or another. </t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="n"/>
+      <c r="F50" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G50" s="12" t="n"/>
+    </row>
+    <row r="51" ht="180" customHeight="1">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>blow</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>[bləʊ]</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>v. （风）刮，吹；（用嘴）吹气；吹响，吹奏；毁掉，炸毁；（轮胎）爆开，爆裂；（保险丝）烧断，熔化；擤（鼻子）；浪费，挥霍（金钱）；&lt;非正式&gt;出错，错失机会；泄露，暴露；&lt;美，非正式&gt;迅速离开（某地）；&lt;美，非正式&gt;用力投（球）；&lt;英，非正式&gt;讨厌，糟糕；开花；（鲸鱼）喷水；吹制（玻璃）；（苍蝇）产卵于</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A chill wind blew at the top of the hill. </t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="n"/>
+      <c r="F51" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G51" s="12" t="n"/>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="12" t="inlineStr">
+        <is>
+          <t>cause</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="inlineStr">
+        <is>
+          <t>[kɔːz]</t>
+        </is>
+      </c>
+      <c r="C52" s="12" t="inlineStr">
+        <is>
+          <t>n. 原因；事业；理由</t>
+        </is>
+      </c>
+      <c r="D52" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Smoking is the biggest preventable cause of death and disease. </t>
+        </is>
+      </c>
+      <c r="E52" s="12" t="n"/>
+      <c r="F52" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G52" s="12" t="n"/>
+    </row>
+    <row r="53" ht="75" customHeight="1">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>companion</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>[kəmˈpænjən]</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>n. 同伴，伴侣；（受雇照料老人或病人的）陪护；成对的物品之一；同甘共苦的伙伴；（用于书名）指南，手册；伴星；最低级爵士</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="n"/>
+      <c r="F53" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G53" s="12" t="inlineStr">
+        <is>
+          <t>companion</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="12" t="inlineStr">
+        <is>
+          <t>congress</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="inlineStr">
+        <is>
+          <t>[ˈkɒŋɡres]</t>
+        </is>
+      </c>
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>n. 国会，议会；代表大会；美国国会（Congress）</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A lot has changed after the party congress. </t>
+        </is>
+      </c>
+      <c r="E54" s="12" t="n"/>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="n"/>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>contemplate</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="inlineStr">
+        <is>
+          <t>[ˈkɒntəmpleɪt]</t>
+        </is>
+      </c>
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>v. 沉思，深思熟虑；盘算，打算；凝视，注视；考虑接受（发生某事的可能性）</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For a time he contemplated a career as an army medical doctor. </t>
+        </is>
+      </c>
+      <c r="E55" s="12" t="n"/>
+      <c r="F55" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G55" s="12" t="inlineStr">
+        <is>
+          <t>comtemplate</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="45" customHeight="1">
+      <c r="A56" s="12" t="inlineStr">
+        <is>
+          <t>contrive</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="inlineStr">
+        <is>
+          <t>[kənˈtraɪv]</t>
+        </is>
+      </c>
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>v. 谋划，策划；设计，发明；设法做到</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The oil companies were accused of contriving a shortage of petrol to justify price increases. </t>
+        </is>
+      </c>
+      <c r="E56" s="12" t="n"/>
+      <c r="F56" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G56" s="12" t="n"/>
+    </row>
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>coordinate</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>[kəʊˈɔːdɪneɪt]</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>v. 协调，配合；使身体协调；（使颜色、款式、风格等）搭配，配套；给 （原子或分子）配位，与……形成共价键</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Government officials visited the earthquake zone on Thursday morning to coordinate the relief effort. </t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="n"/>
+      <c r="F57" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G57" s="12" t="n"/>
+    </row>
+    <row r="58" ht="45" customHeight="1">
+      <c r="A58" s="12" t="inlineStr">
+        <is>
+          <t>counterpart</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="inlineStr">
+        <is>
+          <t>[ˈkaʊntəpɑːt]</t>
+        </is>
+      </c>
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>n. 对应的人（或事物）；（法律文件的）副本</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As soon as he heard what was afoot, he telephoned his German and Italian counterparts to protest. </t>
+        </is>
+      </c>
+      <c r="E58" s="12" t="n"/>
+      <c r="F58" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G58" s="12" t="n"/>
+    </row>
+    <row r="59" ht="45" customHeight="1">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>decay</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>[dɪˈkeɪ]</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>v. （建筑、地方等）破败，衰落；（观念、影响力等）衰败；（使）腐朽，腐烂</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The bodies buried in the fine ash slowly decayed. </t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="n"/>
+      <c r="F59" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G59" s="12" t="n"/>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>deceptive</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>[dɪˈseptɪv]</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>adj. 欺骗性的，造成假象的</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Johnston isn't tired of Las Vegas yet, it seems, but appearances can be deceptive. </t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="n"/>
+      <c r="F60" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G60" s="12" t="n"/>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>distract</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>[dɪˈstrækt]</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>v. 使分心，使转移注意力；&lt;古&gt;使困惑，使迷惑</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tom admits that playing video games sometimes distracts him from his homework. </t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="n"/>
+      <c r="F61" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G61" s="12" t="n"/>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="inlineStr">
+        <is>
+          <t>[dəʊs]</t>
+        </is>
+      </c>
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>n. 一剂，一服；一次，一点；花柳病</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One dose of penicillin can wipe out the infection. </t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="n"/>
+      <c r="F62" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G62" s="12" t="n"/>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>drastically</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="inlineStr">
+        <is>
+          <t>[ˈdræstɪkli; ˈdrɑːstɪkli]</t>
+        </is>
+      </c>
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>adv. （动作或变化）猛烈地，力度大地 ；极其，非常</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E63" s="12" t="n"/>
+      <c r="F63" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G63" s="12" t="inlineStr">
+        <is>
+          <t>drastically</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>tremendously</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="inlineStr">
+        <is>
+          <t>[trəˈmendəsli]</t>
+        </is>
+      </c>
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>adv. 非常地；可怕地；惊人地</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="n"/>
+      <c r="F64" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G64" s="12" t="inlineStr">
+        <is>
+          <t>tremendously</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>eject</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="inlineStr">
+        <is>
+          <t>[ɪˈdʒekt]</t>
+        </is>
+      </c>
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>v. 驱逐，赶出；喷射，排出；（飞行员从即将坠毁的飞机中）弹出；（磁带或光盘）弹出</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officials used guard dogs to eject the protesters. </t>
+        </is>
+      </c>
+      <c r="E65" s="12" t="n"/>
+      <c r="F65" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G65" s="12" t="n"/>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>endeavor</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
+        <is>
+          <t>[ɪnˈdevə(r)]</t>
+        </is>
+      </c>
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>n. 努力；尽力（等于 endeavour）</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="n"/>
+      <c r="F66" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G66" s="12" t="inlineStr">
+        <is>
+          <t>endeavor</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1">
+      <c r="A67" s="12" t="inlineStr">
+        <is>
+          <t>fuse</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="inlineStr">
+        <is>
+          <t>[fjuːz]</t>
+        </is>
+      </c>
+      <c r="C67" s="12" t="inlineStr">
+        <is>
+          <t>n. 保险丝，熔丝；导火线，引信</t>
+        </is>
+      </c>
+      <c r="D67" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The fuse blew as he pressed the button to start the motor. </t>
+        </is>
+      </c>
+      <c r="E67" s="12" t="n"/>
+      <c r="F67" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G67" s="12" t="n"/>
+    </row>
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>merit</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>[ˈmerɪt]</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>n. 优秀品质，价值；优点，长处；&lt;英&gt;（成绩等级）良好；事实真相，是非曲直；善行，善事</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The argument seemed to have considerable merit. </t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="n"/>
+      <c r="F68" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G68" s="12" t="n"/>
+    </row>
+    <row r="69" ht="30" customHeight="1">
+      <c r="A69" s="12" t="inlineStr">
+        <is>
+          <t>overseas</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="inlineStr">
+        <is>
+          <t>[ˌəʊvəˈsiːz]</t>
+        </is>
+      </c>
+      <c r="C69" s="12" t="inlineStr">
+        <is>
+          <t>adj. 外国的，海外的</t>
+        </is>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He has returned to South Africa from his long overseas trip. </t>
+        </is>
+      </c>
+      <c r="E69" s="12" t="n"/>
+      <c r="F69" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G69" s="12" t="n"/>
+    </row>
+    <row r="70" ht="45" customHeight="1">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>philosophical</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>[ˌfɪləˈsɒfɪk(ə)l]</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>adj. 哲学的；达观的，处乱不惊的</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He was more accustomed to cocktail party chatter than to political or philosophical discussions. </t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="n"/>
+      <c r="F70" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G70" s="12" t="n"/>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="12" t="inlineStr">
+        <is>
+          <t>prey</t>
+        </is>
+      </c>
+      <c r="B71" s="12" t="inlineStr">
+        <is>
+          <t>[preɪ]</t>
+        </is>
+      </c>
+      <c r="C71" s="12" t="inlineStr">
+        <is>
+          <t>n. 猎物，捕获物；受害者，受骗者；&lt;古&gt;掠夺品</t>
+        </is>
+      </c>
+      <c r="D71" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Electric rays stun their prey with huge electrical discharges. </t>
+        </is>
+      </c>
+      <c r="E71" s="12" t="n"/>
+      <c r="F71" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G71" s="12" t="n"/>
+    </row>
+    <row r="72" ht="45" customHeight="1">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>reclaim</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>[rɪˈkleɪm]</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>v. 要求归还；利用，改造（荒地）；回收（废品中有用的东西）；感化，使纠正</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In 1986, they got the right to reclaim South African citizenship. </t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="n"/>
+      <c r="F72" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G72" s="12" t="n"/>
+    </row>
+    <row r="73" ht="45" customHeight="1">
+      <c r="A73" s="12" t="inlineStr">
+        <is>
+          <t>rectify</t>
+        </is>
+      </c>
+      <c r="B73" s="12" t="inlineStr">
+        <is>
+          <t>[ˈrektɪfaɪ]</t>
+        </is>
+      </c>
+      <c r="C73" s="12" t="inlineStr">
+        <is>
+          <t>v. &lt;正式&gt;纠正，矫正；整流，把（交流电）转变成直流电；蒸馏；求曲线的直线等长</t>
+        </is>
+      </c>
+      <c r="D73" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Only an act of Congress could rectify the situation. </t>
+        </is>
+      </c>
+      <c r="E73" s="12" t="n"/>
+      <c r="F73" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G73" s="12" t="n"/>
+    </row>
+    <row r="74" ht="45" customHeight="1">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>remedy</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>[ˈremədi]</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>n. 解决方法，纠正方法；法定补偿（办法）；治疗（法），药品；（硬币的）公差</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The remedy lies in the hands of the government. </t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="n"/>
+      <c r="F74" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G74" s="12" t="n"/>
+    </row>
+    <row r="75" ht="60" customHeight="1">
+      <c r="A75" s="12" t="inlineStr">
+        <is>
+          <t>rigorous</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="inlineStr">
+        <is>
+          <t>[ˈrɪɡərəs]</t>
+        </is>
+      </c>
+      <c r="C75" s="12" t="inlineStr">
+        <is>
+          <t>adj. （测试、系统或程序）严密的，缜密的；（规则，制度等）严格的，苛刻的；一丝不苟的；严酷的，恶劣的</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The selection process is based on rigorous tests of competence and experience. </t>
+        </is>
+      </c>
+      <c r="E75" s="12" t="n"/>
+      <c r="F75" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G75" s="12" t="n"/>
+    </row>
+    <row r="76" ht="60" customHeight="1">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>rim</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>[rɪm]</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>n. （圆形物体的）边沿；（污垢等）一周，一圈；轮辋，轮圈；眼镜框；（篮球的）篮筐，篮圈 ；界，边界</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> She looked at him over the rim of her glass. </t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="n"/>
+      <c r="F76" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G76" s="12" t="n"/>
+    </row>
+    <row r="77" ht="60" customHeight="1">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>spare</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>[speə(r)]</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>adj. 备用的，外加的；不用的，闲置的；空闲的，空余的；多余的；简单的，简朴的；瘦的，瘦高的；少量的；节约的</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If possible keep a spare pair of glasses accessible in case your main pair is broken or lost. </t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="n"/>
+      <c r="F77" s="12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G77" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/xlsx/words.xlsx
+++ b/project/xlsx/words.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\wordlist\project\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8889862-D79A-42AA-8C33-D53D635AB258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21960" windowHeight="10020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,25 @@
     <sheet name="day9" sheetId="5" r:id="rId5"/>
     <sheet name="day10&amp;11" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="969">
   <si>
     <t>单词</t>
   </si>
@@ -2256,12 +2263,21 @@
     <t xml:space="preserve"> ...a garden shed. </t>
   </si>
   <si>
+    <t>wisdom</t>
+  </si>
+  <si>
     <t>[ˈwɪzdəm]</t>
   </si>
   <si>
+    <t>n. 智慧，才智；明智；学问，知识；普遍看法</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ...the patience and wisdom that comes from old age. </t>
   </si>
   <si>
+    <t>route</t>
+  </si>
+  <si>
     <t>[ruːt]</t>
   </si>
   <si>
@@ -2271,6 +2287,9 @@
     <t xml:space="preserve"> ...the most direct route to the centre of town. </t>
   </si>
   <si>
+    <t>convention</t>
+  </si>
+  <si>
     <t>[kənˈvenʃ(ə)n]</t>
   </si>
   <si>
@@ -2280,6 +2299,9 @@
     <t xml:space="preserve"> It's just a social convention that men don't wear skirts. </t>
   </si>
   <si>
+    <t>supreme</t>
+  </si>
+  <si>
     <t>[suːˈpriːm; sjuːˈpriːm]</t>
   </si>
   <si>
@@ -2289,6 +2311,9 @@
     <t xml:space="preserve"> MacArthur was Supreme Commander for the allied powers in the Pacific. </t>
   </si>
   <si>
+    <t>enforce</t>
+  </si>
+  <si>
     <t>[ɪnˈfɔːs]</t>
   </si>
   <si>
@@ -2298,6 +2323,9 @@
     <t xml:space="preserve"> Boulder was one of the first cities in the nation to enforce a ban on smoking. </t>
   </si>
   <si>
+    <t>exploit</t>
+  </si>
+  <si>
     <t>[ɪkˈsplɔɪt]</t>
   </si>
   <si>
@@ -2343,9 +2371,15 @@
     <t xml:space="preserve"> Having begun my life in a children's home, I have great empathy with the little ones. </t>
   </si>
   <si>
+    <t>resort</t>
+  </si>
+  <si>
     <t>[rɪˈzɔːt]</t>
   </si>
   <si>
+    <t>n. 旅游胜地，度假胜地；求助的方法，采用的手段；采用，诉诸，求助</t>
+  </si>
+  <si>
     <t xml:space="preserve"> His punishing work schedule had made him resort to drugs. </t>
   </si>
   <si>
@@ -2415,639 +2449,948 @@
     <t>[pʌbˈlɪsəti]</t>
   </si>
   <si>
-    <t>n. （媒体的）关注，报道；宣传， 推广；宣传业，广告行业；宣传品，广告；引起公众关注的事物</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Much advance publicity was given to the talks. </t>
-  </si>
-  <si>
-    <t>accordance</t>
-  </si>
-  <si>
-    <t>[əˈkɔːd(ə)ns]</t>
-  </si>
-  <si>
-    <t>n. 按照，依据，与……一致（in accordance with）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Entries which are illegible or otherwise not in accordance with the rules will be disqualified. </t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>[skəʊp]</t>
-  </si>
-  <si>
-    <t>n. 范围，领域；（发挥能力的）机会，施展余地；视野，眼界；观测仪器（如望远镜、显微镜等）；（船抛锚时的）缆绳长度；特定论点的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He believed in giving his staff scope for initiative. </t>
-  </si>
-  <si>
-    <t>specialize</t>
-  </si>
-  <si>
-    <t>[ˈspeʃəlaɪz]</t>
-  </si>
-  <si>
-    <t>vi. 专门研究（或从事），专攻；专营；（生）使（器官）专化，使特化</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...a University professor who specializes in the history of the Russian empire. </t>
-  </si>
-  <si>
-    <t>sacrifice</t>
-  </si>
-  <si>
-    <t>[ˈsækrɪfaɪs]</t>
-  </si>
-  <si>
-    <t>n. 牺牲，献出；献祭，供奉；祭牲，供品；基督的献身（指耶稣被钉在十字架上）；（天主教作为献祭圣体和圣血，或新教表示感恩的）圣餐礼；（棋）（为战略或战术原因所作出的）弃子，弃卒；（棒球中）牺牲打（sacrifice bunt/fly）；（桥牌）（指在对方叫到进局定约之后的）牺牲性叫牌（sacrifice bid）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The priest sacrificed a chicken. </t>
-  </si>
-  <si>
-    <t>guarantee</t>
-  </si>
-  <si>
-    <t>[ˌɡærənˈtiː]</t>
-  </si>
-  <si>
-    <t>v. 确保，保证；担保，为……作保；保修，包换</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Surplus resources alone do not guarantee growth. </t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>[ˌɪnstɪˈtjuːʃ(ə)n]</t>
-  </si>
-  <si>
-    <t>n. 机构，团体；社会收容机构；制度，习俗；建立，制定；知名的人（或事物）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...financial institutions. </t>
-  </si>
-  <si>
-    <t>furnish</t>
-  </si>
-  <si>
-    <t>[ˈfɜːnɪʃ]</t>
-  </si>
-  <si>
-    <t>v. 为（房间或房屋）配备家具；提供，供应</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Many proprietors try to furnish their hotels with antiques. </t>
-  </si>
-  <si>
-    <t>licence</t>
-  </si>
-  <si>
-    <t>[ˈlaɪs(ə)ns]</t>
-  </si>
-  <si>
-    <t>n. 许可证，执照；许可，准许；（言论或行动的）自由，不受拘束；（做错事的）诱因，借口</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The judge fined the man and suspended his licence. </t>
-  </si>
-  <si>
-    <t>mount</t>
-  </si>
-  <si>
-    <t>[maʊnt]</t>
-  </si>
-  <si>
-    <t>v. 组织，开展；爬上，登上；骑上；增多，增加，上升；增强，加剧；镶嵌，裱贴，安置；上演，展出；爬上（雌性动物的背）进行交配；设置（岗哨），担任（警卫）；把（观察对象）固定于显微镜的载玻片</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The ANC announced it was mounting a major campaign of mass political protests. </t>
-  </si>
-  <si>
-    <t>folk</t>
-  </si>
-  <si>
-    <t>[fəʊk]</t>
-  </si>
-  <si>
-    <t>n. 人们；家人，双亲；民间音乐；诸位，大伙儿</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Country folk can tell you that there are certain places which animals avoid. </t>
-  </si>
-  <si>
-    <t>instinct</t>
-  </si>
-  <si>
-    <t>[ˈɪnstɪŋkt]</t>
-  </si>
-  <si>
-    <t>n. 本能，天性；直觉；天分，天赋</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I didn't have as strong a maternal instinct as some other mothers. </t>
-  </si>
-  <si>
-    <t>conservative</t>
-  </si>
-  <si>
-    <t>[kənˈsɜːvətɪv]</t>
-  </si>
-  <si>
-    <t>adj. 保守的；保守派的，保守主义的（认为政府应该实行政治保守主义）；（衣着）守旧的，传统的；低估的；保守党的；不愿冒险的，谨慎的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...counties whose citizens invariably support the most conservative candidate in any election. </t>
-  </si>
-  <si>
-    <t>controversial</t>
-  </si>
-  <si>
-    <t>[ˌkɒntrəˈvɜːʃ(ə)l]</t>
-  </si>
-  <si>
-    <t>adj. 有争议的，引发争论的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Immigration is a controversial issue in many countries. </t>
-  </si>
-  <si>
-    <t>resolve</t>
-  </si>
-  <si>
-    <t>[rɪˈzɒlv]</t>
-  </si>
-  <si>
-    <t>v. 解决（问题或困难）；决定，下定决心；作出决议，表决；分解，转化；（使）（症状、病情）消散，消退；解析，解离；分析；（不协和音）转向协和；（当远处物体看得更清楚时）变成；（光学仪器等）分辨；辨析（图表或光谱峰值）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We must find a way to resolve these problems before it's too late. </t>
-  </si>
-  <si>
-    <t>derive</t>
-  </si>
-  <si>
-    <t>[dɪˈraɪv]</t>
-  </si>
-  <si>
-    <t>v. 获得，取得；起源于，来自；提取，衍生（化学物质）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mr. Ying is one of those happy people who derive pleasure from helping others. </t>
-  </si>
-  <si>
-    <t>derivative</t>
-  </si>
-  <si>
-    <t>[dɪˈrɪvətɪv]</t>
-  </si>
-  <si>
-    <t>n. 派生物，衍生物；派生词；（金融）衍生工具（产品）；导数，微商</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...a poppy-seed derivative similar to heroin. </t>
-  </si>
-  <si>
-    <t>scrape</t>
-  </si>
-  <si>
-    <t>[skreɪp]</t>
-  </si>
-  <si>
-    <t>v. （用小刀等）刮除；（使）刮擦；擦伤，刮坏；（使）发出刺耳的刮擦声；勉强维持，艰难地完成；勉强维持生活（scrape by/along）；勉强通过；（艰难地）凑集，积累（scrape sth. together/up）；节俭；挖坑，挖洞； 把头发拢在后面（scrape sth. back）；（幽默）不入调地演奏小提琴；&lt;英&gt;在面包上涂一层薄薄的（黄油，人造黄油）；用程序从网上下载（数据）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> She went around the car scraping the frost off the windows. </t>
-  </si>
-  <si>
-    <t>deceive</t>
-  </si>
-  <si>
-    <t>[dɪˈsiːv]</t>
-  </si>
-  <si>
-    <t>v. 欺骗，蒙骗；使误信，误导；对（丈夫、妻子或伴侣）不忠</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He has deceived and disillusioned us all. </t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>[ˈkɒntrækt; kənˈtrækt]</t>
-  </si>
-  <si>
-    <t>n. 合同，契约；&lt;非正式&gt;暗杀协议；（桥牌）定约墩数；婚约，订婚</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The company won a hefty contract for work on Chicago's tallest building. </t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>[ˈkɒntrɑːst]</t>
-  </si>
-  <si>
-    <t>n. 差异，对比；对照物，明显不同的事物；（摄影或绘画中的）颜色反差，明暗对比；（电视屏幕的）图像明暗对比度，反差</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...the contrast between town and country. </t>
-  </si>
-  <si>
-    <t>notorious</t>
-  </si>
-  <si>
-    <t>[nəʊˈtɔːriəs]</t>
-  </si>
-  <si>
-    <t>adj. 声名狼藉的，臭名昭著的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...an area notorious for drugs, crime and violence. </t>
-  </si>
-  <si>
-    <t>infamous</t>
-  </si>
-  <si>
-    <t>[ˈɪnfəməs]</t>
-  </si>
-  <si>
-    <t>adj. 声名狼藉的；无耻的；邪恶的；不名誉的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He was infamous for his anti-feminist attitudes. </t>
-  </si>
-  <si>
-    <t>tuition</t>
-  </si>
-  <si>
-    <t>[tjuˈɪʃ(ə)n]</t>
-  </si>
-  <si>
-    <t>n. （尤指对个人或小组的）教学，指导；（尤指学院、大学或私立学校的）学费</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Angela's $7,000 tuition at university this year will be paid for with scholarships. </t>
-  </si>
-  <si>
-    <t>chronic</t>
-  </si>
-  <si>
-    <t>[ˈkrɒnɪk]</t>
-  </si>
-  <si>
-    <t>adj. （疾病）慢性的，长期的；（问题）一直有的，反复出现的；难以根除的，积习难改的；&lt;英，非正式&gt;糟透的，拙劣的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...chronic back pain. </t>
-  </si>
-  <si>
-    <t>hoist</t>
-  </si>
-  <si>
-    <t>[hɔɪst]</t>
-  </si>
-  <si>
-    <t>v. 吊起，提升；&lt;非正式&gt;投篮</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hoisting my suitcase on to my shoulder, I turned and headed toward my hotel. </t>
-  </si>
-  <si>
-    <t>contaminate</t>
-  </si>
-  <si>
-    <t>[kənˈtæmɪneɪt]</t>
-  </si>
-  <si>
-    <t>v. 污染，弄脏；毒害，腐蚀（人的思想或品德）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Have any fish been contaminated in the Arctic Ocean? </t>
-  </si>
-  <si>
-    <t>installment</t>
-  </si>
-  <si>
-    <t>[ɪnˈstɔːlmənt]</t>
-  </si>
-  <si>
-    <t>n. 安装；分期付款；部分；就职</t>
-  </si>
-  <si>
-    <t>facilitate</t>
-  </si>
-  <si>
-    <t>[fəˈsɪlɪteɪt]</t>
-  </si>
-  <si>
-    <t>v. 使更容易，使便利；促进，推动</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The new airport will facilitate the development of tourism. </t>
-  </si>
-  <si>
-    <t>odor</t>
-  </si>
-  <si>
-    <t>[ˈəʊdə(r)]</t>
-  </si>
-  <si>
-    <t>n. 气味；名声</t>
-  </si>
-  <si>
-    <t>fragrance</t>
-  </si>
-  <si>
-    <t>[ˈfreɪɡrəns]</t>
-  </si>
-  <si>
-    <t>n. 芳香，香气；香水</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...a shrubby plant with a strong characteristic fragrance. </t>
-  </si>
-  <si>
-    <t>aroma</t>
-  </si>
-  <si>
-    <t>[əˈrəʊmə]</t>
-  </si>
-  <si>
-    <t>n. 芳香，浓香；（喻）气氛</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...the wonderful aroma of freshly baked bread. </t>
-  </si>
-  <si>
-    <t>scent</t>
-  </si>
-  <si>
-    <t>[sent]</t>
-  </si>
-  <si>
-    <t>n. 香味，芳香；（动物或人的）气味，臭迹；香水；察觉，预示；线索，踪迹；&lt;古&gt;嗅觉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flowers are chosen for their scent as well as their look. </t>
-  </si>
-  <si>
-    <t>perfume</t>
-  </si>
-  <si>
-    <t>[ˈpɜːfjuːm]</t>
-  </si>
-  <si>
-    <t>n. 香水；芳香，香味，馨香；香精，香料</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The hall smelled of her mother's perfume. </t>
-  </si>
-  <si>
-    <t>prestige</t>
-  </si>
-  <si>
-    <t>[preˈstiːʒ]</t>
-  </si>
-  <si>
-    <t>n. 声望，威信</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...efforts to build up the prestige of the United Nations. </t>
-  </si>
-  <si>
-    <t>complement</t>
-  </si>
-  <si>
-    <t>[ˈkɒmplɪment]</t>
-  </si>
-  <si>
-    <t>v. 补充，补足</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nutmeg, parsley and cider all complement the flavour of these beans well. </t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>[ˈsʌplɪmənt]</t>
-  </si>
-  <si>
-    <t>n. 补充物，增补物；营养片剂，补品；补助，补贴；额外服务费用；（报纸或杂志的）副刊，增刊；（书籍的）补编，附录；（几何）补角</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...people doing extra jobs outside their regular jobs to supplement their incomes. </t>
-  </si>
-  <si>
-    <t>refute</t>
-  </si>
-  <si>
-    <t>[rɪˈfjuːt]</t>
-  </si>
-  <si>
-    <t>v. &lt;正式&gt; 驳斥，批驳；&lt;正式&gt; 否认，辩驳</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It was the kind of rumour that it is impossible to refute. </t>
-  </si>
-  <si>
-    <t>repel</t>
-  </si>
-  <si>
-    <t>[rɪˈpel]</t>
-  </si>
-  <si>
-    <t>v. 击退，驱逐；抵御，驱除；使厌恶，使反感；抵制，不愿接受；排斥，相斥</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They have fifty thousand troops along the border ready to repel any attack. </t>
-  </si>
-  <si>
-    <t>successor</t>
-  </si>
-  <si>
-    <t>[səkˈsesə(r)]</t>
-  </si>
-  <si>
-    <t>n. 继承者，接替的事物；（组织、机器等的）接替物</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He set out several principles that he hopes will guide his successors. </t>
-  </si>
-  <si>
-    <t>prescription</t>
-  </si>
-  <si>
-    <t>[prɪˈskrɪpʃn]</t>
-  </si>
-  <si>
-    <t>n. 处方，药方；处方药；开处方，开药方；&lt;正式&gt;解决方法，诀窍；&lt;法律&gt;取得的时效（根据长期或不确定时期持续使用或以长期习惯为基础确立的要求权）（=positive prescription)）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The new drug will not require a physician's prescription. </t>
-  </si>
-  <si>
-    <t>kin</t>
-  </si>
-  <si>
-    <t>[kɪn]</t>
-  </si>
-  <si>
-    <t>n. （统称）家属，亲戚</t>
-  </si>
-  <si>
-    <t>wisdom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>route</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>convention</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 智慧，才智；明智；学问，知识；普遍看法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>supreme</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enforce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exploit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>n. 旅游胜地，度假胜地；求助的方法，采用的手段；采用，</t>
+      <t>n. （媒体的）关注，报道；</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>诉诸，求助</t>
+      <t>宣传， 推广</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；宣传业，广告行业；宣传品，广告；引起公众关注的事物</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Much advance publicity was given to the talks. </t>
+  </si>
+  <si>
+    <t>accordance</t>
+  </si>
+  <si>
+    <t>[əˈkɔːd(ə)ns]</t>
+  </si>
+  <si>
+    <t>n. 按照，依据，与……一致（in accordance with）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entries which are illegible or otherwise not in accordance with the rules will be disqualified. </t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>[skəʊp]</t>
+  </si>
+  <si>
+    <t>n. 范围，领域；（发挥能力的）机会，施展余地；视野，眼界；观测仪器（如望远镜、显微镜等）；（船抛锚时的）缆绳长度；特定论点的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He believed in giving his staff scope for initiative. </t>
+  </si>
+  <si>
+    <t>specialize</t>
+  </si>
+  <si>
+    <t>[ˈspeʃəlaɪz]</t>
+  </si>
+  <si>
+    <t>vi. 专门研究（或从事），专攻；专营；（生）使（器官）专化，使特化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...a University professor who specializes in the history of the Russian empire. </t>
+  </si>
+  <si>
+    <t>sacrifice</t>
+  </si>
+  <si>
+    <t>[ˈsækrɪfaɪs]</t>
+  </si>
+  <si>
+    <t>n. 牺牲，献出；献祭，供奉；祭牲，供品；基督的献身（指耶稣被钉在十字架上）；（天主教作为献祭圣体和圣血，或新教表示感恩的）圣餐礼；（棋）（为战略或战术原因所作出的）弃子，弃卒；（棒球中）牺牲打（sacrifice bunt/fly）；（桥牌）（指在对方叫到进局定约之后的）牺牲性叫牌（sacrifice bid）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The priest sacrificed a chicken. </t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>[ˌɡærənˈtiː]</t>
+  </si>
+  <si>
+    <t>v. 确保，保证；担保，为……作保；保修，包换</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surplus resources alone do not guarantee growth. </t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>[ˌɪnstɪˈtjuːʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>n. 机构，团体；社会收容机构；制度，习俗；建立，制定；知名的人（或事物）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...financial institutions. </t>
+  </si>
+  <si>
+    <t>furnish</t>
+  </si>
+  <si>
+    <t>[ˈfɜːnɪʃ]</t>
+  </si>
+  <si>
+    <t>v. 为（房间或房屋）配备家具；提供，供应</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Many proprietors try to furnish their hotels with antiques. </t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>[ˈlaɪs(ə)ns]</t>
+  </si>
+  <si>
+    <t>n. 许可证，执照；许可，准许；（言论或行动的）自由，不受拘束；（做错事的）诱因，借口</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The judge fined the man and suspended his licence. </t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>[maʊnt]</t>
+  </si>
+  <si>
+    <t>v. 组织，开展；爬上，登上；骑上；增多，增加，上升；增强，加剧；镶嵌，裱贴，安置；上演，展出；爬上（雌性动物的背）进行交配；设置（岗哨），担任（警卫）；把（观察对象）固定于显微镜的载玻片</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ANC announced it was mounting a major campaign of mass political protests. </t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>[fəʊk]</t>
+  </si>
+  <si>
+    <t>n. 人们；家人，双亲；民间音乐；诸位，大伙儿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Country folk can tell you that there are certain places which animals avoid. </t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>instinct</t>
+  </si>
+  <si>
+    <t>[ˈɪnstɪŋkt]</t>
+  </si>
+  <si>
+    <t>n. 本能，天性；直觉；天分，天赋</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I didn't have as strong a maternal instinct as some other mothers. </t>
+  </si>
+  <si>
+    <t>conservative</t>
+  </si>
+  <si>
+    <t>[kənˈsɜːvətɪv]</t>
+  </si>
+  <si>
+    <t>adj. 保守的；保守派的，保守主义的（认为政府应该实行政治保守主义）；（衣着）守旧的，传统的；低估的；保守党的；不愿冒险的，谨慎的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...counties whose citizens invariably support the most conservative candidate in any election. </t>
+  </si>
+  <si>
+    <t>controversial</t>
+  </si>
+  <si>
+    <t>[ˌkɒntrəˈvɜːʃ(ə)l]</t>
+  </si>
+  <si>
+    <t>adj. 有争议的，引发争论的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Immigration is a controversial issue in many countries. </t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>[rɪˈzɒlv]</t>
+  </si>
+  <si>
+    <t>v. 解决（问题或困难）；决定，下定决心；作出决议，表决；分解，转化；（使）（症状、病情）消散，消退；解析，解离；分析；（不协和音）转向协和；（当远处物体看得更清楚时）变成；（光学仪器等）分辨；辨析（图表或光谱峰值）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must find a way to resolve these problems before it's too late. </t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>[dɪˈraɪv]</t>
+  </si>
+  <si>
+    <t>v. 获得，取得；起源于，来自；提取，衍生（化学物质）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. Ying is one of those happy people who derive pleasure from helping others. </t>
+  </si>
+  <si>
+    <t>derivative</t>
+  </si>
+  <si>
+    <t>[dɪˈrɪvətɪv]</t>
+  </si>
+  <si>
+    <t>n. 派生物，衍生物；派生词；（金融）衍生工具（产品）；导数，微商</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...a poppy-seed derivative similar to heroin. </t>
+  </si>
+  <si>
+    <t>scrape</t>
+  </si>
+  <si>
+    <t>[skreɪp]</t>
+  </si>
+  <si>
+    <t>v. （用小刀等）刮除；（使）刮擦；擦伤，刮坏；（使）发出刺耳的刮擦声；勉强维持，艰难地完成；勉强维持生活（scrape by/along）；勉强通过；（艰难地）凑集，积累（scrape sth. together/up）；节俭；挖坑，挖洞； 把头发拢在后面（scrape sth. back）；（幽默）不入调地演奏小提琴；&lt;英&gt;在面包上涂一层薄薄的（黄油，人造黄油）；用程序从网上下载（数据）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She went around the car scraping the frost off the windows. </t>
+  </si>
+  <si>
+    <t>deceive</t>
+  </si>
+  <si>
+    <t>[dɪˈsiːv]</t>
+  </si>
+  <si>
+    <t>v. 欺骗，蒙骗；使误信，误导；对（丈夫、妻子或伴侣）不忠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He has deceived and disillusioned us all. </t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>[ˈkɒntrækt; kənˈtrækt]</t>
+  </si>
+  <si>
+    <t>n. 合同，契约；&lt;非正式&gt;暗杀协议；（桥牌）定约墩数；婚约，订婚</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The company won a hefty contract for work on Chicago's tallest building. </t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>[ˈkɒntrɑːst]</t>
+  </si>
+  <si>
+    <t>n. 差异，对比；对照物，明显不同的事物；（摄影或绘画中的）颜色反差，明暗对比；（电视屏幕的）图像明暗对比度，反差</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...the contrast between town and country. </t>
+  </si>
+  <si>
+    <t>notorious</t>
+  </si>
+  <si>
+    <t>[nəʊˈtɔːriəs]</t>
+  </si>
+  <si>
+    <t>adj. 声名狼藉的，臭名昭著的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...an area notorious for drugs, crime and violence. </t>
+  </si>
+  <si>
+    <t>infamous</t>
+  </si>
+  <si>
+    <t>[ˈɪnfəməs]</t>
+  </si>
+  <si>
+    <t>adj. 声名狼藉的；无耻的；邪恶的；不名誉的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He was infamous for his anti-feminist attitudes. </t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>[tjuˈɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>n. （尤指对个人或小组的）教学，指导；（尤指学院、大学或私立学校的）学费</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angela's $7,000 tuition at university this year will be paid for with scholarships. </t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>[ˈkrɒnɪk]</t>
+  </si>
+  <si>
+    <t>adj. （疾病）慢性的，长期的；（问题）一直有的，反复出现的；难以根除的，积习难改的；&lt;英，非正式&gt;糟透的，拙劣的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...chronic back pain. </t>
+  </si>
+  <si>
+    <t>hoist</t>
+  </si>
+  <si>
+    <t>[hɔɪst]</t>
+  </si>
+  <si>
+    <t>v. 吊起，提升；&lt;非正式&gt;投篮</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoisting my suitcase on to my shoulder, I turned and headed toward my hotel. </t>
+  </si>
+  <si>
+    <t>contaminate</t>
+  </si>
+  <si>
+    <t>[kənˈtæmɪneɪt]</t>
+  </si>
+  <si>
+    <t>v. 污染，弄脏；毒害，腐蚀（人的思想或品德）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have any fish been contaminated in the Arctic Ocean? </t>
+  </si>
+  <si>
+    <t>installment</t>
+  </si>
+  <si>
+    <t>[ɪnˈstɔːlmənt]</t>
+  </si>
+  <si>
+    <t>n. 安装；分期付款；部分；就职</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>[fəˈsɪlɪteɪt]</t>
+  </si>
+  <si>
+    <t>v. 使更容易，使便利；促进，推动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The new airport will facilitate the development of tourism. </t>
+  </si>
+  <si>
+    <t>odor</t>
+  </si>
+  <si>
+    <t>[ˈəʊdə(r)]</t>
+  </si>
+  <si>
+    <t>n. 气味；名声</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>[ˈfreɪɡrəns]</t>
+  </si>
+  <si>
+    <t>n. 芳香，香气；香水</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...a shrubby plant with a strong characteristic fragrance. </t>
+  </si>
+  <si>
+    <t>aroma</t>
+  </si>
+  <si>
+    <t>[əˈrəʊmə]</t>
+  </si>
+  <si>
+    <t>n. 芳香，浓香；（喻）气氛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...the wonderful aroma of freshly baked bread. </t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>[sent]</t>
+  </si>
+  <si>
+    <t>n. 香味，芳香；（动物或人的）气味，臭迹；香水；察觉，预示；线索，踪迹；&lt;古&gt;嗅觉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flowers are chosen for their scent as well as their look. </t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>[ˈpɜːfjuːm]</t>
+  </si>
+  <si>
+    <t>n. 香水；芳香，香味，馨香；香精，香料</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The hall smelled of her mother's perfume. </t>
+  </si>
+  <si>
+    <t>prestige</t>
+  </si>
+  <si>
+    <t>[preˈstiːʒ]</t>
+  </si>
+  <si>
+    <t>n. 声望，威信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...efforts to build up the prestige of the United Nations. </t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>[ˈkɒmplɪment]</t>
+  </si>
+  <si>
+    <t>v. 补充，补足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team needs players who complement each other </t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>[ˈsʌplɪmənt]</t>
+  </si>
+  <si>
+    <t>n. 补充物，增补物；营养片剂，补品；补助，补贴；额外服务费用；（报纸或杂志的）副刊，增刊；（书籍的）补编，附录；（几何）补角</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...people doing extra jobs outside their regular jobs to supplement their incomes. </t>
+  </si>
+  <si>
+    <t>refute</t>
+  </si>
+  <si>
+    <t>[rɪˈfjuːt]</t>
+  </si>
+  <si>
+    <t>v. &lt;正式&gt; 驳斥，批驳；&lt;正式&gt; 否认，辩驳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was the kind of rumour that is impossible to refute. </t>
+  </si>
+  <si>
+    <t>repel</t>
+  </si>
+  <si>
+    <t>[rɪˈpel]</t>
+  </si>
+  <si>
+    <t>v. 击退，驱逐；抵御，驱除；使厌恶，使反感；抵制，不愿接受；排斥，相斥</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They have fifty thousand troops along the border ready to repel any attack. </t>
+  </si>
+  <si>
+    <t>successor</t>
+  </si>
+  <si>
+    <t>[səkˈsesə(r)]</t>
+  </si>
+  <si>
+    <t>n. 继承者，接替的事物；（组织、机器等的）接替物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He set out several principles that he hopes will guide his successors. </t>
+  </si>
+  <si>
+    <t>prescription</t>
+  </si>
+  <si>
+    <t>[prɪˈskrɪpʃn]</t>
+  </si>
+  <si>
+    <t>n. 处方，药方；处方药；开处方，开药方；&lt;正式&gt;解决方法，诀窍；&lt;法律&gt;取得的时效（根据长期或不确定时期持续使用或以长期习惯为基础确立的要求权）（=positive prescription)）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The new drug will not require a physician's prescription. </t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>[kɪn]</t>
+  </si>
+  <si>
+    <t>n. （统称）家属，亲戚</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3055,34 +3398,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3094,6 +3670,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3103,21 +3682,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3166,7 +3798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3201,7 +3833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3375,36 +4007,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="27.9296875" customWidth="1"/>
-    <col min="2" max="2" width="32.46484375" customWidth="1"/>
-    <col min="3" max="3" width="32.06640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.9296875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.06640625" customWidth="1"/>
-    <col min="7" max="18" width="9.06640625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="27.929203539823" customWidth="1"/>
+    <col min="2" max="2" width="32.4690265486726" customWidth="1"/>
+    <col min="3" max="3" width="32.070796460177" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.929203539823" customWidth="1"/>
+    <col min="5" max="5" width="23.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="25.070796460177" customWidth="1"/>
+    <col min="7" max="16384" width="9.07079646017699" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="30" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3428,14 +4054,14 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" ht="97.5" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3448,14 +4074,14 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" ht="47.75" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3468,14 +4094,14 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="32.75" customHeight="1" spans="1:8">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3488,14 +4114,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="105" customHeight="1" spans="1:8">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3510,14 +4136,14 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="47.75" customHeight="1" spans="1:8">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3530,14 +4156,14 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="39" customHeight="1" spans="1:8">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3550,14 +4176,14 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" ht="60" customHeight="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3570,14 +4196,14 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" ht="45" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3590,14 +4216,14 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" ht="58.5" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3610,14 +4236,14 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+    <row r="11" ht="39" customHeight="1" spans="1:8">
+      <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3630,14 +4256,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="75" customHeight="1" spans="1:8">
+      <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3650,14 +4276,14 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" ht="15" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3670,14 +4296,14 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" ht="45" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3690,14 +4316,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+    <row r="15" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3710,14 +4336,14 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" ht="30" customHeight="1" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3732,14 +4358,14 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="39" customHeight="1" spans="1:8">
+      <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3752,14 +4378,14 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+    <row r="18" ht="78" customHeight="1" spans="1:8">
+      <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3772,17 +4398,17 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+    <row r="19" ht="15" customHeight="1" spans="1:8">
+      <c r="A19" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="1"/>
@@ -3792,14 +4418,14 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+    <row r="20" ht="39" customHeight="1" spans="1:8">
+      <c r="A20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3812,17 +4438,17 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="45" customHeight="1" spans="1:8">
+      <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="1"/>
@@ -3834,14 +4460,14 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="45" customHeight="1" spans="1:8">
+      <c r="A22" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3856,14 +4482,14 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="45" customHeight="1" spans="1:8">
+      <c r="A23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3878,14 +4504,14 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="30" customHeight="1" spans="1:8">
+      <c r="A24" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3898,14 +4524,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" ht="60" customHeight="1" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3918,14 +4544,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" ht="78" customHeight="1" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3938,17 +4564,17 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+    <row r="27" ht="32.75" customHeight="1" spans="1:8">
+      <c r="A27" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="1"/>
@@ -3958,14 +4584,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" ht="30" customHeight="1" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3980,17 +4606,17 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="29" ht="30" customHeight="1" spans="1:8">
+      <c r="A29" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="1"/>
@@ -4000,17 +4626,17 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" ht="47.75" customHeight="1" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E30" s="1"/>
@@ -4022,14 +4648,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="31" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="14" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4044,14 +4670,14 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    <row r="32" ht="78" customHeight="1" spans="1:8">
+      <c r="A32" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4064,14 +4690,14 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+    <row r="33" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="15" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4084,14 +4710,14 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
+    <row r="34" ht="45" customHeight="1" spans="1:8">
+      <c r="A34" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4104,14 +4730,14 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+    <row r="35" ht="78" customHeight="1" spans="1:8">
+      <c r="A35" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4126,17 +4752,17 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" ht="15" customHeight="1" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="10" t="s">
         <v>148</v>
       </c>
       <c r="E36" s="1"/>
@@ -4146,14 +4772,14 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" ht="97.5" customHeight="1" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4168,14 +4794,14 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+    <row r="38" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A38" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4188,7 +4814,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" ht="15" customHeight="1" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4198,7 +4824,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" ht="15" customHeight="1" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4208,7 +4834,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" ht="15" customHeight="1" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4218,7 +4844,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" ht="15" customHeight="1" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4228,7 +4854,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" ht="15" customHeight="1" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4238,7 +4864,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" ht="15" customHeight="1" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4248,7 +4874,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" ht="15" customHeight="1" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4259,33 +4885,33 @@
       <c r="H45" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.06640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.46484375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.46484375" style="3" customWidth="1"/>
-    <col min="8" max="19" width="9.06640625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="11.8672566371681" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.4690265486726" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.070796460177" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.4690265486726" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.7345132743363" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.4690265486726" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.07079646017699" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4309,8 +4935,8 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4329,14 +4955,14 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="32.75" customHeight="1" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4349,14 +4975,14 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="47.75" customHeight="1" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4371,14 +4997,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="39" customHeight="1" spans="1:8">
+      <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4391,8 +5017,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="45" customHeight="1" spans="1:8">
+      <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4413,7 +5039,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" ht="45" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>179</v>
       </c>
@@ -4433,17 +5059,17 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="39" customHeight="1" spans="1:8">
+      <c r="A8" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>186</v>
       </c>
       <c r="E8" s="1"/>
@@ -4455,14 +5081,14 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="62.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="62.75" customHeight="1" spans="1:8">
+      <c r="A9" s="10" t="s">
         <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4475,7 +5101,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" ht="45" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>192</v>
       </c>
@@ -4495,17 +5121,17 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" ht="78" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>199</v>
       </c>
       <c r="E11" s="1"/>
@@ -4515,14 +5141,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" ht="58.5" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4537,17 +5163,17 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="39" customHeight="1" spans="1:8">
+      <c r="A13" s="10" t="s">
         <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>204</v>
       </c>
       <c r="E13" s="1"/>
@@ -4559,8 +5185,8 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="75" customHeight="1" spans="1:8">
+      <c r="A14" s="10" t="s">
         <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4579,14 +5205,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+    <row r="15" ht="47.75" customHeight="1" spans="1:8">
+      <c r="A15" s="12" t="s">
         <v>210</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -4599,8 +5225,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="30" customHeight="1" spans="1:8">
+      <c r="A16" s="10" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4619,17 +5245,17 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A17" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="10" t="s">
         <v>221</v>
       </c>
       <c r="E17" s="1"/>
@@ -4639,7 +5265,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" ht="60" customHeight="1" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>222</v>
       </c>
@@ -4659,8 +5285,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+    <row r="19" ht="60" customHeight="1" spans="1:8">
+      <c r="A19" s="10" t="s">
         <v>226</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4679,8 +5305,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="15" customHeight="1" spans="1:8">
+      <c r="A20" s="10" t="s">
         <v>230</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4701,14 +5327,14 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+    <row r="21" ht="32.75" customHeight="1" spans="1:8">
+      <c r="A21" s="12" t="s">
         <v>234</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4721,7 +5347,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" ht="60" customHeight="1" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>238</v>
       </c>
@@ -4741,14 +5367,14 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" ht="175.5" customHeight="1" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>244</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4761,7 +5387,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" ht="30" customHeight="1" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>246</v>
       </c>
@@ -4771,7 +5397,7 @@
       <c r="C24" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="10" t="s">
         <v>249</v>
       </c>
       <c r="E24" s="1"/>
@@ -4781,8 +5407,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+    <row r="25" ht="30" customHeight="1" spans="1:8">
+      <c r="A25" s="10" t="s">
         <v>250</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4791,7 +5417,7 @@
       <c r="C25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E25" s="1"/>
@@ -4803,14 +5429,14 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+    <row r="26" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A26" s="12" t="s">
         <v>254</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>256</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4823,17 +5449,17 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
+    <row r="27" ht="58.5" customHeight="1" spans="1:8">
+      <c r="A27" s="12" t="s">
         <v>258</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>261</v>
       </c>
       <c r="E27" s="1"/>
@@ -4843,17 +5469,17 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
+    <row r="28" ht="39" customHeight="1" spans="1:8">
+      <c r="A28" s="12" t="s">
         <v>262</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>265</v>
       </c>
       <c r="E28" s="1"/>
@@ -4863,8 +5489,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="29" ht="30" customHeight="1" spans="1:8">
+      <c r="A29" s="10" t="s">
         <v>266</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4885,7 +5511,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" ht="75" customHeight="1" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>271</v>
       </c>
@@ -4905,17 +5531,17 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="31" ht="32.75" customHeight="1" spans="1:8">
+      <c r="A31" s="10" t="s">
         <v>275</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="10" t="s">
         <v>278</v>
       </c>
       <c r="E31" s="1"/>
@@ -4925,8 +5551,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
+    <row r="32" ht="30" customHeight="1" spans="1:8">
+      <c r="A32" s="11" t="s">
         <v>279</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4935,7 +5561,7 @@
       <c r="C32" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="10" t="s">
         <v>282</v>
       </c>
       <c r="E32" s="1"/>
@@ -4947,14 +5573,14 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+    <row r="33" ht="45" customHeight="1" spans="1:8">
+      <c r="A33" s="11" t="s">
         <v>283</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="11" t="s">
         <v>285</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4969,8 +5595,8 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    <row r="34" ht="60" customHeight="1" spans="1:8">
+      <c r="A34" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4989,7 +5615,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" ht="45" customHeight="1" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>292</v>
       </c>
@@ -5009,7 +5635,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" ht="30" customHeight="1" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -5029,8 +5655,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
+    <row r="37" ht="30" customHeight="1" spans="1:8">
+      <c r="A37" s="11" t="s">
         <v>300</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -5049,7 +5675,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" ht="45" customHeight="1" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>304</v>
       </c>
@@ -5069,7 +5695,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" ht="30" customHeight="1" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>308</v>
       </c>
@@ -5091,8 +5717,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
+    <row r="40" ht="45" customHeight="1" spans="1:8">
+      <c r="A40" s="11" t="s">
         <v>313</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -5111,7 +5737,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" ht="30" customHeight="1" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>317</v>
       </c>
@@ -5133,7 +5759,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" ht="60" customHeight="1" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>320</v>
       </c>
@@ -5153,7 +5779,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" ht="45" customHeight="1" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>324</v>
       </c>
@@ -5174,29 +5800,30 @@
       <c r="H43" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.06640625" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.070796460177" customWidth="1"/>
+    <col min="2" max="2" width="16.070796460177" customWidth="1"/>
+    <col min="3" max="3" width="30.6017699115044" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5219,335 +5846,336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="75" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="75" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:7">
+      <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="75" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="90" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="60" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:7">
+      <c r="A15" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.46484375" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" customWidth="1"/>
-    <col min="4" max="4" width="41.46484375" customWidth="1"/>
+    <col min="1" max="1" width="23.4690265486726" customWidth="1"/>
+    <col min="2" max="2" width="14.7345132743363" customWidth="1"/>
+    <col min="3" max="3" width="30.2035398230088" customWidth="1"/>
+    <col min="4" max="4" width="41.4690265486726" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5570,1546 +6198,1547 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="105" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:7">
+      <c r="A15" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="14" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:7">
+      <c r="A19" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:7">
+      <c r="A21" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:7">
+      <c r="A23" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="14" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:7">
+      <c r="A26" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" ht="60" customHeight="1" spans="1:7">
+      <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:7">
+      <c r="A28" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="12" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" ht="45" customHeight="1" spans="1:7">
+      <c r="A29" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="13" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:7">
+      <c r="A31" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="14" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="14" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:7">
+      <c r="A33" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:7">
+      <c r="A34" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" ht="45" customHeight="1" spans="1:7">
+      <c r="A35" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" ht="120" customHeight="1" spans="1:7">
+      <c r="A36" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="14" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" ht="45" customHeight="1" spans="1:7">
+      <c r="A38" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="14" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" ht="45" customHeight="1" spans="1:7">
+      <c r="A39" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="12" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" ht="45" customHeight="1" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" ht="45" customHeight="1" spans="1:7">
+      <c r="A41" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:7">
+      <c r="A42" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" ht="45" customHeight="1" spans="1:7">
+      <c r="A43" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="12" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:7">
+      <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="14" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7">
+      <c r="A45" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="13" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" ht="45" customHeight="1" spans="1:7">
+      <c r="A46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="12" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:7">
+      <c r="A47" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="13" t="s">
+    <row r="48" ht="75" customHeight="1" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="13" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="90" customHeight="1" spans="1:7">
+      <c r="A50" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="13" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:7">
+      <c r="A51" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="12" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:7">
+      <c r="A52" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="13" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="13" t="s">
+    <row r="53" ht="60" customHeight="1" spans="1:7">
+      <c r="A53" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="180" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="13" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" ht="180" customHeight="1" spans="1:7">
+      <c r="A54" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="13" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:7">
+      <c r="A55" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" ht="75" customHeight="1" spans="1:7">
+      <c r="A56" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="13" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="12" t="s">
+    <row r="57" ht="30" customHeight="1" spans="1:7">
+      <c r="A57" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="12" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:7">
+      <c r="A58" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="13" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="14" t="s">
+    <row r="59" ht="45" customHeight="1" spans="1:7">
+      <c r="A59" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" ht="60" customHeight="1" spans="1:7">
+      <c r="A60" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="12" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" ht="45" customHeight="1" spans="1:7">
+      <c r="A61" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="14" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" ht="45" customHeight="1" spans="1:7">
+      <c r="A62" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="12" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:7">
+      <c r="A63" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="13" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:7">
+      <c r="A64" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="12" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:7">
+      <c r="A65" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="12" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:7">
+      <c r="A66" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="13" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="13" t="s">
+    <row r="67" ht="30" customHeight="1" spans="1:7">
+      <c r="A67" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="13" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="13" t="s">
+    <row r="68" ht="60" customHeight="1" spans="1:7">
+      <c r="A68" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="12" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:7">
+      <c r="A69" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="13" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="14" t="s">
+    <row r="70" ht="30" customHeight="1" spans="1:7">
+      <c r="A70" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="14" t="s">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" ht="60" customHeight="1" spans="1:7">
+      <c r="A71" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="13" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" ht="30" customHeight="1" spans="1:7">
+      <c r="A72" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="15" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" ht="45" customHeight="1" spans="1:7">
+      <c r="A73" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="12" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" ht="30" customHeight="1" spans="1:7">
+      <c r="A74" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="12" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" ht="45" customHeight="1" spans="1:7">
+      <c r="A75" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="12" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" ht="45" customHeight="1" spans="1:7">
+      <c r="A76" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="12" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" ht="45" customHeight="1" spans="1:7">
+      <c r="A77" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="14" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" ht="60" customHeight="1" spans="1:7">
+      <c r="A78" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="14" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" ht="60" customHeight="1" spans="1:7">
+      <c r="A79" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="13" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" ht="60" customHeight="1" spans="1:7">
+      <c r="A80" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="13"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="1" max="1" width="12.4690265486726" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="66.19921875" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.2035398230089" customWidth="1"/>
+    <col min="4" max="4" width="41.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7132,409 +7761,410 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="195" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="75" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="105" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="75" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="150" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:7">
+      <c r="A19" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="285" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="285" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="195" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="13"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.9296875" customWidth="1"/>
-    <col min="3" max="3" width="32.53125" customWidth="1"/>
-    <col min="4" max="4" width="48.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.2035398230088" customWidth="1"/>
+    <col min="2" max="2" width="17.929203539823" customWidth="1"/>
+    <col min="3" max="3" width="32.5309734513274" customWidth="1"/>
+    <col min="4" max="4" width="48.6017699115044" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7557,1173 +8187,1206 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="90" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="45" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="90" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="60" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="60" customHeight="1" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="75" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" ht="150" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="105" customHeight="1" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="75" customHeight="1" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" ht="120" customHeight="1" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" ht="45" customHeight="1" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" ht="180" customHeight="1" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" ht="45" customHeight="1" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" ht="60" customHeight="1" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" ht="45" customHeight="1" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" ht="60" customHeight="1" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="1:7">
+      <c r="A50" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" ht="15" customHeight="1" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" ht="45" customHeight="1" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:7">
+      <c r="A58" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:7">
+      <c r="A59" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" ht="75" customHeight="1" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" ht="45" customHeight="1" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:7">
+      <c r="A63" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C63" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" ht="90" customHeight="1" spans="1:7">
+      <c r="A64" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="B64" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>752</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="C64" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+      <c r="D64" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>766</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>768</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>769</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="1:7">
+      <c r="A65" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B65" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>775</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>796</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>800</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>804</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>809</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="150" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>811</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>813</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>816</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
-        <v>818</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>819</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>821</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
-        <v>822</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>831</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A30" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A31" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>843</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A32" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A35" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A36" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.4">
-      <c r="A37" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A40" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A43" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>892</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A46" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>897</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A47" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A48" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="C65" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>908</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A51" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A52" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A53" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A54" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>926</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>927</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A55" s="13" t="s">
-        <v>928</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>930</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>935</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A57" s="13" t="s">
-        <v>936</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>939</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A58" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>942</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.4">
-      <c r="A59" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>951</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="90" x14ac:dyDescent="0.4">
-      <c r="A61" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>954</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A62" s="13" t="s">
-        <v>956</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>957</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>958</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>956</v>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/project/xlsx/words.xlsx
+++ b/project/xlsx/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="3" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="4" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="day15" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="day16" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="day17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="day18" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'day12'!$A$1:$G$79</definedName>
@@ -663,8 +664,8 @@
     <col width="31.9296875" customWidth="1" min="4" max="4"/>
     <col width="23.33203125" customWidth="1" min="5" max="5"/>
     <col width="25.06640625" customWidth="1" min="6" max="6"/>
-    <col width="9.06640625" customWidth="1" style="1" min="7" max="18"/>
-    <col width="9.06640625" customWidth="1" style="1" min="19" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="1" min="7" max="19"/>
+    <col width="9.06640625" customWidth="1" style="1" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3898,8 +3899,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
@@ -3947,25 +3948,1723 @@
         </is>
       </c>
     </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="23" t="inlineStr">
+        <is>
+          <t>wage</t>
+        </is>
+      </c>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>[weɪdʒ]</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>n. 工资，报酬；（经济）工资总额；（喻）报应</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> His wages have gone up. </t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G2" s="26" t="n"/>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="23" t="inlineStr">
+        <is>
+          <t>infant</t>
+        </is>
+      </c>
+      <c r="B3" s="26" t="inlineStr">
+        <is>
+          <t>[ˈɪnfənt]</t>
+        </is>
+      </c>
+      <c r="C3" s="26" t="inlineStr">
+        <is>
+          <t>n. 婴儿，幼儿；（英国学校里四至七岁的）学童；&lt;法律&gt;未成年人</t>
+        </is>
+      </c>
+      <c r="D3" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...holding the infant in his arms. </t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="n"/>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G3" s="26" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="23" t="inlineStr">
+        <is>
+          <t>primarily</t>
+        </is>
+      </c>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>[praɪˈmerəli]</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="inlineStr">
+        <is>
+          <t>adv. 主要地，首要地，根本地</t>
+        </is>
+      </c>
+      <c r="D4" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a book aimed primarily at high-energy physicists. </t>
+        </is>
+      </c>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G4" s="26" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>undergo</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>[ˌʌndəˈɡəʊ]</t>
+        </is>
+      </c>
+      <c r="C5" s="26" t="inlineStr">
+        <is>
+          <t>v. 经历，经受</t>
+        </is>
+      </c>
+      <c r="D5" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New recruits have been undergoing training in recent weeks. </t>
+        </is>
+      </c>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G5" s="26" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="23" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="B6" s="26" t="inlineStr">
+        <is>
+          <t>[ˈæset]</t>
+        </is>
+      </c>
+      <c r="C6" s="26" t="inlineStr">
+        <is>
+          <t>n. 有利条件，有价值的人或物；资产，财产</t>
+        </is>
+      </c>
+      <c r="D6" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Our creativity in the field of technology is our greatest asset. </t>
+        </is>
+      </c>
+      <c r="E6" s="26" t="n"/>
+      <c r="F6" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="23" t="inlineStr">
+        <is>
+          <t>imitate</t>
+        </is>
+      </c>
+      <c r="B7" s="26" t="inlineStr">
+        <is>
+          <t>[ˈɪmɪteɪt]</t>
+        </is>
+      </c>
+      <c r="C7" s="26" t="inlineStr">
+        <is>
+          <t>v. 模仿，仿效；作滑稽模仿；仿造，伪造</t>
+        </is>
+      </c>
+      <c r="D7" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a genuine German musical that does not try to imitate the American model. </t>
+        </is>
+      </c>
+      <c r="E7" s="26" t="n"/>
+      <c r="F7" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G7" s="26" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="23" t="inlineStr">
+        <is>
+          <t>confuse</t>
+        </is>
+      </c>
+      <c r="B8" s="26" t="inlineStr">
+        <is>
+          <t>[kənˈfjuːz]</t>
+        </is>
+      </c>
+      <c r="C8" s="26" t="inlineStr">
+        <is>
+          <t>v. 使糊涂，使迷惑；混淆，弄错；使复杂化</t>
+        </is>
+      </c>
+      <c r="D8" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I always confuse my left with my right. </t>
+        </is>
+      </c>
+      <c r="E8" s="26" t="n"/>
+      <c r="F8" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G8" s="26" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="23" t="inlineStr">
+        <is>
+          <t>emerge</t>
+        </is>
+      </c>
+      <c r="B9" s="26" t="inlineStr">
+        <is>
+          <t>[ɪˈmɜːdʒ]</t>
+        </is>
+      </c>
+      <c r="C9" s="26" t="inlineStr">
+        <is>
+          <t>v. 浮现，出现；显露，知悉；恢复过来，幸存下来；形成，兴起</t>
+        </is>
+      </c>
+      <c r="D9" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Richard was waiting outside the door as she emerged. </t>
+        </is>
+      </c>
+      <c r="E9" s="26" t="n"/>
+      <c r="F9" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="23" t="inlineStr">
+        <is>
+          <t>neglect</t>
+        </is>
+      </c>
+      <c r="B10" s="26" t="inlineStr">
+        <is>
+          <t>[nɪˈɡlekt]</t>
+        </is>
+      </c>
+      <c r="C10" s="26" t="inlineStr">
+        <is>
+          <t>v. 疏于照顾，未予看管；不予重视，忽视；漏做</t>
+        </is>
+      </c>
+      <c r="D10" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The woman denied that she had neglected her child. </t>
+        </is>
+      </c>
+      <c r="E10" s="26" t="n"/>
+      <c r="F10" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G10" s="26" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="23" t="inlineStr">
+        <is>
+          <t>suspicion</t>
+        </is>
+      </c>
+      <c r="B11" s="26" t="inlineStr">
+        <is>
+          <t>[səˈspɪʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C11" s="26" t="inlineStr">
+        <is>
+          <t>n. 不好的预感，猜想；（对某人有罪、不诚实等的）怀疑；不信任，猜疑；少量，一点</t>
+        </is>
+      </c>
+      <c r="D11" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> There was a suspicion that this runner attempted to avoid the procedures for drug testing. </t>
+        </is>
+      </c>
+      <c r="E11" s="26" t="n"/>
+      <c r="F11" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G11" s="26" t="n"/>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="23" t="inlineStr">
+        <is>
+          <t>innocent</t>
+        </is>
+      </c>
+      <c r="B12" s="26" t="inlineStr">
+        <is>
+          <t>[ˈɪnəs(ə)nt]</t>
+        </is>
+      </c>
+      <c r="C12" s="26" t="inlineStr">
+        <is>
+          <t>adj. 天真的，幼稚的；清白的，无罪的；无辜受害的；没有恶意的，无冒犯之意的</t>
+        </is>
+      </c>
+      <c r="D12" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He was sure that the man was innocent of any crime. </t>
+        </is>
+      </c>
+      <c r="E12" s="26" t="n"/>
+      <c r="F12" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G12" s="26" t="n"/>
+    </row>
+    <row r="13" ht="75" customHeight="1">
+      <c r="A13" s="23" t="inlineStr">
+        <is>
+          <t>stem</t>
+        </is>
+      </c>
+      <c r="B13" s="26" t="inlineStr">
+        <is>
+          <t>[stem]</t>
+        </is>
+      </c>
+      <c r="C13" s="26" t="inlineStr">
+        <is>
+          <t>n. （植物、灌木的）茎，干；（高脚酒杯的）柄脚；（语法中的）词干；烟斗柄；主干；船头，艏柱；（机械装置的）阀杆，导杆，棒；&lt;古，文&gt;血统；&lt;美&gt;（手表的）发条转柄；（文字的）干线，（音符的）符干；&lt;美，非正式&gt;鸦片烟枪</t>
+        </is>
+      </c>
+      <c r="D13" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All my problems stem from drink. </t>
+        </is>
+      </c>
+      <c r="E13" s="26" t="n"/>
+      <c r="F13" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G13" s="26" t="n"/>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>tough</t>
+        </is>
+      </c>
+      <c r="B14" s="26" t="inlineStr">
+        <is>
+          <t>[tʌf]</t>
+        </is>
+      </c>
+      <c r="C14" s="26" t="inlineStr">
+        <is>
+          <t>adj. （物质，物体）坚韧的，坚固的；（政策或行动）强硬的，严厉的；吃苦耐劳的，坚韧不拔的；顽固的，固执的；困难的，棘手的；艰难的，困苦的，难熬的；（食物）老的，不易切开的，嚼不动的；（人）粗暴的，粗鲁的；（地区）充满暴力与犯罪的；不幸的，倒霉的，活该（表示不同情）</t>
+        </is>
+      </c>
+      <c r="D14" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He built up a reputation as a tough businessman. </t>
+        </is>
+      </c>
+      <c r="E14" s="26" t="n"/>
+      <c r="F14" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G14" s="26" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="23" t="inlineStr">
+        <is>
+          <t>rust</t>
+        </is>
+      </c>
+      <c r="B15" s="26" t="inlineStr">
+        <is>
+          <t>[rʌst]</t>
+        </is>
+      </c>
+      <c r="C15" s="26" t="inlineStr">
+        <is>
+          <t>n. 锈，铁锈；（植物的）锈病，锈菌；铁锈色，赭色</t>
+        </is>
+      </c>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a decaying tractor, red with rust. </t>
+        </is>
+      </c>
+      <c r="E15" s="26" t="n"/>
+      <c r="F15" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G15" s="26" t="n"/>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="23" t="inlineStr">
+        <is>
+          <t>toughtful</t>
+        </is>
+      </c>
+      <c r="B16" s="26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C16" s="26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" s="26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" s="26" t="n"/>
+      <c r="F16" s="26" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="G16" s="26" t="inlineStr">
+        <is>
+          <t>toughtful</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="23" t="inlineStr">
+        <is>
+          <t>adequate</t>
+        </is>
+      </c>
+      <c r="B17" s="26" t="inlineStr">
+        <is>
+          <t>[ˈædɪkwət]</t>
+        </is>
+      </c>
+      <c r="C17" s="26" t="inlineStr">
+        <is>
+          <t>adj. 足够的，适当的，合乎需要的；（品质）足够好的，令人满意的；（质量）达到要求的，勉强过关的</t>
+        </is>
+      </c>
+      <c r="D17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One in four people worldwide are without adequate homes. </t>
+        </is>
+      </c>
+      <c r="E17" s="26" t="n"/>
+      <c r="F17" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G17" s="26" t="n"/>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="23" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="B18" s="26" t="inlineStr">
+        <is>
+          <t>[ˌelɪˈmentri]</t>
+        </is>
+      </c>
+      <c r="C18" s="26" t="inlineStr">
+        <is>
+          <t>adj. 简单的，基本的；基础的，初级的；小学的；单一元素的，非化合物的</t>
+        </is>
+      </c>
+      <c r="D18" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Literacy now includes elementary computer skills. </t>
+        </is>
+      </c>
+      <c r="E18" s="26" t="n"/>
+      <c r="F18" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="23" t="inlineStr">
+        <is>
+          <t>numerous</t>
+        </is>
+      </c>
+      <c r="B19" s="26" t="inlineStr">
+        <is>
+          <t>[ˈnjuːmərəs]</t>
+        </is>
+      </c>
+      <c r="C19" s="26" t="inlineStr">
+        <is>
+          <t>adj. 众多的，许多的</t>
+        </is>
+      </c>
+      <c r="D19" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sex crimes were just as numerous as they are today. </t>
+        </is>
+      </c>
+      <c r="E19" s="26" t="n"/>
+      <c r="F19" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G19" s="26" t="n"/>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="23" t="inlineStr">
+        <is>
+          <t>drift</t>
+        </is>
+      </c>
+      <c r="B20" s="26" t="inlineStr">
+        <is>
+          <t>[drɪft]</t>
+        </is>
+      </c>
+      <c r="C20" s="26" t="inlineStr">
+        <is>
+          <t>v. 飘移，漂流；任其自然地（或不知不觉地）进入（某种状态）；流浪，漂泊；缓慢移动；传出；吹积</t>
+        </is>
+      </c>
+      <c r="D20" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We proceeded to drift on up the river. </t>
+        </is>
+      </c>
+      <c r="E20" s="26" t="n"/>
+      <c r="F20" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G20" s="26" t="n"/>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="23" t="inlineStr">
+        <is>
+          <t>sensible</t>
+        </is>
+      </c>
+      <c r="B21" s="26" t="inlineStr">
+        <is>
+          <t>[ˈsensəb(ə)l]</t>
+        </is>
+      </c>
+      <c r="C21" s="26" t="inlineStr">
+        <is>
+          <t>adj. 理智的，合理的； 朴素而实用的；&lt;正式&gt;可感觉到的，明显的</t>
+        </is>
+      </c>
+      <c r="D21" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It might be sensible to get a lawyer. </t>
+        </is>
+      </c>
+      <c r="E21" s="26" t="n"/>
+      <c r="F21" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G21" s="26" t="n"/>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="23" t="inlineStr">
+        <is>
+          <t>loan</t>
+        </is>
+      </c>
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>[ləʊn]</t>
+        </is>
+      </c>
+      <c r="C22" s="26" t="inlineStr">
+        <is>
+          <t>n. 贷款，借款；借用，借出；&lt;苏格兰&gt;（尤指通向开阔地的）小径；（未开垦的开阔的）挤奶牧场</t>
+        </is>
+      </c>
+      <c r="D22" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The country has no access to foreign loans or financial aid. </t>
+        </is>
+      </c>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="23" t="inlineStr">
+        <is>
+          <t>genuine</t>
+        </is>
+      </c>
+      <c r="B23" s="26" t="inlineStr">
+        <is>
+          <t>[ˈdʒenjuɪn]</t>
+        </is>
+      </c>
+      <c r="C23" s="26" t="inlineStr">
+        <is>
+          <t>adj. 真正的，非伪造的；真诚的，真心的</t>
+        </is>
+      </c>
+      <c r="D23" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> There was a risk of genuine refugees being returned to Vietnam. </t>
+        </is>
+      </c>
+      <c r="E23" s="26" t="n"/>
+      <c r="F23" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G23" s="26" t="n"/>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="23" t="inlineStr">
+        <is>
+          <t>diploma</t>
+        </is>
+      </c>
+      <c r="B24" s="26" t="inlineStr">
+        <is>
+          <t>[dɪˈpləʊmə]</t>
+        </is>
+      </c>
+      <c r="C24" s="26" t="inlineStr">
+        <is>
+          <t>n. 毕业文凭，学位证书；文凭课程，职业课程；公文，文书</t>
+        </is>
+      </c>
+      <c r="D24" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a new two-year course leading to a diploma in social work. </t>
+        </is>
+      </c>
+      <c r="E24" s="26" t="n"/>
+      <c r="F24" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G24" s="26" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="23" t="inlineStr">
+        <is>
+          <t>costume</t>
+        </is>
+      </c>
+      <c r="B25" s="26" t="inlineStr">
+        <is>
+          <t>[ˈkɒstjuːm]</t>
+        </is>
+      </c>
+      <c r="C25" s="26" t="inlineStr">
+        <is>
+          <t>n. 服装，装束；戏服，表演服装；泳衣，泳装</t>
+        </is>
+      </c>
+      <c r="D25" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Even from a distance, the effect of his fox costume was stunning. </t>
+        </is>
+      </c>
+      <c r="E25" s="26" t="n"/>
+      <c r="F25" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G25" s="26" t="n"/>
+    </row>
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" s="23" t="inlineStr">
+        <is>
+          <t>veil</t>
+        </is>
+      </c>
+      <c r="B26" s="26" t="inlineStr">
+        <is>
+          <t>[veɪl]</t>
+        </is>
+      </c>
+      <c r="C26" s="26" t="inlineStr">
+        <is>
+          <t>n. 面纱，面罩；（修女的）头巾；遮盖物，掩饰，借口；避而不谈（难堪或不愉快的）某事；（古犹太教）圣布；（植）菌幕；（穆斯林国家妇女）带面纱的习俗</t>
+        </is>
+      </c>
+      <c r="D26" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> She's got long fair hair but she's got a veil over it. </t>
+        </is>
+      </c>
+      <c r="E26" s="26" t="n"/>
+      <c r="F26" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G26" s="26" t="n"/>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="23" t="inlineStr">
+        <is>
+          <t>commemorate</t>
+        </is>
+      </c>
+      <c r="B27" s="26" t="inlineStr">
+        <is>
+          <t>[kəˈmeməreɪt]</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="inlineStr">
+        <is>
+          <t>v. 纪念，用以纪念</t>
+        </is>
+      </c>
+      <c r="D27" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One room contained a gallery of paintings commemorating great moments in baseball history. </t>
+        </is>
+      </c>
+      <c r="E27" s="26" t="n"/>
+      <c r="F27" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G27" s="26" t="n"/>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="23" t="inlineStr">
+        <is>
+          <t>petty</t>
+        </is>
+      </c>
+      <c r="B28" s="26" t="inlineStr">
+        <is>
+          <t>[ˈpeti]</t>
+        </is>
+      </c>
+      <c r="C28" s="26" t="inlineStr">
+        <is>
+          <t>adj. 不重要的，琐碎的，小的；小气的，小心眼的；次要的，职位低的；（罪行）轻微的</t>
+        </is>
+      </c>
+      <c r="D28" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He was miserable all the time and fights would start over petty things. </t>
+        </is>
+      </c>
+      <c r="E28" s="26" t="n"/>
+      <c r="F28" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G28" s="26" t="n"/>
+    </row>
+    <row r="29" ht="45" customHeight="1">
+      <c r="A29" s="23" t="inlineStr">
+        <is>
+          <t>affirm</t>
+        </is>
+      </c>
+      <c r="B29" s="26" t="inlineStr">
+        <is>
+          <t>[əˈfɜːm]</t>
+        </is>
+      </c>
+      <c r="C29" s="26" t="inlineStr">
+        <is>
+          <t>v. 断言，证实； 宣称拥护，支持；认可（判决，协议），批准；不宣誓而提供正式证词；给予（某人）情感支持（或鼓励）</t>
+        </is>
+      </c>
+      <c r="D29" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The court affirmed that the information can be made public under the Freedom of Information Act. </t>
+        </is>
+      </c>
+      <c r="E29" s="26" t="n"/>
+      <c r="F29" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G29" s="26" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="23" t="inlineStr">
+        <is>
+          <t>grieve</t>
+        </is>
+      </c>
+      <c r="B30" s="26" t="inlineStr">
+        <is>
+          <t>[ɡriːv]</t>
+        </is>
+      </c>
+      <c r="C30" s="26" t="inlineStr">
+        <is>
+          <t>v. （尤指因某人亡故而）感到悲痛；使伤心</t>
+        </is>
+      </c>
+      <c r="D30" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He's grieving over his dead wife and son. </t>
+        </is>
+      </c>
+      <c r="E30" s="26" t="n"/>
+      <c r="F30" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G30" s="26" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="23" t="inlineStr">
+        <is>
+          <t>correlate</t>
+        </is>
+      </c>
+      <c r="B31" s="26" t="inlineStr">
+        <is>
+          <t>[ˈkɒrəleɪt; ˈkɒrələt]</t>
+        </is>
+      </c>
+      <c r="C31" s="26" t="inlineStr">
+        <is>
+          <t>v. 相互关联；显示紧密联系</t>
+        </is>
+      </c>
+      <c r="D31" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Obesity correlates with increased risk for hypertension and stroke. </t>
+        </is>
+      </c>
+      <c r="E31" s="26" t="n"/>
+      <c r="F31" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="23" t="inlineStr">
+        <is>
+          <t>abolish</t>
+        </is>
+      </c>
+      <c r="B32" s="26" t="inlineStr">
+        <is>
+          <t>[əˈbɒlɪʃ]</t>
+        </is>
+      </c>
+      <c r="C32" s="26" t="inlineStr">
+        <is>
+          <t>v. 废除，废止，取消</t>
+        </is>
+      </c>
+      <c r="D32" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An Illinois House committee voted Thursday to abolish the death penalty. </t>
+        </is>
+      </c>
+      <c r="E32" s="26" t="n"/>
+      <c r="F32" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G32" s="26" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="23" t="inlineStr">
+        <is>
+          <t>abundant</t>
+        </is>
+      </c>
+      <c r="B33" s="26" t="inlineStr">
+        <is>
+          <t>[əˈbʌndənt]</t>
+        </is>
+      </c>
+      <c r="C33" s="26" t="inlineStr">
+        <is>
+          <t>adj. 大量的，丰富的，充足的</t>
+        </is>
+      </c>
+      <c r="D33" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> There is an abundant supply of cheap labour. </t>
+        </is>
+      </c>
+      <c r="E33" s="26" t="n"/>
+      <c r="F33" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G33" s="26" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="23" t="inlineStr">
+        <is>
+          <t>accelerate</t>
+        </is>
+      </c>
+      <c r="B34" s="26" t="inlineStr">
+        <is>
+          <t>[əkˈseləreɪt]</t>
+        </is>
+      </c>
+      <c r="C34" s="26" t="inlineStr">
+        <is>
+          <t>v. （使）加快，促进；（车辆或驾驶者）加速</t>
+        </is>
+      </c>
+      <c r="D34" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Growth will accelerate to 2.9 percent next year. </t>
+        </is>
+      </c>
+      <c r="E34" s="26" t="n"/>
+      <c r="F34" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G34" s="26" t="n"/>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="23" t="inlineStr">
+        <is>
+          <t>acquaint</t>
+        </is>
+      </c>
+      <c r="B35" s="26" t="inlineStr">
+        <is>
+          <t>[əˈkweɪnt]</t>
+        </is>
+      </c>
+      <c r="C35" s="26" t="inlineStr">
+        <is>
+          <t>v. 使熟悉，使了解</t>
+        </is>
+      </c>
+      <c r="D35" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have steps been taken to acquaint breeders with their right to apply for licenses? </t>
+        </is>
+      </c>
+      <c r="E35" s="26" t="n"/>
+      <c r="F35" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G35" s="26" t="n"/>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="23" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B36" s="26" t="inlineStr">
+        <is>
+          <t>[ˈædvɜːs]</t>
+        </is>
+      </c>
+      <c r="C36" s="26" t="inlineStr">
+        <is>
+          <t>adj. 不利的，有害的；相反的；敌对的</t>
+        </is>
+      </c>
+      <c r="D36" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The police said Mr. Hadfield's decision would have no adverse effect on the progress of the investigation. </t>
+        </is>
+      </c>
+      <c r="E36" s="26" t="n"/>
+      <c r="F36" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G36" s="26" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="23" t="inlineStr">
+        <is>
+          <t>admiration</t>
+        </is>
+      </c>
+      <c r="B37" s="26" t="inlineStr">
+        <is>
+          <t>[ˌædməˈreɪʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C37" s="26" t="inlineStr">
+        <is>
+          <t>n. 钦佩，赞美，欣赏；赞美对象</t>
+        </is>
+      </c>
+      <c r="D37" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I have always had the greatest admiration for him. </t>
+        </is>
+      </c>
+      <c r="E37" s="26" t="n"/>
+      <c r="F37" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G37" s="26" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="23" t="inlineStr">
+        <is>
+          <t>affluence</t>
+        </is>
+      </c>
+      <c r="B38" s="26" t="inlineStr">
+        <is>
+          <t>[ˈæfluəns]</t>
+        </is>
+      </c>
+      <c r="C38" s="26" t="inlineStr">
+        <is>
+          <t>n. 富裕，富足；流入，汇聚</t>
+        </is>
+      </c>
+      <c r="D38" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The postwar era was one of new affluence for the working class. </t>
+        </is>
+      </c>
+      <c r="E38" s="26" t="n"/>
+      <c r="F38" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G38" s="26" t="n"/>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="23" t="inlineStr">
+        <is>
+          <t>affluent</t>
+        </is>
+      </c>
+      <c r="B39" s="26" t="inlineStr">
+        <is>
+          <t>[ˈæfluənt]</t>
+        </is>
+      </c>
+      <c r="C39" s="26" t="inlineStr">
+        <is>
+          <t>adj. 富裕的，富足的；&lt;古&gt;（水）畅流，滔滔流动；丰富的</t>
+        </is>
+      </c>
+      <c r="D39" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cigarette smoking used to be more common among affluent people. </t>
+        </is>
+      </c>
+      <c r="E39" s="26" t="n"/>
+      <c r="F39" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G39" s="26" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="23" t="inlineStr">
+        <is>
+          <t>allegiance</t>
+        </is>
+      </c>
+      <c r="B40" s="26" t="inlineStr">
+        <is>
+          <t>[əˈliːdʒəns]</t>
+        </is>
+      </c>
+      <c r="C40" s="26" t="inlineStr">
+        <is>
+          <t>n. （对政党、宗教、统治者的）忠诚，效忠，拥戴</t>
+        </is>
+      </c>
+      <c r="D40" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My allegiance to Kendall and his company ran deep. </t>
+        </is>
+      </c>
+      <c r="E40" s="26" t="n"/>
+      <c r="F40" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G40" s="26" t="n"/>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="23" t="inlineStr">
+        <is>
+          <t>alliance</t>
+        </is>
+      </c>
+      <c r="B41" s="26" t="inlineStr">
+        <is>
+          <t>[əˈlaɪəns]</t>
+        </is>
+      </c>
+      <c r="C41" s="26" t="inlineStr">
+        <is>
+          <t>n. 联盟，结盟；结盟团体，结盟国家；（人们间的）亲密关系，（尤指）联姻</t>
+        </is>
+      </c>
+      <c r="D41" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The two parties were still too much apart to form an alliance. </t>
+        </is>
+      </c>
+      <c r="E41" s="26" t="n"/>
+      <c r="F41" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G41" s="26" t="n"/>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="23" t="inlineStr">
+        <is>
+          <t>amid</t>
+        </is>
+      </c>
+      <c r="B42" s="26" t="inlineStr">
+        <is>
+          <t>[əˈmɪd]</t>
+        </is>
+      </c>
+      <c r="C42" s="26" t="inlineStr">
+        <is>
+          <t>prep. 在……过程中，在……中；四周是，被……所环绕</t>
+        </is>
+      </c>
+      <c r="D42" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Workers are sifting through the wreckage of the airliners amid growing evidence that the disasters were the work of terrorists. </t>
+        </is>
+      </c>
+      <c r="E42" s="26" t="n"/>
+      <c r="F42" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G42" s="26" t="n"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="23" t="inlineStr">
+        <is>
+          <t>antenna</t>
+        </is>
+      </c>
+      <c r="B43" s="26" t="inlineStr">
+        <is>
+          <t>[ænˈtenə]</t>
+        </is>
+      </c>
+      <c r="C43" s="26" t="inlineStr">
+        <is>
+          <t>n. 触须，触角；&lt;美&gt;天线；感觉，直觉</t>
+        </is>
+      </c>
+      <c r="D43" s="26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" s="26" t="n"/>
+      <c r="F43" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G43" s="26" t="inlineStr">
+        <is>
+          <t>antenna</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="23" t="inlineStr">
+        <is>
+          <t>anthropology</t>
+        </is>
+      </c>
+      <c r="B44" s="26" t="inlineStr">
+        <is>
+          <t>[ˌænθrəˈpɒlədʒi]</t>
+        </is>
+      </c>
+      <c r="C44" s="26" t="inlineStr">
+        <is>
+          <t>n.  人类学</t>
+        </is>
+      </c>
+      <c r="D44" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...an anthropologist who had been in China for three years. </t>
+        </is>
+      </c>
+      <c r="E44" s="26" t="n"/>
+      <c r="F44" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G44" s="26" t="n"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="23" t="inlineStr">
+        <is>
+          <t>antibiotic</t>
+        </is>
+      </c>
+      <c r="B45" s="26" t="inlineStr">
+        <is>
+          <t>[ˌæntibaɪˈɒtɪk]</t>
+        </is>
+      </c>
+      <c r="C45" s="26" t="inlineStr">
+        <is>
+          <t>n. 抗生素，抗菌素</t>
+        </is>
+      </c>
+      <c r="D45" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your doctor may prescribe antibiotics. </t>
+        </is>
+      </c>
+      <c r="E45" s="26" t="n"/>
+      <c r="F45" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G45" s="26" t="n"/>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="23" t="inlineStr">
+        <is>
+          <t>antique</t>
+        </is>
+      </c>
+      <c r="B46" s="26" t="inlineStr">
+        <is>
+          <t>[ænˈtiːk]</t>
+        </is>
+      </c>
+      <c r="C46" s="26" t="inlineStr">
+        <is>
+          <t>adj. 古老的，古董的；老式的，过时的；（木器表面罩漆工艺）仿古的，古式的；年久的，破旧的</t>
+        </is>
+      </c>
+      <c r="D46" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a genuine antique. </t>
+        </is>
+      </c>
+      <c r="E46" s="26" t="n"/>
+      <c r="F46" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G46" s="26" t="n"/>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="23" t="inlineStr">
+        <is>
+          <t>apt</t>
+        </is>
+      </c>
+      <c r="B47" s="26" t="inlineStr">
+        <is>
+          <t>[æpt]</t>
+        </is>
+      </c>
+      <c r="C47" s="26" t="inlineStr">
+        <is>
+          <t>adj. 易于……的，有……倾向的；恰当的，适宜的；善学的，聪明的</t>
+        </is>
+      </c>
+      <c r="D47" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The words of this report are as apt today as in 1929. </t>
+        </is>
+      </c>
+      <c r="E47" s="26" t="n"/>
+      <c r="F47" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G47" s="26" t="n"/>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="23" t="inlineStr">
+        <is>
+          <t>arrogance</t>
+        </is>
+      </c>
+      <c r="B48" s="26" t="inlineStr">
+        <is>
+          <t>[ˈærəɡəns]</t>
+        </is>
+      </c>
+      <c r="C48" s="26" t="inlineStr">
+        <is>
+          <t>n. 傲慢，自大</t>
+        </is>
+      </c>
+      <c r="D48" s="26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" s="26" t="n"/>
+      <c r="F48" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G48" s="26" t="inlineStr">
+        <is>
+          <t>arrogance</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="23" t="inlineStr">
+        <is>
+          <t>artery</t>
+        </is>
+      </c>
+      <c r="B49" s="26" t="inlineStr">
+        <is>
+          <t>[ˈɑːtəri]</t>
+        </is>
+      </c>
+      <c r="C49" s="26" t="inlineStr">
+        <is>
+          <t>n. 动脉；干线，干道，干流</t>
+        </is>
+      </c>
+      <c r="D49" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...patients suffering from blocked arteries. </t>
+        </is>
+      </c>
+      <c r="E49" s="26" t="n"/>
+      <c r="F49" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G49" s="26" t="n"/>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="23" t="inlineStr">
+        <is>
+          <t>articulate</t>
+        </is>
+      </c>
+      <c r="B50" s="26" t="inlineStr">
+        <is>
+          <t>[ɑːˈtɪkjuleɪt]</t>
+        </is>
+      </c>
+      <c r="C50" s="26" t="inlineStr">
+        <is>
+          <t>v. 明确表达，清楚说明；口齿清楚地说，清晰地发音；用关节连接，连结</t>
+        </is>
+      </c>
+      <c r="D50" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> She is an articulate young woman. </t>
+        </is>
+      </c>
+      <c r="E50" s="26" t="n"/>
+      <c r="F50" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G50" s="26" t="n"/>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="23" t="inlineStr">
+        <is>
+          <t>baffle</t>
+        </is>
+      </c>
+      <c r="B51" s="26" t="inlineStr">
+        <is>
+          <t>[ˈbæf(ə)l]</t>
+        </is>
+      </c>
+      <c r="C51" s="26" t="inlineStr">
+        <is>
+          <t>v. 使困惑，难住；抑制，控制</t>
+        </is>
+      </c>
+      <c r="D51" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An apple tree producing square fruit is baffling experts. </t>
+        </is>
+      </c>
+      <c r="E51" s="26" t="n"/>
+      <c r="F51" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G51" s="26" t="n"/>
+    </row>
+    <row r="52" ht="45" customHeight="1">
+      <c r="A52" s="23" t="inlineStr">
+        <is>
+          <t>bleak</t>
+        </is>
+      </c>
+      <c r="B52" s="26" t="inlineStr">
+        <is>
+          <t>[bliːk]</t>
+        </is>
+      </c>
+      <c r="C52" s="26" t="inlineStr">
+        <is>
+          <t>adj. 不乐观的，无望的；无遮掩的，荒凉的；阴冷的，寒冷的；沮丧的，阴郁的；（人或其表情）冷漠的，冷峻的</t>
+        </is>
+      </c>
+      <c r="D52" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The immediate outlook remains bleak. </t>
+        </is>
+      </c>
+      <c r="E52" s="26" t="n"/>
+      <c r="F52" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G52" s="26" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="23" t="inlineStr">
+        <is>
+          <t>blockage</t>
+        </is>
+      </c>
+      <c r="B53" s="26" t="inlineStr">
+        <is>
+          <t>[ˈblɒkɪdʒ]</t>
+        </is>
+      </c>
+      <c r="C53" s="26" t="inlineStr">
+        <is>
+          <t>n. 造成阻塞的东西，阻塞物；堵塞，阻塞</t>
+        </is>
+      </c>
+      <c r="D53" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The logical treatment is to remove this blockage. </t>
+        </is>
+      </c>
+      <c r="E53" s="26" t="n"/>
+      <c r="F53" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G53" s="26" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="23" t="inlineStr">
+        <is>
+          <t>capitalism</t>
+        </is>
+      </c>
+      <c r="B54" s="26" t="inlineStr">
+        <is>
+          <t>[ˈkæpɪtəlɪzəm]</t>
+        </is>
+      </c>
+      <c r="C54" s="26" t="inlineStr">
+        <is>
+          <t>n. 资本主义</t>
+        </is>
+      </c>
+      <c r="D54" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...the two fundamentally opposed social systems, capitalism and socialism. </t>
+        </is>
+      </c>
+      <c r="E54" s="26" t="n"/>
+      <c r="F54" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G54" s="26" t="n"/>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="23" t="inlineStr">
+        <is>
+          <t>chancellor</t>
+        </is>
+      </c>
+      <c r="B55" s="26" t="inlineStr">
+        <is>
+          <t>[ˈtʃɑːnsələ(r)]</t>
+        </is>
+      </c>
+      <c r="C55" s="26" t="inlineStr">
+        <is>
+          <t>n. （英国）财政大臣；（德国或奥地利）总理；（英国大学）名誉校长，（美国大学）校长；法官</t>
+        </is>
+      </c>
+      <c r="D55" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...Chancellor Gerhard Schröder of Germany. </t>
+        </is>
+      </c>
+      <c r="E55" s="26" t="n"/>
+      <c r="F55" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G55" s="26" t="n"/>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="23" t="inlineStr">
+        <is>
+          <t>chiefly</t>
+        </is>
+      </c>
+      <c r="B56" s="26" t="inlineStr">
+        <is>
+          <t>[ˈtʃiːfli]</t>
+        </is>
+      </c>
+      <c r="C56" s="26" t="inlineStr">
+        <is>
+          <t>adv. 主要地；首先</t>
+        </is>
+      </c>
+      <c r="D56" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He joined the consular service in China, chiefly because this was one of the few job vacancies. </t>
+        </is>
+      </c>
+      <c r="E56" s="26" t="n"/>
+      <c r="F56" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G56" s="26" t="n"/>
+    </row>
+    <row r="57" ht="45" customHeight="1">
+      <c r="A57" s="23" t="inlineStr">
+        <is>
+          <t>circus</t>
+        </is>
+      </c>
+      <c r="B57" s="26" t="inlineStr">
+        <is>
+          <t>[ˈsɜːkəs]</t>
+        </is>
+      </c>
+      <c r="C57" s="26" t="inlineStr">
+        <is>
+          <t>n. 马戏团，马戏演员；马戏表演；乱哄哄的人群，热闹的场面；圆形广场，环形交叉口；（古罗马）露天圆形竞技场</t>
+        </is>
+      </c>
+      <c r="D57" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My real ambition was to work in a circus. </t>
+        </is>
+      </c>
+      <c r="E57" s="26" t="n"/>
+      <c r="F57" s="26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G57" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9"/>
+  <cols>
+    <col width="20.6640625" customWidth="1" min="1" max="1"/>
+    <col width="17.19921875" customWidth="1" min="2" max="2"/>
+    <col width="42.73046875" customWidth="1" min="3" max="3"/>
+    <col width="66.33203125" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>音标</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>中文释义</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>例句</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>生词度</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>处理状态</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>错误历史</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="23" t="inlineStr">
         <is>
-          <t>wage</t>
+          <t>analog</t>
         </is>
       </c>
       <c r="B2" s="28" t="inlineStr">
         <is>
-          <t>[weɪdʒ]</t>
+          <t>[ˈænəlɒɡ]</t>
         </is>
       </c>
       <c r="C2" s="28" t="inlineStr">
         <is>
-          <t>n. 工资，报酬；（经济）工资总额；（喻）报应</t>
+          <t>adj. [自] 模拟的；有长短针的</t>
         </is>
       </c>
       <c r="D2" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> His wages have gone up. </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" s="28" t="n"/>
@@ -3974,27 +5673,31 @@
           <t>已处理</t>
         </is>
       </c>
-      <c r="G2" s="28" t="n"/>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>analog</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
         <is>
-          <t>infant</t>
+          <t>analogy</t>
         </is>
       </c>
       <c r="B3" s="28" t="inlineStr">
         <is>
-          <t>[ˈɪnfənt]</t>
+          <t>[əˈnælədʒi]</t>
         </is>
       </c>
       <c r="C3" s="28" t="inlineStr">
         <is>
-          <t>n. 婴儿，幼儿；（英国学校里四至七岁的）学童；&lt;法律&gt;未成年人</t>
+          <t>n. 类比，比拟；用类比方法，进行比照；同功</t>
         </is>
       </c>
       <c r="D3" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...holding the infant in his arms. </t>
+          <t xml:space="preserve"> The analogy between music and fragrance has stuck. </t>
         </is>
       </c>
       <c r="E3" s="28" t="n"/>
@@ -4008,22 +5711,22 @@
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
         <is>
-          <t>primarily</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B4" s="28" t="inlineStr">
         <is>
-          <t>[praɪˈmerəli]</t>
+          <t>[ˈtenənt]</t>
         </is>
       </c>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>adv. 主要地，首要地，根本地</t>
+          <t>n. 房客，租户；&lt;法律&gt;业主</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...a book aimed primarily at high-energy physicists. </t>
+          <t xml:space="preserve"> Regulations placed clear obligations on the landlord for the benefit of the tenant. </t>
         </is>
       </c>
       <c r="E4" s="28" t="n"/>
@@ -4037,22 +5740,22 @@
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
         <is>
-          <t>undergo</t>
+          <t>shaft</t>
         </is>
       </c>
       <c r="B5" s="28" t="inlineStr">
         <is>
-          <t>[ˌʌndəˈɡəʊ]</t>
+          <t>[ʃɑːft]</t>
         </is>
       </c>
       <c r="C5" s="28" t="inlineStr">
         <is>
-          <t>v. 经历，经受</t>
+          <t>n. 竖井，通风井；（工具或武器的）杆，柄；（机器的）轴；（马车的）辕；箭，矛；柱（尤指柱头和柱基间的主要部分）；（光、闪电等的）一道，一束；机智的话，（尤指）攻击性的话；侮辱，责难（the shaft）；（品质或情感的）突然闪现；&lt;俚&gt;阴茎</t>
         </is>
       </c>
       <c r="D5" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New recruits have been undergoing training in recent weeks. </t>
+          <t xml:space="preserve"> The fire began in a lift shaft and spread to the roof. </t>
         </is>
       </c>
       <c r="E5" s="28" t="n"/>
@@ -4066,22 +5769,22 @@
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
         <is>
-          <t>asset</t>
+          <t>aspiration</t>
         </is>
       </c>
       <c r="B6" s="28" t="inlineStr">
         <is>
-          <t>[ˈæset]</t>
+          <t>[ˌæspəˈreɪʃ(ə)n]</t>
         </is>
       </c>
       <c r="C6" s="28" t="inlineStr">
         <is>
-          <t>n. 有利条件，有价值的人或物；资产，财产</t>
+          <t>n. 渴望，抱负，志向；送气音；吸引术，抽吸</t>
         </is>
       </c>
       <c r="D6" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our creativity in the field of technology is our greatest asset. </t>
+          <t xml:space="preserve"> ...the needs and aspirations of our pupils. </t>
         </is>
       </c>
       <c r="E6" s="28" t="n"/>
@@ -4095,22 +5798,22 @@
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
         <is>
-          <t>imitate</t>
+          <t>barren</t>
         </is>
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>[ˈɪmɪteɪt]</t>
+          <t>[ˈbærən]</t>
         </is>
       </c>
       <c r="C7" s="28" t="inlineStr">
         <is>
-          <t>v. 模仿，仿效；作滑稽模仿；仿造，伪造</t>
+          <t>adj. 贫瘠的，不毛的；不结果实的；&lt;旧&gt;不育的；不出成绩的，无效果的；沉闷无趣的，没有吸引力的</t>
         </is>
       </c>
       <c r="D7" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...a genuine German musical that does not try to imitate the American model. </t>
+          <t xml:space="preserve"> ...the Tibetan landscape of high barren mountains. </t>
         </is>
       </c>
       <c r="E7" s="28" t="n"/>
@@ -4124,22 +5827,22 @@
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
         <is>
-          <t>confuse</t>
+          <t>indicative</t>
         </is>
       </c>
       <c r="B8" s="28" t="inlineStr">
         <is>
-          <t>[kənˈfjuːz]</t>
+          <t>[ɪnˈdɪkətɪv]</t>
         </is>
       </c>
       <c r="C8" s="28" t="inlineStr">
         <is>
-          <t>v. 使糊涂，使迷惑；混淆，弄错；使复杂化</t>
+          <t>adj. 指示的，表明的，象征的；陈述（语气）的</t>
         </is>
       </c>
       <c r="D8" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I always confuse my left with my right. </t>
+          <t xml:space="preserve"> His action is indicative of growing concern about the shortage of skilled labour. </t>
         </is>
       </c>
       <c r="E8" s="28" t="n"/>
@@ -4153,22 +5856,22 @@
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
         <is>
-          <t>emerge</t>
+          <t>precedent</t>
         </is>
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>[ɪˈmɜːdʒ]</t>
+          <t>[ˈpresɪdənt]</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>v. 浮现，出现；显露，知悉；恢复过来，幸存下来；形成，兴起</t>
+          <t>n. 先例，前例；判例，实例；常规，惯例</t>
         </is>
       </c>
       <c r="D9" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Richard was waiting outside the door as she emerged. </t>
+          <t xml:space="preserve"> The trial could set an important precedent for dealing with similar cases. </t>
         </is>
       </c>
       <c r="E9" s="28" t="n"/>
@@ -4182,22 +5885,22 @@
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
         <is>
-          <t>neglect</t>
+          <t>compact</t>
         </is>
       </c>
       <c r="B10" s="28" t="inlineStr">
         <is>
-          <t>[nɪˈɡlekt]</t>
+          <t>[kəmˈpækt]</t>
         </is>
       </c>
       <c r="C10" s="28" t="inlineStr">
         <is>
-          <t>v. 疏于照顾，未予看管；不予重视，忽视；漏做</t>
+          <t>adj. 小型的，袖珍的；紧凑的；紧密的，坚实的；矮小而健壮的；（演讲，作品）简洁的，简练的</t>
         </is>
       </c>
       <c r="D10" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The woman denied that she had neglected her child. </t>
+          <t xml:space="preserve"> ...my compact office in Washington. </t>
         </is>
       </c>
       <c r="E10" s="28" t="n"/>
@@ -4211,22 +5914,22 @@
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
         <is>
-          <t>suspicion</t>
+          <t>catastrophe</t>
         </is>
       </c>
       <c r="B11" s="28" t="inlineStr">
         <is>
-          <t>[səˈspɪʃ(ə)n]</t>
+          <t>[kəˈtæstrəfi]</t>
         </is>
       </c>
       <c r="C11" s="28" t="inlineStr">
         <is>
-          <t>n. 不好的预感，猜想；（对某人有罪、不诚实等的）怀疑；不信任，猜疑；少量，一点</t>
+          <t>n. 灾难，灾祸；麻烦，困境；惨败</t>
         </is>
       </c>
       <c r="D11" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was a suspicion that this runner attempted to avoid the procedures for drug testing. </t>
+          <t xml:space="preserve"> From all points of view, war would be a catastrophe. </t>
         </is>
       </c>
       <c r="E11" s="28" t="n"/>
@@ -4240,22 +5943,22 @@
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
         <is>
-          <t>innocent</t>
+          <t>compress</t>
         </is>
       </c>
       <c r="B12" s="28" t="inlineStr">
         <is>
-          <t>[ˈɪnəs(ə)nt]</t>
+          <t>[kəmˈpres]</t>
         </is>
       </c>
       <c r="C12" s="28" t="inlineStr">
         <is>
-          <t>adj. 天真的，幼稚的；清白的，无罪的；无辜受害的；没有恶意的，无冒犯之意的</t>
+          <t>v. （使）压紧，压缩；精简，浓缩；压缩（文件）；缩短（时间）</t>
         </is>
       </c>
       <c r="D12" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He was sure that the man was innocent of any crime. </t>
+          <t xml:space="preserve"> Poor posture, sitting or walking slouched over, compresses the body's organs. </t>
         </is>
       </c>
       <c r="E12" s="28" t="n"/>
@@ -4269,22 +5972,22 @@
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
         <is>
-          <t>stem</t>
+          <t>compass</t>
         </is>
       </c>
       <c r="B13" s="28" t="inlineStr">
         <is>
-          <t>[stem]</t>
+          <t>[ˈkʌmpəs]</t>
         </is>
       </c>
       <c r="C13" s="28" t="inlineStr">
         <is>
-          <t>n. （植物、灌木的）茎，干；（高脚酒杯的）柄脚；（语法中的）词干；烟斗柄；主干；船头，艏柱；（机械装置的）阀杆，导杆，棒；&lt;古，文&gt;血统；&lt;美&gt;（手表的）发条转柄；（文字的）干线，（音符的）符干；&lt;美，非正式&gt;鸦片烟枪</t>
+          <t>n. 指南针，罗盘；圆规，两脚规；界限，范围</t>
         </is>
       </c>
       <c r="D13" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All my problems stem from drink. </t>
+          <t xml:space="preserve"> We had to rely on a compass and a lot of luck to get here. </t>
         </is>
       </c>
       <c r="E13" s="28" t="n"/>
@@ -4298,22 +6001,22 @@
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
         <is>
-          <t>tough</t>
+          <t>commodity</t>
         </is>
       </c>
       <c r="B14" s="28" t="inlineStr">
         <is>
-          <t>[tʌf]</t>
+          <t>[kəˈmɒdəti]</t>
         </is>
       </c>
       <c r="C14" s="28" t="inlineStr">
         <is>
-          <t>adj. （物质，物体）坚韧的，坚固的；（政策或行动）强硬的，严厉的；吃苦耐劳的，坚韧不拔的；顽固的，固执的；困难的，棘手的；艰难的，困苦的，难熬的；（食物）老的，不易切开的，嚼不动的；（人）粗暴的，粗鲁的；（地区）充满暴力与犯罪的；不幸的，倒霉的，活该（表示不同情）</t>
+          <t>n. 商品，货物；有用的东西，必需品</t>
         </is>
       </c>
       <c r="D14" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He built up a reputation as a tough businessman. </t>
+          <t xml:space="preserve"> Prices went up on several basic commodities like bread and meat. </t>
         </is>
       </c>
       <c r="E14" s="28" t="n"/>
@@ -4327,22 +6030,22 @@
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
         <is>
-          <t>rust</t>
+          <t>ignite</t>
         </is>
       </c>
       <c r="B15" s="28" t="inlineStr">
         <is>
-          <t>[rʌst]</t>
+          <t>[ɪɡˈnaɪt]</t>
         </is>
       </c>
       <c r="C15" s="28" t="inlineStr">
         <is>
-          <t>n. 锈，铁锈；（植物的）锈病，锈菌；铁锈色，赭色</t>
+          <t>v. 点燃，燃烧；引发，激起</t>
         </is>
       </c>
       <c r="D15" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...a decaying tractor, red with rust. </t>
+          <t xml:space="preserve"> The bombs ignited a fire which destroyed some 60 houses. </t>
         </is>
       </c>
       <c r="E15" s="28" t="n"/>
@@ -4356,17 +6059,17 @@
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
         <is>
-          <t>toughtful</t>
+          <t>closet</t>
         </is>
       </c>
       <c r="B16" s="28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[ˈklɒzɪt]</t>
         </is>
       </c>
       <c r="C16" s="28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>n. 壁橱，储藏室；隐秘状态（尤指同性恋身份）；&lt;古&gt;盥洗室，厕所</t>
         </is>
       </c>
       <c r="D16" s="28" t="inlineStr">
@@ -4377,34 +6080,34 @@
       <c r="E16" s="28" t="n"/>
       <c r="F16" s="28" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>toughtful</t>
+          <t>closet</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
         <is>
-          <t>adequate</t>
+          <t>stereo</t>
         </is>
       </c>
       <c r="B17" s="28" t="inlineStr">
         <is>
-          <t>[ˈædɪkwət]</t>
+          <t>[ˈsteriəʊ]</t>
         </is>
       </c>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>adj. 足够的，适当的，合乎需要的；（品质）足够好的，令人满意的；（质量）达到要求的，勉强过关的</t>
+          <t>n. 立体声，立体声效果；立体声音响设备（器材）；（摄影）立体视镜；（印刷）铅版（stereotype 的简称）</t>
         </is>
       </c>
       <c r="D17" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One in four people worldwide are without adequate homes. </t>
+          <t xml:space="preserve"> ...loudspeakers that give all-around stereo sound. </t>
         </is>
       </c>
       <c r="E17" s="28" t="n"/>
@@ -4418,22 +6121,22 @@
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>doctrine</t>
         </is>
       </c>
       <c r="B18" s="28" t="inlineStr">
         <is>
-          <t>[ˌelɪˈmentri]</t>
+          <t>[ˈdɒktrɪn]</t>
         </is>
       </c>
       <c r="C18" s="28" t="inlineStr">
         <is>
-          <t>adj. 简单的，基本的；基础的，初级的；小学的；单一元素的，非化合物的</t>
+          <t>n. 教义，主义，信条；（政府政策的）正式声明</t>
         </is>
       </c>
       <c r="D18" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Literacy now includes elementary computer skills. </t>
+          <t xml:space="preserve"> ...the Marxist doctrine of perpetual revolution. </t>
         </is>
       </c>
       <c r="E18" s="28" t="n"/>
@@ -4447,22 +6150,22 @@
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
         <is>
-          <t>numerous</t>
+          <t>cluster</t>
         </is>
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>[ˈnjuːmərəs]</t>
+          <t>[ˈklʌstə(r)]</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>adj. 众多的，许多的</t>
+          <t>n. 组，簇；星团；一连串同类事件；（聚集在同一地方的）一群人；（计算机磁盘上的）丛集，群集；辅音群，辅音连缀；基</t>
         </is>
       </c>
       <c r="D19" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sex crimes were just as numerous as they are today. </t>
+          <t xml:space="preserve"> ...clusters of men in formal clothes. </t>
         </is>
       </c>
       <c r="E19" s="28" t="n"/>
@@ -4476,22 +6179,22 @@
     <row r="20">
       <c r="A20" s="23" t="inlineStr">
         <is>
-          <t>drift</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="B20" s="28" t="inlineStr">
         <is>
-          <t>[drɪft]</t>
+          <t>[ɪkˈsepʃən(ə)l]</t>
         </is>
       </c>
       <c r="C20" s="28" t="inlineStr">
         <is>
-          <t>v. 飘移，漂流；任其自然地（或不知不觉地）进入（某种状态）；流浪，漂泊；缓慢移动；传出；吹积</t>
+          <t>adj. 卓越的，杰出的；不寻常的，罕见的；（心理或身体上）有缺陷的</t>
         </is>
       </c>
       <c r="D20" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We proceeded to drift on up the river. </t>
+          <t xml:space="preserve"> ...children with exceptional ability. </t>
         </is>
       </c>
       <c r="E20" s="28" t="n"/>
@@ -4505,22 +6208,22 @@
     <row r="21">
       <c r="A21" s="23" t="inlineStr">
         <is>
-          <t>sensible</t>
+          <t>testify</t>
         </is>
       </c>
       <c r="B21" s="28" t="inlineStr">
         <is>
-          <t>[ˈsensəb(ə)l]</t>
+          <t>[ˈtestɪfaɪ]</t>
         </is>
       </c>
       <c r="C21" s="28" t="inlineStr">
         <is>
-          <t>adj. 理智的，合理的； 朴素而实用的；&lt;正式&gt;可感觉到的，明显的</t>
+          <t>v. （通常指在法庭上）作证；证明，证实；&lt;美&gt;（尤指做礼拜时）见证（上帝存在）</t>
         </is>
       </c>
       <c r="D21" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It might be sensible to get a lawyer. </t>
+          <t xml:space="preserve"> Several eyewitnesses testified that they saw the officers hit Miller in the face. </t>
         </is>
       </c>
       <c r="E21" s="28" t="n"/>
@@ -4534,22 +6237,22 @@
     <row r="22">
       <c r="A22" s="23" t="inlineStr">
         <is>
-          <t>loan</t>
+          <t>dazzle</t>
         </is>
       </c>
       <c r="B22" s="28" t="inlineStr">
         <is>
-          <t>[ləʊn]</t>
+          <t>[ˈdæz(ə)l]</t>
         </is>
       </c>
       <c r="C22" s="28" t="inlineStr">
         <is>
-          <t>n. 贷款，借款；借用，借出；&lt;苏格兰&gt;（尤指通向开阔地的）小径；（未开垦的开阔的）挤奶牧场</t>
+          <t>v. （强光）使目眩，使眼花；使惊叹，使眼花缭乱</t>
         </is>
       </c>
       <c r="D22" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The country has no access to foreign loans or financial aid. </t>
+          <t xml:space="preserve"> George dazzled her with his knowledge of the world. </t>
         </is>
       </c>
       <c r="E22" s="28" t="n"/>
@@ -4563,22 +6266,22 @@
     <row r="23">
       <c r="A23" s="23" t="inlineStr">
         <is>
-          <t>genuine</t>
+          <t>dazzling</t>
         </is>
       </c>
       <c r="B23" s="28" t="inlineStr">
         <is>
-          <t>[ˈdʒenjuɪn]</t>
+          <t>[ˈdæz(ə)lɪŋ]</t>
         </is>
       </c>
       <c r="C23" s="28" t="inlineStr">
         <is>
-          <t>adj. 真正的，非伪造的；真诚的，真心的</t>
+          <t>adj. 令人赞叹的，给人深刻印象的；耀眼的，眩目的</t>
         </is>
       </c>
       <c r="D23" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was a risk of genuine refugees being returned to Vietnam. </t>
+          <t xml:space="preserve"> He gave Alberg a dazzling smile. </t>
         </is>
       </c>
       <c r="E23" s="28" t="n"/>
@@ -4592,22 +6295,22 @@
     <row r="24">
       <c r="A24" s="23" t="inlineStr">
         <is>
-          <t>diploma</t>
+          <t>dizzy</t>
         </is>
       </c>
       <c r="B24" s="28" t="inlineStr">
         <is>
-          <t>[dɪˈpləʊmə]</t>
+          <t>[ˈdɪzi]</t>
         </is>
       </c>
       <c r="C24" s="28" t="inlineStr">
         <is>
-          <t>n. 毕业文凭，学位证书；文凭课程，职业课程；公文，文书</t>
+          <t>adj. 头晕目眩的；使人眩晕的，使人感到变化太快的；傻乎乎的，蠢的；粗心大意的，心不在焉的</t>
         </is>
       </c>
       <c r="D24" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...a new two-year course leading to a diploma in social work. </t>
+          <t xml:space="preserve"> Her head still hurt, and she felt slightly dizzy and disoriented. </t>
         </is>
       </c>
       <c r="E24" s="28" t="n"/>
@@ -4621,22 +6324,22 @@
     <row r="25">
       <c r="A25" s="23" t="inlineStr">
         <is>
-          <t>costume</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B25" s="28" t="inlineStr">
         <is>
-          <t>[ˈkɒstjuːm]</t>
+          <t>[ˈkɒmənt(ə)ri]</t>
         </is>
       </c>
       <c r="C25" s="28" t="inlineStr">
         <is>
-          <t>n. 服装，装束；戏服，表演服装；泳衣，泳装</t>
+          <t>n. 现场解说，实况报道；评注性著作，评论文；讨论，评论；说明，写照</t>
         </is>
       </c>
       <c r="D25" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Even from a distance, the effect of his fox costume was stunning. </t>
+          <t xml:space="preserve"> He gave the listening crowd a running commentary. </t>
         </is>
       </c>
       <c r="E25" s="28" t="n"/>
@@ -4650,22 +6353,22 @@
     <row r="26">
       <c r="A26" s="23" t="inlineStr">
         <is>
-          <t>veil</t>
+          <t>destined</t>
         </is>
       </c>
       <c r="B26" s="28" t="inlineStr">
         <is>
-          <t>[veɪl]</t>
+          <t>[ˈdestɪnd]</t>
         </is>
       </c>
       <c r="C26" s="28" t="inlineStr">
         <is>
-          <t>n. 面纱，面罩；（修女的）头巾；遮盖物，掩饰，借口；避而不谈（难堪或不愉快的）某事；（古犹太教）圣布；（植）菌幕；（穆斯林国家妇女）带面纱的习俗</t>
+          <t>adj. 指定的，预定的；前往的，被送往的；（命中）注定的，肯定的</t>
         </is>
       </c>
       <c r="D26" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She's got long fair hair but she's got a veil over it. </t>
+          <t xml:space="preserve"> Any economic strategy based on a weak dollar is destined to fail. </t>
         </is>
       </c>
       <c r="E26" s="28" t="n"/>
@@ -4679,22 +6382,22 @@
     <row r="27">
       <c r="A27" s="23" t="inlineStr">
         <is>
-          <t>commemorate</t>
+          <t>destiny</t>
         </is>
       </c>
       <c r="B27" s="28" t="inlineStr">
         <is>
-          <t>[kəˈmeməreɪt]</t>
+          <t>[ˈdestəni]</t>
         </is>
       </c>
       <c r="C27" s="28" t="inlineStr">
         <is>
-          <t>v. 纪念，用以纪念</t>
+          <t>n. 命运，定数；天意，命运之神</t>
         </is>
       </c>
       <c r="D27" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One room contained a gallery of paintings commemorating great moments in baseball history. </t>
+          <t xml:space="preserve"> We are masters of our own destiny. </t>
         </is>
       </c>
       <c r="E27" s="28" t="n"/>
@@ -4708,22 +6411,22 @@
     <row r="28">
       <c r="A28" s="23" t="inlineStr">
         <is>
-          <t>petty</t>
+          <t>overlap</t>
         </is>
       </c>
       <c r="B28" s="28" t="inlineStr">
         <is>
-          <t>[ˈpeti]</t>
+          <t>[ˌəʊvəˈlæp]</t>
         </is>
       </c>
       <c r="C28" s="28" t="inlineStr">
         <is>
-          <t>adj. 不重要的，琐碎的，小的；小气的，小心眼的；次要的，职位低的；（罪行）轻微的</t>
+          <t>v. （与……）互搭，（与……）复叠；（在关注的问题、承担的责任等方面）部分地重叠，部分相同；（与……）同时发生</t>
         </is>
       </c>
       <c r="D28" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He was miserable all the time and fights would start over petty things. </t>
+          <t xml:space="preserve"> When the bag is folded, the bottom overlaps one side. </t>
         </is>
       </c>
       <c r="E28" s="28" t="n"/>
@@ -4737,22 +6440,22 @@
     <row r="29">
       <c r="A29" s="23" t="inlineStr">
         <is>
-          <t>affirm</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="B29" s="28" t="inlineStr">
         <is>
-          <t>[əˈfɜːm]</t>
+          <t>[ˈsteriətaɪp]</t>
         </is>
       </c>
       <c r="C29" s="28" t="inlineStr">
         <is>
-          <t>v. 断言，证实； 宣称拥护，支持；认可（判决，协议），批准；不宣誓而提供正式证词；给予（某人）情感支持（或鼓励）</t>
+          <t>n. 模式化的思想，老一套；公式化人物；铅版，铅版浇铸，铅版印刷</t>
         </is>
       </c>
       <c r="D29" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The court affirmed that the information can be made public under the Freedom of Information Act. </t>
+          <t xml:space="preserve"> There's always been a stereotype about successful businessmen. </t>
         </is>
       </c>
       <c r="E29" s="28" t="n"/>
@@ -4766,22 +6469,22 @@
     <row r="30">
       <c r="A30" s="23" t="inlineStr">
         <is>
-          <t>grieve</t>
+          <t>indulge</t>
         </is>
       </c>
       <c r="B30" s="28" t="inlineStr">
         <is>
-          <t>[ɡriːv]</t>
+          <t>[ɪnˈdʌldʒ]</t>
         </is>
       </c>
       <c r="C30" s="28" t="inlineStr">
         <is>
-          <t>v. （尤指因某人亡故而）感到悲痛；使伤心</t>
+          <t>v. 沉湎，沉溺；纵容，迁就；满足（情感、兴趣、欲望等）；参加，参与（尤指违法活动）</t>
         </is>
       </c>
       <c r="D30" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He's grieving over his dead wife and son. </t>
+          <t xml:space="preserve"> Only rarely will she indulge in a glass of wine. </t>
         </is>
       </c>
       <c r="E30" s="28" t="n"/>
@@ -4795,22 +6498,22 @@
     <row r="31">
       <c r="A31" s="23" t="inlineStr">
         <is>
-          <t>correlate</t>
+          <t>drought</t>
         </is>
       </c>
       <c r="B31" s="28" t="inlineStr">
         <is>
-          <t>[ˈkɒrəleɪt; ˈkɒrələt]</t>
+          <t>[draʊt]</t>
         </is>
       </c>
       <c r="C31" s="28" t="inlineStr">
         <is>
-          <t>v. 相互关联；显示紧密联系</t>
+          <t>n. 长期缺乏，严重短缺；&lt;古&gt;口渴；干旱，旱灾</t>
         </is>
       </c>
       <c r="D31" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Obesity correlates with increased risk for hypertension and stroke. </t>
+          <t xml:space="preserve"> ...a country where drought and famines have killed up to two million people during the last eighteen years. </t>
         </is>
       </c>
       <c r="E31" s="28" t="n"/>
@@ -4824,22 +6527,22 @@
     <row r="32">
       <c r="A32" s="23" t="inlineStr">
         <is>
-          <t>abolish</t>
+          <t>additive</t>
         </is>
       </c>
       <c r="B32" s="28" t="inlineStr">
         <is>
-          <t>[əˈbɒlɪʃ]</t>
+          <t>[ˈædətɪv]</t>
         </is>
       </c>
       <c r="C32" s="28" t="inlineStr">
         <is>
-          <t>v. 废除，废止，取消</t>
+          <t>n. 添加剂，添加物</t>
         </is>
       </c>
       <c r="D32" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Illinois House committee voted Thursday to abolish the death penalty. </t>
+          <t xml:space="preserve"> Strict safety tests are carried out on food additives. </t>
         </is>
       </c>
       <c r="E32" s="28" t="n"/>
@@ -4853,22 +6556,22 @@
     <row r="33">
       <c r="A33" s="23" t="inlineStr">
         <is>
-          <t>abundant</t>
+          <t>reconcile</t>
         </is>
       </c>
       <c r="B33" s="28" t="inlineStr">
         <is>
-          <t>[əˈbʌndənt]</t>
+          <t>[ˈrekənsaɪl]</t>
         </is>
       </c>
       <c r="C33" s="28" t="inlineStr">
         <is>
-          <t>adj. 大量的，丰富的，充足的</t>
+          <t>v. 调和，使协调一致；（使）和解，（使）恢复友好关系；调停，调解（争吵）；使顺从于，使接受；核对，查核（账目）</t>
         </is>
       </c>
       <c r="D33" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There is an abundant supply of cheap labour. </t>
+          <t xml:space="preserve"> It's difficult to reconcile the demands of my job and the desire to be a good father. </t>
         </is>
       </c>
       <c r="E33" s="28" t="n"/>
@@ -4882,22 +6585,22 @@
     <row r="34">
       <c r="A34" s="23" t="inlineStr">
         <is>
-          <t>accelerate</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B34" s="28" t="inlineStr">
         <is>
-          <t>[əkˈseləreɪt]</t>
+          <t>[ˌekspɜːˈtiːz]</t>
         </is>
       </c>
       <c r="C34" s="28" t="inlineStr">
         <is>
-          <t>v. （使）加快，促进；（车辆或驾驶者）加速</t>
+          <t>n. 专长，专门技能（知识）；专家的意见</t>
         </is>
       </c>
       <c r="D34" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Growth will accelerate to 2.9 percent next year. </t>
+          <t xml:space="preserve"> She was not an accountant and didn't have the expertise to verify all of the financial details. </t>
         </is>
       </c>
       <c r="E34" s="28" t="n"/>
@@ -4911,22 +6614,22 @@
     <row r="35">
       <c r="A35" s="23" t="inlineStr">
         <is>
-          <t>acquaint</t>
+          <t>warfare</t>
         </is>
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>[əˈkweɪnt]</t>
+          <t>[ˈwɔːfeə(r)]</t>
         </is>
       </c>
       <c r="C35" s="28" t="inlineStr">
         <is>
-          <t>v. 使熟悉，使了解</t>
+          <t>n. 战争，作战；（团体、公司等之间的）斗争，竞争</t>
         </is>
       </c>
       <c r="D35" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have steps been taken to acquaint breeders with their right to apply for licenses? </t>
+          <t xml:space="preserve"> ...the threat of chemical warfare. </t>
         </is>
       </c>
       <c r="E35" s="28" t="n"/>
@@ -4940,22 +6643,22 @@
     <row r="36">
       <c r="A36" s="23" t="inlineStr">
         <is>
-          <t>adverse</t>
+          <t>credentials</t>
         </is>
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>[ˈædvɜːs]</t>
+          <t>[krəˈdenʃ(ə)lz]</t>
         </is>
       </c>
       <c r="C36" s="28" t="inlineStr">
         <is>
-          <t>adj. 不利的，有害的；相反的；敌对的</t>
+          <t>n. 资格证明；资格证书，证件；国书（credential 的复数）</t>
         </is>
       </c>
       <c r="D36" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The police said Mr. Hadfield's decision would have no adverse effect on the progress of the investigation. </t>
+          <t xml:space="preserve"> ...her credentials as a Bach specialist. </t>
         </is>
       </c>
       <c r="E36" s="28" t="n"/>
@@ -4969,22 +6672,22 @@
     <row r="37">
       <c r="A37" s="23" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>finite</t>
         </is>
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>[ˌædməˈreɪʃ(ə)n]</t>
+          <t>[ˈfaɪnaɪt]</t>
         </is>
       </c>
       <c r="C37" s="28" t="inlineStr">
         <is>
-          <t>n. 钦佩，赞美，欣赏；赞美对象</t>
+          <t>adj. 有限的，有限制的；限定的</t>
         </is>
       </c>
       <c r="D37" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I have always had the greatest admiration for him. </t>
+          <t xml:space="preserve"> ...a finite set of elements. </t>
         </is>
       </c>
       <c r="E37" s="28" t="n"/>
@@ -4998,22 +6701,22 @@
     <row r="38">
       <c r="A38" s="23" t="inlineStr">
         <is>
-          <t>affluence</t>
+          <t>elapse</t>
         </is>
       </c>
       <c r="B38" s="28" t="inlineStr">
         <is>
-          <t>[ˈæfluəns]</t>
+          <t>[ɪˈlæps]</t>
         </is>
       </c>
       <c r="C38" s="28" t="inlineStr">
         <is>
-          <t>n. 富裕，富足；流入，汇聚</t>
+          <t>v. 消逝</t>
         </is>
       </c>
       <c r="D38" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The postwar era was one of new affluence for the working class. </t>
+          <t xml:space="preserve"> Forty-eight hours have elapsed since his arrest. </t>
         </is>
       </c>
       <c r="E38" s="28" t="n"/>
@@ -5027,22 +6730,22 @@
     <row r="39">
       <c r="A39" s="23" t="inlineStr">
         <is>
-          <t>affluent</t>
+          <t>coherence</t>
         </is>
       </c>
       <c r="B39" s="28" t="inlineStr">
         <is>
-          <t>[ˈæfluənt]</t>
+          <t>[kəʊˈhɪərəns]</t>
         </is>
       </c>
       <c r="C39" s="28" t="inlineStr">
         <is>
-          <t>adj. 富裕的，富足的；&lt;古&gt;（水）畅流，滔滔流动；丰富的</t>
+          <t>n. 连贯性，条理性；凝聚，凝聚力</t>
         </is>
       </c>
       <c r="D39" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cigarette smoking used to be more common among affluent people. </t>
+          <t xml:space="preserve"> The anthology has a surprising sense of coherence. </t>
         </is>
       </c>
       <c r="E39" s="28" t="n"/>
@@ -5056,22 +6759,22 @@
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
         <is>
-          <t>allegiance</t>
+          <t>cohere</t>
         </is>
       </c>
       <c r="B40" s="28" t="inlineStr">
         <is>
-          <t>[əˈliːdʒəns]</t>
+          <t>[kəʊˈhɪə(r)]</t>
         </is>
       </c>
       <c r="C40" s="28" t="inlineStr">
         <is>
-          <t>n. （对政党、宗教、统治者的）忠诚，效忠，拥戴</t>
+          <t>vi. 凝聚；连贯；粘着；一致</t>
         </is>
       </c>
       <c r="D40" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My allegiance to Kendall and his company ran deep. </t>
+          <t xml:space="preserve"> The various elements of the novel fail to cohere. </t>
         </is>
       </c>
       <c r="E40" s="28" t="n"/>
@@ -5085,22 +6788,22 @@
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
         <is>
-          <t>alliance</t>
+          <t>coincide</t>
         </is>
       </c>
       <c r="B41" s="28" t="inlineStr">
         <is>
-          <t>[əˈlaɪəns]</t>
+          <t>[ˌkəʊɪnˈsaɪd]</t>
         </is>
       </c>
       <c r="C41" s="28" t="inlineStr">
         <is>
-          <t>n. 联盟，结盟；结盟团体，结盟国家；（人们间的）亲密关系，（尤指）联姻</t>
+          <t>v. 巧合，同时发生；一致，相符；相交，重叠</t>
         </is>
       </c>
       <c r="D41" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The two parties were still too much apart to form an alliance. </t>
+          <t xml:space="preserve"> The exhibition coincides with the 50th anniversary of his death. </t>
         </is>
       </c>
       <c r="E41" s="28" t="n"/>
@@ -5114,22 +6817,22 @@
     <row r="42">
       <c r="A42" s="23" t="inlineStr">
         <is>
-          <t>amid</t>
+          <t>coincidence</t>
         </is>
       </c>
       <c r="B42" s="28" t="inlineStr">
         <is>
-          <t>[əˈmɪd]</t>
+          <t>[kəʊˈɪnsɪdəns]</t>
         </is>
       </c>
       <c r="C42" s="28" t="inlineStr">
         <is>
-          <t>prep. 在……过程中，在……中；四周是，被……所环绕</t>
+          <t>n. 巧合，同时发生；相符，一致；符合</t>
         </is>
       </c>
       <c r="D42" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Workers are sifting through the wreckage of the airliners amid growing evidence that the disasters were the work of terrorists. </t>
+          <t xml:space="preserve"> Mr. Berry said the timing was a coincidence and that his decision was unrelated to Mr. Roman's departure. </t>
         </is>
       </c>
       <c r="E42" s="28" t="n"/>
@@ -5143,22 +6846,22 @@
     <row r="43">
       <c r="A43" s="23" t="inlineStr">
         <is>
-          <t>antenna</t>
+          <t>collapse</t>
         </is>
       </c>
       <c r="B43" s="28" t="inlineStr">
         <is>
-          <t>[ænˈtenə]</t>
+          <t>[kəˈlæps]</t>
         </is>
       </c>
       <c r="C43" s="28" t="inlineStr">
         <is>
-          <t>n. 触须，触角；&lt;美&gt;天线；感觉，直觉</t>
+          <t>v. 倒塌，塌下；崩溃，瓦解；突然倒下，昏倒；瘫倒；突然贬值，暴跌；萎陷，瘪掉；折叠</t>
         </is>
       </c>
       <c r="D43" s="28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> A section of the Bay Bridge had collapsed. </t>
         </is>
       </c>
       <c r="E43" s="28" t="n"/>
@@ -5167,31 +6870,27 @@
           <t>已处理</t>
         </is>
       </c>
-      <c r="G43" s="28" t="inlineStr">
-        <is>
-          <t>antenna</t>
-        </is>
-      </c>
+      <c r="G43" s="28" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="23" t="inlineStr">
         <is>
-          <t>anthropology</t>
+          <t>collision</t>
         </is>
       </c>
       <c r="B44" s="28" t="inlineStr">
         <is>
-          <t>[ˌænθrəˈpɒlədʒi]</t>
+          <t>[kəˈlɪʒ(ə)n]</t>
         </is>
       </c>
       <c r="C44" s="28" t="inlineStr">
         <is>
-          <t>n.  人类学</t>
+          <t>n. 碰撞，相撞；冲突，抵触；争用</t>
         </is>
       </c>
       <c r="D44" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...an anthropologist who had been in China for three years. </t>
+          <t xml:space="preserve"> They were on their way to the airport when their van was involved in a collision with a car. </t>
         </is>
       </c>
       <c r="E44" s="28" t="n"/>
@@ -5205,22 +6904,22 @@
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
         <is>
-          <t>antibiotic</t>
+          <t>collide</t>
         </is>
       </c>
       <c r="B45" s="28" t="inlineStr">
         <is>
-          <t>[ˌæntibaɪˈɒtɪk]</t>
+          <t>[kəˈlaɪd]</t>
         </is>
       </c>
       <c r="C45" s="28" t="inlineStr">
         <is>
-          <t>n. 抗生素，抗菌素</t>
+          <t>v. 冲突，抵触；（迥异的事物）碰在一起；碰撞，相撞</t>
         </is>
       </c>
       <c r="D45" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Your doctor may prescribe antibiotics. </t>
+          <t xml:space="preserve"> Two trains collided head-on in Ohio early this morning. </t>
         </is>
       </c>
       <c r="E45" s="28" t="n"/>
@@ -5234,22 +6933,22 @@
     <row r="46">
       <c r="A46" s="23" t="inlineStr">
         <is>
-          <t>antique</t>
+          <t>comparatively</t>
         </is>
       </c>
       <c r="B46" s="28" t="inlineStr">
         <is>
-          <t>[ænˈtiːk]</t>
+          <t>[kəmˈpærətɪvli]</t>
         </is>
       </c>
       <c r="C46" s="28" t="inlineStr">
         <is>
-          <t>adj. 古老的，古董的；老式的，过时的；（木器表面罩漆工艺）仿古的，古式的；年久的，破旧的</t>
+          <t>adv. 比较地，相对地</t>
         </is>
       </c>
       <c r="D46" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...a genuine antique. </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E46" s="28" t="n"/>
@@ -5258,51 +6957,59 @@
           <t>已处理</t>
         </is>
       </c>
-      <c r="G46" s="28" t="n"/>
+      <c r="G46" s="28" t="inlineStr">
+        <is>
+          <t>comparatively</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="23" t="inlineStr">
         <is>
-          <t>apt</t>
+          <t>compatble</t>
         </is>
       </c>
       <c r="B47" s="28" t="inlineStr">
         <is>
-          <t>[æpt]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C47" s="28" t="inlineStr">
         <is>
-          <t>adj. 易于……的，有……倾向的；恰当的，适宜的；善学的，聪明的</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D47" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The words of this report are as apt today as in 1929. </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="inlineStr">
         <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G47" s="28" t="n"/>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="G47" s="28" t="inlineStr">
+        <is>
+          <t>compatble</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="inlineStr">
         <is>
-          <t>arrogance</t>
+          <t>compatibility</t>
         </is>
       </c>
       <c r="B48" s="28" t="inlineStr">
         <is>
-          <t>[ˈærəɡəns]</t>
+          <t>[kəmˌpætəˈbɪləti]</t>
         </is>
       </c>
       <c r="C48" s="28" t="inlineStr">
         <is>
-          <t>n. 傲慢，自大</t>
+          <t>n. 共存；和睦相处；（计算机设备的）兼容性</t>
         </is>
       </c>
       <c r="D48" s="28" t="inlineStr">
@@ -5318,29 +7025,29 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
-          <t>arrogance</t>
+          <t>compatibility</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="23" t="inlineStr">
         <is>
-          <t>artery</t>
+          <t>compel</t>
         </is>
       </c>
       <c r="B49" s="28" t="inlineStr">
         <is>
-          <t>[ˈɑːtəri]</t>
+          <t>[kəmˈpel]</t>
         </is>
       </c>
       <c r="C49" s="28" t="inlineStr">
         <is>
-          <t>n. 动脉；干线，干道，干流</t>
+          <t>v. 强迫，迫使；使发生，促使；&lt;文&gt;驱赶</t>
         </is>
       </c>
       <c r="D49" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...patients suffering from blocked arteries. </t>
+          <t xml:space="preserve"> ...the introduction of legislation to compel cyclists to wear a helmet. </t>
         </is>
       </c>
       <c r="E49" s="28" t="n"/>
@@ -5354,22 +7061,22 @@
     <row r="50">
       <c r="A50" s="23" t="inlineStr">
         <is>
-          <t>articulate</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B50" s="28" t="inlineStr">
         <is>
-          <t>[ɑːˈtɪkjuleɪt]</t>
+          <t>[ˈkɒmplɪmənt]</t>
         </is>
       </c>
       <c r="C50" s="28" t="inlineStr">
         <is>
-          <t>v. 明确表达，清楚说明；口齿清楚地说，清晰地发音；用关节连接，连结</t>
+          <t>n. 赞扬，称赞；问候，祝贺</t>
         </is>
       </c>
       <c r="D50" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She is an articulate young woman. </t>
+          <t xml:space="preserve"> You can do no harm by paying a woman compliments. </t>
         </is>
       </c>
       <c r="E50" s="28" t="n"/>
@@ -5383,22 +7090,22 @@
     <row r="51">
       <c r="A51" s="23" t="inlineStr">
         <is>
-          <t>baffle</t>
+          <t>complement</t>
         </is>
       </c>
       <c r="B51" s="28" t="inlineStr">
         <is>
-          <t>[ˈbæf(ə)l]</t>
+          <t>[ˈkɒmplɪment]</t>
         </is>
       </c>
       <c r="C51" s="28" t="inlineStr">
         <is>
-          <t>v. 使困惑，难住；抑制，控制</t>
+          <t>v. 补充，补足</t>
         </is>
       </c>
       <c r="D51" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An apple tree producing square fruit is baffling experts. </t>
+          <t xml:space="preserve"> Nutmeg, parsley and cider all complement the flavour of these beans well. </t>
         </is>
       </c>
       <c r="E51" s="28" t="n"/>
@@ -5412,22 +7119,22 @@
     <row r="52">
       <c r="A52" s="23" t="inlineStr">
         <is>
-          <t>bleak</t>
+          <t>comprehend</t>
         </is>
       </c>
       <c r="B52" s="28" t="inlineStr">
         <is>
-          <t>[bliːk]</t>
+          <t>[ˌkɒmprɪˈhend]</t>
         </is>
       </c>
       <c r="C52" s="28" t="inlineStr">
         <is>
-          <t>adj. 不乐观的，无望的；无遮掩的，荒凉的；阴冷的，寒冷的；沮丧的，阴郁的；（人或其表情）冷漠的，冷峻的</t>
+          <t>v. 理解，领悟；包括，包含</t>
         </is>
       </c>
       <c r="D52" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The immediate outlook remains bleak. </t>
+          <t xml:space="preserve"> I just cannot comprehend your attitude. </t>
         </is>
       </c>
       <c r="E52" s="28" t="n"/>
@@ -5441,22 +7148,22 @@
     <row r="53">
       <c r="A53" s="23" t="inlineStr">
         <is>
-          <t>blockage</t>
+          <t>compulsory</t>
         </is>
       </c>
       <c r="B53" s="28" t="inlineStr">
         <is>
-          <t>[ˈblɒkɪdʒ]</t>
+          <t>[kəmˈpʌlsəri]</t>
         </is>
       </c>
       <c r="C53" s="28" t="inlineStr">
         <is>
-          <t>n. 造成阻塞的东西，阻塞物；堵塞，阻塞</t>
+          <t>adj. 必须做的，义务的，强制的</t>
         </is>
       </c>
       <c r="D53" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The logical treatment is to remove this blockage. </t>
+          <t xml:space="preserve"> He believes that the study of history should be compulsory in school. </t>
         </is>
       </c>
       <c r="E53" s="28" t="n"/>
@@ -5470,22 +7177,22 @@
     <row r="54">
       <c r="A54" s="23" t="inlineStr">
         <is>
-          <t>capitalism</t>
+          <t>confrontation</t>
         </is>
       </c>
       <c r="B54" s="28" t="inlineStr">
         <is>
-          <t>[ˈkæpɪtəlɪzəm]</t>
+          <t>[ˌkɒnfrʌnˈteɪʃn]</t>
         </is>
       </c>
       <c r="C54" s="28" t="inlineStr">
         <is>
-          <t>n. 资本主义</t>
+          <t>n. 对抗，冲突；战斗，战役</t>
         </is>
       </c>
       <c r="D54" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...the two fundamentally opposed social systems, capitalism and socialism. </t>
+          <t xml:space="preserve"> The commission remains so weak that it will continue to avoid confrontation with governments. </t>
         </is>
       </c>
       <c r="E54" s="28" t="n"/>
@@ -5499,22 +7206,22 @@
     <row r="55">
       <c r="A55" s="23" t="inlineStr">
         <is>
-          <t>chancellor</t>
+          <t>congressman</t>
         </is>
       </c>
       <c r="B55" s="28" t="inlineStr">
         <is>
-          <t>[ˈtʃɑːnsələ(r)]</t>
+          <t>[ˈkɒŋɡrəsmən]</t>
         </is>
       </c>
       <c r="C55" s="28" t="inlineStr">
         <is>
-          <t>n. （英国）财政大臣；（德国或奥地利）总理；（英国大学）名誉校长，（美国大学）校长；法官</t>
+          <t>n. 国会议员；众议院议员</t>
         </is>
       </c>
       <c r="D55" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ...Chancellor Gerhard Schröder of Germany. </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E55" s="28" t="n"/>
@@ -5523,27 +7230,31 @@
           <t>已处理</t>
         </is>
       </c>
-      <c r="G55" s="28" t="n"/>
+      <c r="G55" s="28" t="inlineStr">
+        <is>
+          <t>congressman</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="23" t="inlineStr">
         <is>
-          <t>chiefly</t>
+          <t>conscience</t>
         </is>
       </c>
       <c r="B56" s="28" t="inlineStr">
         <is>
-          <t>[ˈtʃiːfli]</t>
+          <t>[ˈkɒnʃəns]</t>
         </is>
       </c>
       <c r="C56" s="28" t="inlineStr">
         <is>
-          <t>adv. 主要地；首先</t>
+          <t>n. 良知，良心；内疚，愧疚</t>
         </is>
       </c>
       <c r="D56" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He joined the consular service in China, chiefly because this was one of the few job vacancies. </t>
+          <t xml:space="preserve"> I have battled with my conscience over whether I should actually send this letter. </t>
         </is>
       </c>
       <c r="E56" s="28" t="n"/>
@@ -5557,22 +7268,22 @@
     <row r="57">
       <c r="A57" s="23" t="inlineStr">
         <is>
-          <t>circus</t>
+          <t>conscious</t>
         </is>
       </c>
       <c r="B57" s="28" t="inlineStr">
         <is>
-          <t>[ˈsɜːkəs]</t>
+          <t>[ˈkɒnʃəs]</t>
         </is>
       </c>
       <c r="C57" s="28" t="inlineStr">
         <is>
-          <t>n. 马戏团，马戏演员；马戏表演；乱哄哄的人群，热闹的场面；圆形广场，环形交叉口；（古罗马）露天圆形竞技场</t>
+          <t>adj. 意识到的；神志清醒的，有知觉的；关注的；刻意的，慎重的</t>
         </is>
       </c>
       <c r="D57" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My real ambition was to work in a circus. </t>
+          <t xml:space="preserve"> He was conscious of the faint, musky aroma of aftershave. </t>
         </is>
       </c>
       <c r="E57" s="28" t="n"/>
@@ -5582,6 +7293,880 @@
         </is>
       </c>
       <c r="G57" s="28" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="23" t="inlineStr">
+        <is>
+          <t>consecutive</t>
+        </is>
+      </c>
+      <c r="B58" s="28" t="inlineStr">
+        <is>
+          <t>[kənˈsekjətɪv]</t>
+        </is>
+      </c>
+      <c r="C58" s="28" t="inlineStr">
+        <is>
+          <t>adj. 连续的，不间断的</t>
+        </is>
+      </c>
+      <c r="D58" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Cup was won for the third consecutive year by the Toronto Maple Leafs. </t>
+        </is>
+      </c>
+      <c r="E58" s="28" t="n"/>
+      <c r="F58" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G58" s="28" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="23" t="inlineStr">
+        <is>
+          <t>considerate</t>
+        </is>
+      </c>
+      <c r="B59" s="28" t="inlineStr">
+        <is>
+          <t>[kənˈsɪdərət]</t>
+        </is>
+      </c>
+      <c r="C59" s="28" t="inlineStr">
+        <is>
+          <t>adj. 体贴的，考虑周到的；&lt;旧&gt;小心的，谨慎的</t>
+        </is>
+      </c>
+      <c r="D59" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think he's the most charming, most considerate man I've ever known. </t>
+        </is>
+      </c>
+      <c r="E59" s="28" t="n"/>
+      <c r="F59" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G59" s="28" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="23" t="inlineStr">
+        <is>
+          <t>console</t>
+        </is>
+      </c>
+      <c r="B60" s="28" t="inlineStr">
+        <is>
+          <t>[kənˈsəʊl]</t>
+        </is>
+      </c>
+      <c r="C60" s="28" t="inlineStr">
+        <is>
+          <t>vt. 安慰；慰藉</t>
+        </is>
+      </c>
+      <c r="D60" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Never mind, Ned," he consoled me. </t>
+        </is>
+      </c>
+      <c r="E60" s="28" t="n"/>
+      <c r="F60" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G60" s="28" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="23" t="inlineStr">
+        <is>
+          <t>constrain</t>
+        </is>
+      </c>
+      <c r="B61" s="28" t="inlineStr">
+        <is>
+          <t>[kənˈstreɪn]</t>
+        </is>
+      </c>
+      <c r="C61" s="28" t="inlineStr">
+        <is>
+          <t>v. 限制，约束；强迫，迫使</t>
+        </is>
+      </c>
+      <c r="D61" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Women are too often constrained by family commitments and by low expectations. </t>
+        </is>
+      </c>
+      <c r="E61" s="28" t="n"/>
+      <c r="F61" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G61" s="28" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="23" t="inlineStr">
+        <is>
+          <t>compel</t>
+        </is>
+      </c>
+      <c r="B62" s="28" t="inlineStr">
+        <is>
+          <t>[kəmˈpel]</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="inlineStr">
+        <is>
+          <t>v. 强迫，迫使；使发生，促使；&lt;文&gt;驱赶</t>
+        </is>
+      </c>
+      <c r="D62" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...the introduction of legislation to compel cyclists to wear a helmet. </t>
+        </is>
+      </c>
+      <c r="E62" s="28" t="n"/>
+      <c r="F62" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G62" s="28" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="23" t="inlineStr">
+        <is>
+          <t>convict</t>
+        </is>
+      </c>
+      <c r="B63" s="28" t="inlineStr">
+        <is>
+          <t>[kənˈvɪkt]</t>
+        </is>
+      </c>
+      <c r="C63" s="28" t="inlineStr">
+        <is>
+          <t>v. 定罪，宣判……有罪</t>
+        </is>
+      </c>
+      <c r="D63" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In 1977 he was convicted of murder and sentenced to life imprisonment. </t>
+        </is>
+      </c>
+      <c r="E63" s="28" t="n"/>
+      <c r="F63" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G63" s="28" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="23" t="inlineStr">
+        <is>
+          <t>conviction</t>
+        </is>
+      </c>
+      <c r="B64" s="28" t="inlineStr">
+        <is>
+          <t>[kənˈvɪkʃn]</t>
+        </is>
+      </c>
+      <c r="C64" s="28" t="inlineStr">
+        <is>
+          <t>n. 定罪，判罪；坚定的信仰，深信的观点；确信，深信</t>
+        </is>
+      </c>
+      <c r="D64" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It is our firm conviction that a step forward has been taken. </t>
+        </is>
+      </c>
+      <c r="E64" s="28" t="n"/>
+      <c r="F64" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G64" s="28" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="23" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="B65" s="28" t="inlineStr">
+        <is>
+          <t>[ˌkɒrəˈleɪʃ(ə)n]</t>
+        </is>
+      </c>
+      <c r="C65" s="28" t="inlineStr">
+        <is>
+          <t>n. 相互关系，关联；相关量</t>
+        </is>
+      </c>
+      <c r="D65" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...the correlation between smoking and disease. </t>
+        </is>
+      </c>
+      <c r="E65" s="28" t="n"/>
+      <c r="F65" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G65" s="28" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="23" t="inlineStr">
+        <is>
+          <t>council</t>
+        </is>
+      </c>
+      <c r="B66" s="28" t="inlineStr">
+        <is>
+          <t>[ˈkaʊns(ə)l]</t>
+        </is>
+      </c>
+      <c r="C66" s="28" t="inlineStr">
+        <is>
+          <t>n. 委员会，理事会；政务委员会，地方议会；会议；（教会的）集会</t>
+        </is>
+      </c>
+      <c r="D66" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The city council has voted almost unanimously in favour. </t>
+        </is>
+      </c>
+      <c r="E66" s="28" t="n"/>
+      <c r="F66" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G66" s="28" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="23" t="inlineStr">
+        <is>
+          <t>coward</t>
+        </is>
+      </c>
+      <c r="B67" s="28" t="inlineStr">
+        <is>
+          <t>[ˈkaʊəd]</t>
+        </is>
+      </c>
+      <c r="C67" s="28" t="inlineStr">
+        <is>
+          <t>n. 胆小鬼，懦夫</t>
+        </is>
+      </c>
+      <c r="D67" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> She accused her husband of being a coward. </t>
+        </is>
+      </c>
+      <c r="E67" s="28" t="n"/>
+      <c r="F67" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G67" s="28" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="23" t="inlineStr">
+        <is>
+          <t>cowardly</t>
+        </is>
+      </c>
+      <c r="B68" s="28" t="inlineStr">
+        <is>
+          <t>[ˈkaʊədli]</t>
+        </is>
+      </c>
+      <c r="C68" s="28" t="inlineStr">
+        <is>
+          <t>adj. 怯懦的，胆小的；恃强凌弱的</t>
+        </is>
+      </c>
+      <c r="D68" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I was too cowardly to complain. </t>
+        </is>
+      </c>
+      <c r="E68" s="28" t="n"/>
+      <c r="F68" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G68" s="28" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="23" t="inlineStr">
+        <is>
+          <t>crisp</t>
+        </is>
+      </c>
+      <c r="B69" s="28" t="inlineStr">
+        <is>
+          <t>[krɪsp]</t>
+        </is>
+      </c>
+      <c r="C69" s="28" t="inlineStr">
+        <is>
+          <t>adj. 爽口的，脆生的；脆的，易碎的；洁净的，挺括的；（图片或声音）清晰的，清脆悦耳的；清新的，凉爽的；（言行）干脆利落的；轻快的，利索的</t>
+        </is>
+      </c>
+      <c r="D69" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bake the potatoes for 15 minutes, till they're nice and crisp. </t>
+        </is>
+      </c>
+      <c r="E69" s="28" t="n"/>
+      <c r="F69" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G69" s="28" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="23" t="inlineStr">
+        <is>
+          <t>cult</t>
+        </is>
+      </c>
+      <c r="B70" s="28" t="inlineStr">
+        <is>
+          <t>[kʌlt]</t>
+        </is>
+      </c>
+      <c r="C70" s="28" t="inlineStr">
+        <is>
+          <t>n. 异教，异教组织；狂热崇拜，迷信；（特定群体的）偶像，时尚；崇拜者，信徒；宗教信仰，宗教习俗</t>
+        </is>
+      </c>
+      <c r="D70" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The teenager may have been abducted by a religious cult. </t>
+        </is>
+      </c>
+      <c r="E70" s="28" t="n"/>
+      <c r="F70" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G70" s="28" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="23" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="B71" s="28" t="inlineStr">
+        <is>
+          <t>[kəˈrɪkjələm]</t>
+        </is>
+      </c>
+      <c r="C71" s="28" t="inlineStr">
+        <is>
+          <t>n. 课程</t>
+        </is>
+      </c>
+      <c r="D71" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Teachers incorporated business skills into the regular school curriculum. </t>
+        </is>
+      </c>
+      <c r="E71" s="28" t="n"/>
+      <c r="F71" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G71" s="28" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="23" t="inlineStr">
+        <is>
+          <t>curricula</t>
+        </is>
+      </c>
+      <c r="B72" s="28" t="inlineStr">
+        <is>
+          <t>[kəˈrɪkjʊlə]</t>
+        </is>
+      </c>
+      <c r="C72" s="28" t="inlineStr">
+        <is>
+          <t>n. 课程（curriculum 的复数形式）</t>
+        </is>
+      </c>
+      <c r="D72" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Teachers incorporated business skills into the regular school curriculum. </t>
+        </is>
+      </c>
+      <c r="E72" s="28" t="n"/>
+      <c r="F72" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G72" s="28" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="23" t="inlineStr">
+        <is>
+          <t>deficient</t>
+        </is>
+      </c>
+      <c r="B73" s="28" t="inlineStr">
+        <is>
+          <t>[dɪˈfɪʃ(ə)nt]</t>
+        </is>
+      </c>
+      <c r="C73" s="28" t="inlineStr">
+        <is>
+          <t>adj. 缺乏的，不足的；有缺点的，有缺陷的</t>
+        </is>
+      </c>
+      <c r="D73" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a diet deficient in vitamin B. </t>
+        </is>
+      </c>
+      <c r="E73" s="28" t="n"/>
+      <c r="F73" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G73" s="28" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="23" t="inlineStr">
+        <is>
+          <t>violate</t>
+        </is>
+      </c>
+      <c r="B74" s="28" t="inlineStr">
+        <is>
+          <t>[ˈvaɪəleɪt]</t>
+        </is>
+      </c>
+      <c r="C74" s="28" t="inlineStr">
+        <is>
+          <t>v. 违反，违背；侵犯，打扰；亵渎，损毁（神圣之地等）；&lt;文&gt;强奸</t>
+        </is>
+      </c>
+      <c r="D74" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They went to prison because they violated the law. </t>
+        </is>
+      </c>
+      <c r="E74" s="28" t="n"/>
+      <c r="F74" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G74" s="28" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="23" t="inlineStr">
+        <is>
+          <t>defy</t>
+        </is>
+      </c>
+      <c r="B75" s="28" t="inlineStr">
+        <is>
+          <t>[dɪˈfaɪ]</t>
+        </is>
+      </c>
+      <c r="C75" s="28" t="inlineStr">
+        <is>
+          <t>v. 违抗，不服从；挑战，激；无法，难以（描述或理解）；经受住，顶住</t>
+        </is>
+      </c>
+      <c r="D75" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This was the first (and last) time that I dared to defy my mother. </t>
+        </is>
+      </c>
+      <c r="E75" s="28" t="n"/>
+      <c r="F75" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G75" s="28" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="23" t="inlineStr">
+        <is>
+          <t>designate</t>
+        </is>
+      </c>
+      <c r="B76" s="28" t="inlineStr">
+        <is>
+          <t>[ˈdezɪɡneɪt]</t>
+        </is>
+      </c>
+      <c r="C76" s="28" t="inlineStr">
+        <is>
+          <t>v. 把……定名为，把……描述为；任命，指定；标明，标示</t>
+        </is>
+      </c>
+      <c r="D76" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...a man interviewed in one of our studies whom we shall designate as E. </t>
+        </is>
+      </c>
+      <c r="E76" s="28" t="n"/>
+      <c r="F76" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G76" s="28" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="23" t="inlineStr">
+        <is>
+          <t>delegate</t>
+        </is>
+      </c>
+      <c r="B77" s="28" t="inlineStr">
+        <is>
+          <t>[ˈdelɪɡət]</t>
+        </is>
+      </c>
+      <c r="C77" s="28" t="inlineStr">
+        <is>
+          <t>n. 代表；委员会成员</t>
+        </is>
+      </c>
+      <c r="D77" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Canadian delegate offered no reply. </t>
+        </is>
+      </c>
+      <c r="E77" s="28" t="n"/>
+      <c r="F77" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G77" s="28" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="23" t="inlineStr">
+        <is>
+          <t>deduce</t>
+        </is>
+      </c>
+      <c r="B78" s="28" t="inlineStr">
+        <is>
+          <t>[dɪˈdjuːs]</t>
+        </is>
+      </c>
+      <c r="C78" s="28" t="inlineStr">
+        <is>
+          <t>v. 推断，演绎；&lt;古&gt;对……追本溯源</t>
+        </is>
+      </c>
+      <c r="D78" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alison cleverly deduced that I was the author of the letter. </t>
+        </is>
+      </c>
+      <c r="E78" s="28" t="n"/>
+      <c r="F78" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G78" s="28" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="23" t="inlineStr">
+        <is>
+          <t>induce</t>
+        </is>
+      </c>
+      <c r="B79" s="28" t="inlineStr">
+        <is>
+          <t>[ɪnˈdjuːs]</t>
+        </is>
+      </c>
+      <c r="C79" s="28" t="inlineStr">
+        <is>
+          <t>v. 引诱，诱使；引起，导致；给（孕妇）引产，（用药物）催生；归纳出</t>
+        </is>
+      </c>
+      <c r="D79" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Doctors said surgery could induce a heart attack. </t>
+        </is>
+      </c>
+      <c r="E79" s="28" t="n"/>
+      <c r="F79" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G79" s="28" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="23" t="inlineStr">
+        <is>
+          <t>depersonalize</t>
+        </is>
+      </c>
+      <c r="B80" s="28" t="inlineStr">
+        <is>
+          <t>[diːˈpɜːsənəlaɪz]</t>
+        </is>
+      </c>
+      <c r="C80" s="28" t="inlineStr">
+        <is>
+          <t>vt. 使失去个性；使失去个人自我感</t>
+        </is>
+      </c>
+      <c r="D80" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It is true that modern weaponry depersonalized war. </t>
+        </is>
+      </c>
+      <c r="E80" s="28" t="n"/>
+      <c r="F80" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G80" s="28" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="23" t="inlineStr">
+        <is>
+          <t>deportation</t>
+        </is>
+      </c>
+      <c r="B81" s="28" t="inlineStr">
+        <is>
+          <t>[ˌdiːpɔːˈteɪʃn]</t>
+        </is>
+      </c>
+      <c r="C81" s="28" t="inlineStr">
+        <is>
+          <t>n. 驱逐出境</t>
+        </is>
+      </c>
+      <c r="D81" s="28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" s="28" t="n"/>
+      <c r="F81" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G81" s="28" t="inlineStr">
+        <is>
+          <t>deportation</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="23" t="inlineStr">
+        <is>
+          <t>descent</t>
+        </is>
+      </c>
+      <c r="B82" s="28" t="inlineStr">
+        <is>
+          <t>[dɪˈsent]</t>
+        </is>
+      </c>
+      <c r="C82" s="28" t="inlineStr">
+        <is>
+          <t>n. 下降，降落；斜坡，斜面；出身，血统；堕落，沦落；突然到访，突袭</t>
+        </is>
+      </c>
+      <c r="D82" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sixteen of the youngsters set off for help, but during the descent three collapsed in the cold and rain. </t>
+        </is>
+      </c>
+      <c r="E82" s="28" t="n"/>
+      <c r="F82" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G82" s="28" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="23" t="inlineStr">
+        <is>
+          <t>decent</t>
+        </is>
+      </c>
+      <c r="B83" s="28" t="inlineStr">
+        <is>
+          <t>[ˈdiːsnt]</t>
+        </is>
+      </c>
+      <c r="C83" s="28" t="inlineStr">
+        <is>
+          <t>adj. 像样的，尚好的；得体的，合宜的；&lt;非正式&gt;穿好衣服的；正派的，规矩的；待人宽厚的，和善的</t>
+        </is>
+      </c>
+      <c r="D83" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He didn't get a decent explanation. </t>
+        </is>
+      </c>
+      <c r="E83" s="28" t="n"/>
+      <c r="F83" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G83" s="28" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="23" t="inlineStr">
+        <is>
+          <t>detain</t>
+        </is>
+      </c>
+      <c r="B84" s="28" t="inlineStr">
+        <is>
+          <t>[dɪˈteɪn]</t>
+        </is>
+      </c>
+      <c r="C84" s="28" t="inlineStr">
+        <is>
+          <t>v. 拘留，扣押；耽搁，阻留</t>
+        </is>
+      </c>
+      <c r="D84" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Police have detained two suspects in connection with the attack. </t>
+        </is>
+      </c>
+      <c r="E84" s="28" t="n"/>
+      <c r="F84" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G84" s="28" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="23" t="inlineStr">
+        <is>
+          <t>devastate</t>
+        </is>
+      </c>
+      <c r="B85" s="28" t="inlineStr">
+        <is>
+          <t>[ˈdevəsteɪt]</t>
+        </is>
+      </c>
+      <c r="C85" s="28" t="inlineStr">
+        <is>
+          <t>v. 毁坏，破坏；使极度震惊，使伤心欲绝</t>
+        </is>
+      </c>
+      <c r="D85" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The tsunami devastated parts of Indonesia and other countries in the region. </t>
+        </is>
+      </c>
+      <c r="E85" s="28" t="n"/>
+      <c r="F85" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G85" s="28" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="23" t="inlineStr">
+        <is>
+          <t>devastating</t>
+        </is>
+      </c>
+      <c r="B86" s="28" t="inlineStr">
+        <is>
+          <t>[ˈdevəsteɪtɪŋ]</t>
+        </is>
+      </c>
+      <c r="C86" s="28" t="inlineStr">
+        <is>
+          <t>adj. 毁灭性的，极具破坏力的；令人极为震惊的；令人印象深刻的，吸引人的；极有效的，强有力的</t>
+        </is>
+      </c>
+      <c r="D86" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Affairs do have a devastating effect on marriages. </t>
+        </is>
+      </c>
+      <c r="E86" s="28" t="n"/>
+      <c r="F86" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G86" s="28" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="23" t="inlineStr">
+        <is>
+          <t>devotion</t>
+        </is>
+      </c>
+      <c r="B87" s="28" t="inlineStr">
+        <is>
+          <t>[dɪˈvəʊʃn]</t>
+        </is>
+      </c>
+      <c r="C87" s="28" t="inlineStr">
+        <is>
+          <t>n. 挚爱，忠诚；奉献；（宗教的）虔诚；祈祷，礼拜</t>
+        </is>
+      </c>
+      <c r="D87" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At first she was flattered by his devotion. </t>
+        </is>
+      </c>
+      <c r="E87" s="28" t="n"/>
+      <c r="F87" s="28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G87" s="28" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5609,8 +8194,8 @@
     <col width="10.73046875" customWidth="1" style="1" min="5" max="5"/>
     <col width="16" customWidth="1" style="1" min="6" max="6"/>
     <col width="16.46484375" customWidth="1" style="1" min="7" max="7"/>
-    <col width="9.06640625" customWidth="1" style="1" min="8" max="19"/>
-    <col width="9.06640625" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="1" min="8" max="20"/>
+    <col width="9.06640625" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/project/xlsx/words.xlsx
+++ b/project/xlsx/words.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -191,6 +191,9 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,11 +211,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -291,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,1284 +642,1348 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.0703125" defaultRowHeight="14.15"/>
-  <cols>
-    <col width="27.92578125" customWidth="1" min="1" max="1"/>
-    <col width="32.5" customWidth="1" min="2" max="2"/>
-    <col width="32.0703125" customWidth="1" style="5" min="3" max="3"/>
-    <col width="31.92578125" customWidth="1" min="4" max="4"/>
-    <col width="23.35546875" customWidth="1" min="5" max="5"/>
-    <col width="25.0703125" customWidth="1" min="6" max="6"/>
-    <col width="9.0703125" customWidth="1" style="1" min="7" max="20"/>
-    <col width="9.0703125" customWidth="1" style="1" min="21" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>单词</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>音标</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>中文释义</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>例句</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>生词度</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>处理状态</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>错误历史</t>
         </is>
       </c>
-      <c r="H1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="97.5" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>commission</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>[kəˈmɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>n. 考察团，委员会；佣金，回扣；犯罪；*委托，命令；（军队中的）官职，军衔；（尤指艺术品）委托制作；&lt;古&gt;所授之权，代办权</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> The Department of Agriculture commissioned a study into organic farming. </t>
         </is>
       </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="47.8" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>notion</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>[ˈnəʊʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>n. 概念，想法；缝纫用品；一时的念头，突发的奇想 观念</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> We each have a notion of just what kind of person we'd like to be. </t>
         </is>
       </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="32.8" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>subordinate</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>[səˈbɔːdɪnət]</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>adj. 从属的，下级的；次要的</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Haig tended not to seek guidance from subordinates. </t>
         </is>
       </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="105" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>suppress</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>[səˈpres]</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>v. （尤指用武力）镇压，压制；阻止（进程或活动）；封锁，隐瞒（消息）；抑制（生理过程）；克制（感情或反应），忍住；部分（或完全）消除（电干扰）；（心理分析）自觉抑制（不愉快的想法，记忆）</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...drug traffickers, who continue to flourish despite international attempts to suppress them. </t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>suppress</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="47.8" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>deficit</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>[ˈdefɪsɪt]</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>n. 亏损，赤字，不足额；（体育用语）失分数；缺乏，缺陷</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve"> They're ready to cut the federal budget deficit for the next fiscal year. </t>
         </is>
       </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="39" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>collide</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>[kəˈlaɪd]</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>v. 冲突，抵触；（迥异的事物）碰在一起；碰撞，相撞</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Two trains collided head-on in Ohio early this morning. </t>
         </is>
       </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>revenge</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>[rɪˈvendʒ]</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>n. 报复，报仇；报复欲望，复仇心；雪耻（指在比赛中战胜曾击败自己的对手）</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve"> The attackers were said to be taking revenge on the 14-year-old, claiming he was a school bully. </t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>avenge</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>[əˈvendʒ]</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>v. 报复，替……报仇</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve"> He has devoted the past five years to avenging his daughter's death. </t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="58.5" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>adhere</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>[ədˈhɪə(r)]</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>v. 黏附，附着；遵守，遵循（规定或协议）；拥护，持有（观点或信仰）</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve"> All members of the association adhere to a strict code of practice. </t>
         </is>
       </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-    </row>
-    <row r="11" ht="39" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>conspicuous</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>[kənˈspɪkjuəs]</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>adj. 出色的，引人注目的；显眼的，明显的</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Most people don't want to be too conspicuous. </t>
         </is>
       </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-    </row>
-    <row r="12" ht="75" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>vulnerable</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>[ˈvʌlnərəbl]</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>adj. （身体或精神）脆弱的，易受伤的；（事物、人或地方）易受攻击的，易受伤害的；易患病的；（桥牌）有局方的，有身价的</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Old people are particularly vulnerable members of our society. </t>
         </is>
       </c>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>gaze</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>[ɡeɪz]</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>v. 凝视，注视</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...gazing at herself in the mirror. </t>
         </is>
       </c>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>publication</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>[ˌpʌblɪˈkeɪʃn]</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>n. 出版，发行；出版物，发行物；（信息的） 刊登，公布</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve"> The guide is being translated into several languages for publication near Christmas. </t>
         </is>
       </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="58.5" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>bald</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>[bɔːld]</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>adj. 秃头的；光秃的，磨光的，掉光的；不加修饰的，直截了当的</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve"> The man's bald head was beaded with sweat. </t>
         </is>
       </c>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>cherish</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>[ˈtʃerɪʃ]</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>v. 珍视，珍爱；怀念（过去），抱有（希望）</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve"> The president will cherish the memory of this visit to Ohio. </t>
         </is>
       </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>cherish</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="39" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>compound</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>[ˈkɒmpaʊnd]</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>n. 混合物，化合物；复合词；大院，有围墙的场地</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve"> They took refuge in the embassy compound. </t>
         </is>
       </c>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="78" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>fatigue</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>[fəˈtiːɡ]</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>n. 疲乏，厌倦；（金属部件的）疲劳；（士兵穿的）工作服；士兵杂役（尤指作为惩罚,如做打扫、帮厨）</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve"> She continued to have severe stomach cramps, aches, fatigue, and depression. </t>
         </is>
       </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>exhaustion</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>[ɪɡˈzɔːstʃən]</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>n. 筋疲力尽；耗尽，枯竭</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve"> He is suffering from exhaustion. </t>
         </is>
       </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="39" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>gloomy</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>[ˈɡluːmi]</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>adj. 阴暗的，幽暗的；沮丧的，悲伤的；前景黯淡的，悲观的</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve"> Inside it's gloomy after all that sunshine. </t>
         </is>
       </c>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-    </row>
-    <row r="21" ht="45" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>gullible</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>[ˈɡʌləb(ə)l]</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>adj. 易受骗的；轻信的</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve"> What point is there in admitting that the stories fed to the gullible public were false? </t>
         </is>
       </c>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>gullible</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n"/>
-    </row>
-    <row r="22" ht="45" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>navigation</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>[ˌnævɪˈɡeɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>n. 导航；航行，航海；航运，水上运输；浏览，访问；领航术，航海术；内河水道（尤指运河）</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pack ice around Iceland was becoming a threat to navigation. </t>
         </is>
       </c>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>navigation</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="45" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sue</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>[suː]</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>1. 起诉，控告：向法庭提起诉讼，要求对方赔偿损失或承担法律责任。</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mr. Warren sued for libel over the remarks. </t>
         </is>
       </c>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>sue</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>suburb</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>[ˈsʌbɜːb]</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>n. 城郊，近郊</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve"> Anna was born in 1923 in a suburb of Philadelphia. </t>
         </is>
       </c>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-    </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>critical</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>[ˈkrɪtɪk(ə)l]</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>adj. 批判的，爱挑剔的；极其重要的，关键的；严重的，危急的；病重的，重伤的；评论性的，评论家的；临界的</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve"> The incident happened at a critical point in the campaign. </t>
         </is>
       </c>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-    </row>
-    <row r="26" ht="78" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>transaction</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>[trænˈzækʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>n. 交易，买卖，业务；（学术团体会议的）议事录，公报；（人与人之间的）交流，相互影响；事务（元），事项</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t xml:space="preserve"> The transaction is completed by payment of the fee. </t>
         </is>
       </c>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-    </row>
-    <row r="27" ht="32.8" customHeight="1">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>incentive</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>[ɪnˈsentɪv]</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>n. 激励，刺激</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve"> There is little or no incentive to adopt such measures. </t>
         </is>
       </c>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>confront</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>[kənˈfrʌnt]</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>v. 面对，面临；正视，处理；对峙，对抗；对质，当面对证</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve"> She was confronted with severe money problems. </t>
         </is>
       </c>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>confront</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>virtually</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>[ˈvɜːtʃuəli]</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>adv. 事实上，几乎；虚拟地，模拟地</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve"> Virtually all cooking was done over coal-fired ranges. </t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="47.8" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>perceive</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>[pəˈsiːv]</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>vt. 认为，理解；察觉，注意到；意识到</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve"> Students must perceive for themselves the relationship between success and effort. </t>
         </is>
       </c>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>in bulk</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="58.5" customHeight="1">
-      <c r="A31" s="2" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>practitioner</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>[prækˈtɪʃənə(r)]</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>n. （医学界或法律界的）从业人员，执业者；&lt;正式&gt;从事者，实践者</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>practitioner</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n"/>
-    </row>
-    <row r="32" ht="78" customHeight="1">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>obscure</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>[əbˈskjʊə(r)]</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>adj. 难以说清楚的，模糊的；鲜为人知的，默默无闻的；未被查实的，不确定的；费解的，晦涩的</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve"> The origin of the custom is obscure. </t>
         </is>
       </c>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-    </row>
-    <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>hemisphere</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>[ˈhemɪsfɪə(r)]</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>n. （地球的）半球；脑半球；（球体的）一半</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...the depletion of the ozone layer in the northern hemisphere. </t>
         </is>
       </c>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-    </row>
-    <row r="34" ht="45" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>deprive</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>[dɪˈpraɪv]</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>v. 剥夺，使丧失；免去……的职务（尤指圣职）</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t xml:space="preserve"> They've been deprived of the fuel necessary to heat their homes. </t>
         </is>
       </c>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-    </row>
-    <row r="35" ht="78" customHeight="1">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>trivial</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>[ˈtrɪviəl]</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>adj. 琐碎的，不重要的；容易解决的，不费吹灰之力的；（人）务小的，浅薄的；（数学）平凡的</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t xml:space="preserve"> The director tried to wave aside these issues as trivial details that could be settled later. </t>
         </is>
       </c>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>trivial</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>immigrant</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>[ˈɪmɪɡrənt]</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>n. （外来）移民，侨民</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t xml:space="preserve"> ...illegal immigrants. </t>
         </is>
       </c>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-    </row>
-    <row r="37" ht="97.5" customHeight="1">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>religious</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>[rɪˈlɪdʒəs]</t>
         </is>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>adj. 宗教的，与宗教相关的；笃信宗教的，虔诚的；极其严谨的，十分认真的；&lt;非正式&gt;小心的，谨慎的 ；&lt;非正式&gt;对……很感兴趣的，热衷……的</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t xml:space="preserve"> Religious groups are now able to meet quite openly. </t>
         </is>
       </c>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>religious</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n"/>
-    </row>
-    <row r="38" ht="58.5" customHeight="1">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>immigration</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>[ˌɪmɪˈɡreɪʃ(ə)n]</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>n. 移民（入境）；移民人数；移民局入境检查，移民局入境检查处</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve"> The government has decided to tighten its immigration policy. </t>
         </is>
       </c>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>已处理</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="2" t="n"/>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>已掌握</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>已处理</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
